--- a/FranckHertz/HeliumNeon/HE and Na Spectrum.xlsx
+++ b/FranckHertz/HeliumNeon/HE and Na Spectrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-990" yWindow="-60" windowWidth="15600" windowHeight="7995"/>
+    <workbookView xWindow="-990" yWindow="-60" windowWidth="15600" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calc Na" sheetId="5" r:id="rId1"/>
@@ -14,12 +14,37 @@
     <sheet name="Na Spectrum Database" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="maximums." localSheetId="1">'He 2'!$L$4:$V$10</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="maximums" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\shadow\Documents\Lab 2012\GitHub\Phys4321\FranckHertz\Helium\results\maximums.">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="291">
   <si>
     <t>Na first order</t>
   </si>
@@ -800,12 +825,6 @@
     <t>Part 3 + Part 4 Calculating Planck's constant</t>
   </si>
   <si>
-    <t>ħ</t>
-  </si>
-  <si>
-    <t>Measured ħ</t>
-  </si>
-  <si>
     <t>Deviation</t>
   </si>
   <si>
@@ -834,9 +853,6 @@
     <t>^</t>
   </si>
   <si>
-    <t>For part 4 of the lab report</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -921,20 +937,129 @@
   <si>
     <t xml:space="preserve"> = Significant or Meas. Error</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>run08</t>
+  </si>
+  <si>
+    <t>run09</t>
+  </si>
+  <si>
+    <t>run10</t>
+  </si>
+  <si>
+    <t>run02</t>
+  </si>
+  <si>
+    <t>run03</t>
+  </si>
+  <si>
+    <t>run01</t>
+  </si>
+  <si>
+    <t>run06</t>
+  </si>
+  <si>
+    <t>run07</t>
+  </si>
+  <si>
+    <t>run04</t>
+  </si>
+  <si>
+    <t>run05</t>
+  </si>
+  <si>
+    <t>Scroll left to see how to combine 3 and 4!!! --&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Part 3 Helium Energy Levels En (in eV)</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Ave.</t>
+  </si>
+  <si>
+    <t>For part 4 of the lab report or if after part 3</t>
+  </si>
+  <si>
+    <t>&lt;-- for part 4</t>
+  </si>
+  <si>
+    <t>Align*</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>^ need due to error of missing shield/other significant error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n</t>
+  </si>
+  <si>
+    <t>Theoretical</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Observed (eV)</t>
+  </si>
+  <si>
+    <t>such as the inability to adjust retarding voltage</t>
+  </si>
+  <si>
+    <t>1sd4*</t>
+  </si>
+  <si>
+    <t>1s3d*</t>
+  </si>
+  <si>
+    <t>* Theoritical Value used</t>
+  </si>
+  <si>
+    <t>1s3p*</t>
+  </si>
+  <si>
+    <t>1s4s / 1s3d</t>
+  </si>
+  <si>
+    <t>Measured h</t>
+  </si>
+  <si>
+    <t>Theoritical h =</t>
+  </si>
+  <si>
+    <t>h (Js)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Align Energy Level found by aligning n = 1 </t>
+  </si>
+  <si>
+    <t>* This averge Aligned Average found by aligning 14.08 with 19.82 energy level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0E+00"/>
     <numFmt numFmtId="169" formatCode="0E+00"/>
+    <numFmt numFmtId="173" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,8 +1125,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,13 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1416,25 +1542,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1464,69 +1572,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1534,15 +1587,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1556,6 +1600,100 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,6 +1702,10 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="maximums." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1853,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+    <sheetView topLeftCell="G5" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -1882,10 +2024,10 @@
       <c r="A3" s="48"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="1" t="s">
         <v>215</v>
       </c>
@@ -1898,155 +2040,155 @@
       <c r="J4" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="136" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="133"/>
       <c r="J6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="92" t="s">
+      <c r="B7" s="132"/>
+      <c r="C7" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="132"/>
+      <c r="E7" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="J7" s="116" t="s">
+      <c r="J7" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="P7" s="116" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="P7" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="J8" s="116"/>
+      <c r="J8" s="127"/>
       <c r="L8" s="6"/>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="136">
+      <c r="A9" s="111">
         <v>234.5</v>
       </c>
-      <c r="B9" s="136">
+      <c r="B9" s="111">
         <v>3</v>
       </c>
-      <c r="C9" s="136">
+      <c r="C9" s="111">
         <v>192.5</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="111">
         <v>25</v>
       </c>
-      <c r="E9" s="142">
+      <c r="E9" s="114">
         <f>A9+(B9/60)-($B$11+($C$11/60))</f>
         <v>20.833333333333343</v>
       </c>
-      <c r="F9" s="142">
+      <c r="F9" s="114">
         <f>ABS(C9+(D9/60)-($B$11+($C$11/60)))</f>
         <v>20.800000000000011</v>
       </c>
-      <c r="G9" s="142">
+      <c r="G9" s="114">
         <f>STDEV(E9:F9)</f>
         <v>2.3570226039550245E-2</v>
       </c>
-      <c r="H9" s="143">
+      <c r="H9" s="115">
         <f>(5893*10^-10)/(1/2*(SIN(RADIANS(E9))+SIN(RADIANS(F9))))</f>
         <v>1.6582303080679453E-6</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="114" t="s">
+      <c r="K9" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="L9" s="115"/>
+      <c r="L9" s="135"/>
       <c r="P9" t="s">
-        <v>252</v>
-      </c>
-      <c r="R9" s="153">
+        <v>249</v>
+      </c>
+      <c r="R9" s="125">
         <f>RADIANS(1/60)</f>
         <v>2.9088820866572158E-4</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="136">
+      <c r="A10" s="111">
         <v>259</v>
       </c>
-      <c r="B10" s="136">
+      <c r="B10" s="111">
         <v>0</v>
       </c>
-      <c r="C10" s="136">
+      <c r="C10" s="111">
         <v>168</v>
       </c>
-      <c r="D10" s="144">
+      <c r="D10" s="116">
         <v>10</v>
       </c>
-      <c r="E10" s="145">
+      <c r="E10" s="117">
         <f>A10+(B10/60)-($B$11+($C$11/60))</f>
         <v>45.283333333333331</v>
       </c>
-      <c r="F10" s="142">
+      <c r="F10" s="114">
         <f>ABS(C10+(D10/60)-($B$11+($C$11/60)))</f>
         <v>45.550000000000011</v>
       </c>
-      <c r="G10" s="142">
+      <c r="G10" s="114">
         <f>STDEV(E10:F10)</f>
         <v>0.18856180831642205</v>
       </c>
-      <c r="H10" s="143">
+      <c r="H10" s="115">
         <f>(5893*10^-10)/(1/2*(SIN(RADIANS(E10))+SIN(RADIANS(F10))))</f>
         <v>8.2740319461326229E-7</v>
       </c>
@@ -2061,9 +2203,9 @@
         <v>1.3089969389955486E-3</v>
       </c>
       <c r="P10" t="s">
-        <v>253</v>
-      </c>
-      <c r="R10" s="153">
+        <v>250</v>
+      </c>
+      <c r="R10" s="125">
         <f>SQRT(2*R9*(5893*10^-10)*(COS(RADIANS(F10))+COS(RADIANS(E10)))/(2-COS(RADIANS(F10))^2+2*SIN(RADIANS(E10))*SIN(RADIANS(F10))-COS(RADIANS(F10))^2))</f>
         <v>1.5383877280906121E-5</v>
       </c>
@@ -2072,19 +2214,19 @@
       <c r="A11" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="136">
+      <c r="B11" s="111">
         <v>213.5</v>
       </c>
-      <c r="C11" s="146">
+      <c r="C11" s="118">
         <v>13</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="141" t="s">
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="133" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="149">
+      <c r="G11" s="132"/>
+      <c r="H11" s="121">
         <f>AVERAGE(H9:H10)</f>
         <v>1.2428167513406039E-6</v>
       </c>
@@ -2098,16 +2240,16 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="136"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="141" t="s">
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="133" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="123"/>
-      <c r="H12" s="152">
+      <c r="G12" s="132"/>
+      <c r="H12" s="124">
         <f>STDEV(H9:H10)/SQRT(2)</f>
         <v>4.1541355672734149E-7</v>
       </c>
@@ -2115,7 +2257,7 @@
       <c r="K12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L12" s="107">
+      <c r="L12" s="101">
         <f>AVERAGE(G17:G18)</f>
         <v>5.4978079672715552</v>
       </c>
@@ -2124,60 +2266,60 @@
       <c r="K13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="107">
+      <c r="L13" s="101">
         <f>STDEV(G17:G18)</f>
         <v>1.7790688299436936</v>
       </c>
       <c r="M13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="K14" s="108" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="K14" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="113">
+      <c r="L14" s="106">
         <f>'Na Spectrum Database'!A43-'Na Spectrum Database'!A42</f>
         <v>5.973283000000265</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="99" t="s">
+      <c r="D15" s="130"/>
+      <c r="E15" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="129" t="s">
         <v>223</v>
       </c>
       <c r="H15" t="s">
         <v>228</v>
       </c>
       <c r="P15" t="s">
-        <v>255</v>
-      </c>
-      <c r="R15" s="154">
+        <v>252</v>
+      </c>
+      <c r="R15" s="126">
         <f>SQRT(1/4*$R$9^2*H9^2*SIN(RADIANS(E17))^2*F17^2+1/4*(SQRT(2)*$R$9)^2*H9^2*COS(RADIANS(E17))^2+1/4*($R$10)^2*COS(RADIANS(E17))^2*F17^2)*10^10</f>
         <v>62.720983484732848</v>
       </c>
@@ -2201,14 +2343,14 @@
       <c r="F16" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="119"/>
-      <c r="K16" s="112" t="s">
+      <c r="G16" s="129"/>
+      <c r="K16" s="105" t="s">
         <v>234</v>
       </c>
       <c r="P16" t="s">
-        <v>256</v>
-      </c>
-      <c r="R16" s="154">
+        <v>253</v>
+      </c>
+      <c r="R16" s="126">
         <f>SQRT(1/4*$R$9^2*H10^2*SIN(RADIANS(E18))^2*F18^2+1/4*(SQRT(2)*$R$9)^2*H10^2*COS(RADIANS(E18))^2+1/4*($R$10)^2*COS(RADIANS(E18))^2*F18^2)*10^10</f>
         <v>78.839870555390462</v>
       </c>
@@ -2238,11 +2380,11 @@
         <f>1*10^10*H9/(2)*COS(RADIANS(E17))*F17</f>
         <v>6.7557996011223551</v>
       </c>
-      <c r="K17" s="112" t="s">
+      <c r="K17" s="105" t="s">
         <v>235</v>
       </c>
       <c r="P17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R17" s="67">
         <f>AVERAGE(R15,R16)</f>
@@ -2274,24 +2416,24 @@
         <f>1*10^10*H10/(2)*COS(RADIANS(E18))*F18</f>
         <v>4.2398163334207561</v>
       </c>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2316,31 +2458,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" customWidth="1"/>
+    <col min="13" max="22" width="6" customWidth="1"/>
+    <col min="23" max="25" width="7" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="F1" s="150" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2350,57 +2498,113 @@
       <c r="C2">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="121" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="AA2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
       <c r="J3" t="s">
         <v>237</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="139" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="107"/>
+      <c r="AA3" s="7">
         <f>0.5/60</f>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:36">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="122" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="92" t="s">
+      <c r="C4" s="131" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="132"/>
+      <c r="G4" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="91" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="K4" s="2"/>
+      <c r="L4" s="160" t="s">
+        <v>255</v>
+      </c>
+      <c r="M4" s="160" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="160" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="160" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4" s="160" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q4" s="160" t="s">
+        <v>260</v>
+      </c>
+      <c r="R4" s="160" t="s">
+        <v>261</v>
+      </c>
+      <c r="S4" s="160" t="s">
+        <v>262</v>
+      </c>
+      <c r="T4" s="160" t="s">
+        <v>263</v>
+      </c>
+      <c r="U4" s="160" t="s">
+        <v>264</v>
+      </c>
+      <c r="V4" s="160" t="s">
+        <v>265</v>
+      </c>
+      <c r="W4" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="X4" s="161" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2431,13 +2635,55 @@
         <f t="shared" ref="I5:I11" si="1">STDEV(G5:H5)/SQRT(2)</f>
         <v>2.5000000000005681E-2</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="84">
+        <v>14.015000000000001</v>
+      </c>
+      <c r="N5" s="84">
+        <v>14.025</v>
+      </c>
+      <c r="O5" s="84">
+        <v>14.025</v>
+      </c>
+      <c r="P5" s="84">
+        <v>14.025</v>
+      </c>
+      <c r="Q5" s="84">
+        <v>14.025</v>
+      </c>
+      <c r="R5" s="84">
+        <v>14.025</v>
+      </c>
+      <c r="S5" s="84">
+        <v>14.025</v>
+      </c>
+      <c r="T5" s="84">
+        <v>14.025</v>
+      </c>
+      <c r="U5" s="84">
+        <v>13.9949999999999</v>
+      </c>
+      <c r="V5" s="84">
+        <v>14.025</v>
+      </c>
+      <c r="W5" s="84">
+        <f>AVERAGE('He 2'!M5:V5)</f>
+        <v>14.020999999999992</v>
+      </c>
+      <c r="X5" s="84">
+        <f>W5+$U$12</f>
+        <v>19.819613582279999</v>
+      </c>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2457,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="84">
-        <f t="shared" ref="G5:G7" si="2">C6+(D6/60)-($B$2+($C$2/60))</f>
+        <f t="shared" ref="G6:G7" si="2">C6+(D6/60)-($B$2+($C$2/60))</f>
         <v>16.550000000000011</v>
       </c>
       <c r="H6" s="84">
@@ -2468,11 +2714,53 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="84">
+        <v>14.7249999999999</v>
+      </c>
+      <c r="N6" s="84">
+        <v>14.7149999999999</v>
+      </c>
+      <c r="O6" s="84">
+        <v>14.7149999999999</v>
+      </c>
+      <c r="P6" s="84">
+        <v>14.7149999999999</v>
+      </c>
+      <c r="Q6" s="84">
+        <v>14.684999999999899</v>
+      </c>
+      <c r="R6" s="84">
+        <v>14.7249999999999</v>
+      </c>
+      <c r="S6" s="84">
+        <v>14.675000000000001</v>
+      </c>
+      <c r="T6" s="84">
+        <v>14.7249999999999</v>
+      </c>
+      <c r="U6" s="84">
+        <v>14.7149999999999</v>
+      </c>
+      <c r="V6" s="84">
+        <v>14.675000000000001</v>
+      </c>
+      <c r="W6" s="84">
+        <f>AVERAGE('He 2'!M6:V6)</f>
+        <v>14.706999999999919</v>
+      </c>
+      <c r="X6" s="84">
+        <f>W6+$U$12</f>
+        <v>20.505613582279928</v>
+      </c>
+      <c r="Y6" s="151"/>
+      <c r="AA6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:36">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2503,24 +2791,66 @@
         <f t="shared" si="1"/>
         <v>8.3333333333257525E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="84">
+        <v>15.135</v>
+      </c>
+      <c r="N7" s="84">
+        <v>15.174999999999899</v>
+      </c>
+      <c r="O7" s="84">
+        <v>15.174999999999899</v>
+      </c>
+      <c r="P7" s="84">
+        <v>15.174999999999899</v>
+      </c>
+      <c r="Q7" s="84">
+        <v>15.174999999999899</v>
+      </c>
+      <c r="R7" s="84">
+        <v>15.125</v>
+      </c>
+      <c r="S7" s="84">
+        <v>15.154999999999999</v>
+      </c>
+      <c r="T7" s="84">
+        <v>15.125</v>
+      </c>
+      <c r="U7" s="84">
+        <v>15.135</v>
+      </c>
+      <c r="V7" s="84">
+        <v>15.125</v>
+      </c>
+      <c r="W7" s="84">
+        <f>AVERAGE('He 2'!M7:V7)</f>
+        <v>15.149999999999959</v>
+      </c>
+      <c r="X7" s="84">
+        <f>W7+$U$12</f>
+        <v>20.948613582279968</v>
+      </c>
+      <c r="Y7" s="151"/>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="109">
         <v>231</v>
       </c>
-      <c r="D8" s="134">
+      <c r="D8" s="109">
         <v>26</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="109">
         <v>196</v>
       </c>
-      <c r="F8" s="134">
+      <c r="F8" s="109">
         <v>5</v>
       </c>
       <c r="G8" s="84">
@@ -2535,36 +2865,78 @@
         <f t="shared" si="1"/>
         <v>4.1666666666671404E-2</v>
       </c>
-      <c r="L8" s="114" t="s">
+      <c r="L8" s="3">
+        <v>4</v>
+      </c>
+      <c r="M8" s="84">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="N8" s="84">
+        <v>16.904999999999902</v>
+      </c>
+      <c r="O8" s="84">
+        <v>16.884999999999899</v>
+      </c>
+      <c r="P8" s="84">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="Q8" s="84">
+        <v>16.904999999999902</v>
+      </c>
+      <c r="R8" s="84">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="S8" s="84">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="T8" s="84">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="U8" s="84">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="V8" s="84">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="W8" s="84">
+        <f>AVERAGE('He 2'!M8:V8)</f>
+        <v>16.909999999999968</v>
+      </c>
+      <c r="X8" s="84">
+        <f>W8+$U$12</f>
+        <v>22.708613582279973</v>
+      </c>
+      <c r="Y8" s="151"/>
+      <c r="AA8" s="134" t="s">
         <v>238</v>
       </c>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="140"/>
+      <c r="AF8" s="140"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="135"/>
+      <c r="AJ8" s="1"/>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="135">
+      <c r="C9" s="110">
         <v>234.5</v>
       </c>
-      <c r="D9" s="135">
+      <c r="D9" s="110">
         <v>0</v>
       </c>
-      <c r="E9" s="135">
+      <c r="E9" s="110">
         <v>192.5</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F9" s="110">
         <v>26</v>
       </c>
       <c r="G9" s="84">
@@ -2579,42 +2951,84 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="123" t="str">
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
+      <c r="M9" s="84">
+        <v>17.614999999999998</v>
+      </c>
+      <c r="N9" s="84">
+        <v>17.625</v>
+      </c>
+      <c r="O9" s="84">
+        <v>17.625</v>
+      </c>
+      <c r="P9" s="84">
+        <v>17.625</v>
+      </c>
+      <c r="Q9" s="84">
+        <v>17.605</v>
+      </c>
+      <c r="R9" s="84">
+        <v>17.574999999999999</v>
+      </c>
+      <c r="S9" s="84">
+        <v>17.574999999999999</v>
+      </c>
+      <c r="T9" s="84">
+        <v>17.574999999999999</v>
+      </c>
+      <c r="U9" s="84">
+        <v>17.614999999999998</v>
+      </c>
+      <c r="V9" s="84">
+        <v>17.625</v>
+      </c>
+      <c r="W9" s="84">
+        <f>AVERAGE('He 2'!M9:V9)</f>
+        <v>17.606000000000002</v>
+      </c>
+      <c r="X9" s="84">
+        <f>W9+$U$12</f>
+        <v>23.404613582280007</v>
+      </c>
+      <c r="Y9" s="151"/>
+      <c r="AA9" s="132" t="str">
         <f>B15</f>
         <v>Color</v>
       </c>
-      <c r="M9" s="122" t="s">
+      <c r="AB9" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="114" t="s">
+      <c r="AC9" s="131"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="133" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="AF9" s="140"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="141" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="109">
         <v>237.5</v>
       </c>
-      <c r="D10" s="134">
+      <c r="D10" s="109">
         <v>0</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="109">
         <v>189.5</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="109">
         <v>0</v>
       </c>
       <c r="G10" s="84">
@@ -2629,47 +3043,89 @@
         <f t="shared" si="1"/>
         <v>0.21666666666661183</v>
       </c>
-      <c r="L10" s="123"/>
-      <c r="M10" s="80" t="s">
+      <c r="L10" s="3">
+        <v>6</v>
+      </c>
+      <c r="M10" s="84">
+        <v>18.085000000000001</v>
+      </c>
+      <c r="N10" s="84">
+        <v>18.125</v>
+      </c>
+      <c r="O10" s="84">
+        <v>18.125</v>
+      </c>
+      <c r="P10" s="84">
+        <v>18.125</v>
+      </c>
+      <c r="Q10" s="84">
+        <v>18.125</v>
+      </c>
+      <c r="R10" s="84">
+        <v>18.074999999999999</v>
+      </c>
+      <c r="S10" s="84">
+        <v>18.125</v>
+      </c>
+      <c r="T10" s="84">
+        <v>18.125</v>
+      </c>
+      <c r="U10" s="84">
+        <v>18.114999999999998</v>
+      </c>
+      <c r="V10" s="84">
+        <v>18.125</v>
+      </c>
+      <c r="W10" s="84">
+        <f>AVERAGE('He 2'!M10:V10)</f>
+        <v>18.115000000000002</v>
+      </c>
+      <c r="X10" s="84">
+        <f>W10+$U$12</f>
+        <v>23.913613582280007</v>
+      </c>
+      <c r="Y10" s="151"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="AC10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P10" s="80" t="s">
+      <c r="AE10" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="Q10" s="80" t="s">
+      <c r="AF10" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="R10" s="80" t="s">
+      <c r="AG10" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="S10" s="80" t="s">
+      <c r="AH10" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="T10" s="120"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="AI10" s="130"/>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="109">
         <v>239</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="109">
         <v>0</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="109">
         <v>188.5</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="109">
         <v>0</v>
       </c>
       <c r="G11" s="84">
@@ -2684,170 +3140,212 @@
         <f t="shared" si="1"/>
         <v>3.3333333333331439E-2</v>
       </c>
-      <c r="L11" s="136" t="s">
+      <c r="L11" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="AA11" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="137">
+      <c r="AB11" s="112">
         <f>E16</f>
         <v>4484.856316319604</v>
       </c>
-      <c r="N11" s="98">
+      <c r="AC11" s="92">
         <f>'He Spectrum Database'!A148</f>
         <v>4471.4802</v>
       </c>
-      <c r="O11" s="64">
-        <f>(M11-N11)/(N11)</f>
+      <c r="AD11" s="64">
+        <f>(AB11-AC11)/(AC11)</f>
         <v>2.9914291736333931E-3</v>
       </c>
-      <c r="P11" s="93" t="str">
+      <c r="AE11" s="156" t="str">
         <f>'He Spectrum Database'!G148</f>
         <v>1s2p</v>
       </c>
-      <c r="Q11" s="96" t="str">
-        <f>'He Spectrum Database'!H148</f>
-        <v>1s4d</v>
-      </c>
-      <c r="R11" s="84">
-        <f>'He Spectrum Database'!E148</f>
-        <v>20.96408587426</v>
-      </c>
-      <c r="S11" s="84">
+      <c r="AF11" s="154" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG11" s="84">
+        <f>N18</f>
+        <v>20.948613582279968</v>
+      </c>
+      <c r="AH11" s="84">
         <f>'He Spectrum Database'!F148</f>
         <v>23.736089152750001</v>
       </c>
-      <c r="T11" s="5">
-        <f>-(R11-S11)*(1.60217646E-19)*M11/(3*10^8)*10^(-10)</f>
-        <v>6.6394386966004569E-34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1">
+      <c r="AI11" s="5">
+        <f>-(AG11-AH11)*(1.60217646E-19)*AB11/(3*10^8)*10^(-10)</f>
+        <v>6.6764975756048443E-34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="14.25" customHeight="1">
       <c r="I12" t="s">
         <v>116</v>
       </c>
-      <c r="L12" s="136" t="s">
+      <c r="S12" t="s">
+        <v>274</v>
+      </c>
+      <c r="U12" s="151">
+        <f>R16-W5</f>
+        <v>5.7986135822800069</v>
+      </c>
+      <c r="AA12" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="137">
-        <f t="shared" ref="M12:M17" si="3">E17</f>
+      <c r="AB12" s="112">
+        <f t="shared" ref="AB12:AB17" si="3">E17</f>
         <v>4723.5016087649137</v>
       </c>
-      <c r="N12" s="98">
+      <c r="AC12" s="92">
         <f>'He Spectrum Database'!A153</f>
         <v>4713.1457</v>
       </c>
-      <c r="O12" s="64">
-        <f t="shared" ref="O12:O17" si="4">(M12-N12)/(N12)</f>
+      <c r="AD12" s="64">
+        <f t="shared" ref="AD12:AD17" si="4">(AB12-AC12)/(AC12)</f>
         <v>2.1972392588910828E-3</v>
       </c>
-      <c r="P12" s="94" t="str">
+      <c r="AE12" s="155" t="str">
         <f>'He Spectrum Database'!G153</f>
         <v>1s2p</v>
       </c>
-      <c r="Q12" s="91" t="str">
-        <f>'He Spectrum Database'!H153</f>
-        <v>1s4s</v>
-      </c>
-      <c r="R12" s="52">
-        <f>'He Spectrum Database'!E153</f>
-        <v>20.96408587426</v>
-      </c>
-      <c r="S12" s="52">
-        <f>'He Spectrum Database'!F153</f>
-        <v>23.593957536200001</v>
-      </c>
-      <c r="T12" s="5">
-        <f t="shared" ref="T12:T17" si="5">-(R12-S12)*(1.60217646E-19)*M12/(3*10^8)*10^(-10)</f>
-        <v>6.6341870898760576E-34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="AF12" s="155" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" s="52">
+        <f>AG11</f>
+        <v>20.948613582279968</v>
+      </c>
+      <c r="AH12" s="52">
+        <f>N20</f>
+        <v>23.404613582280007</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" ref="AI12:AI17" si="5">-(AG12-AH12)*(1.60217646E-19)*AB12/(3*10^8)*10^(-10)</f>
+        <v>6.195573620013242E-34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="I13" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="136" t="s">
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="S13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA13" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="137">
+      <c r="AB13" s="112">
         <f t="shared" si="3"/>
         <v>4924.2516980720748</v>
       </c>
-      <c r="N13" s="98">
+      <c r="AC13" s="92">
         <f>'He Spectrum Database'!A158</f>
         <v>4921.9313000000002</v>
       </c>
-      <c r="O13" s="64">
+      <c r="AD13" s="64">
         <f t="shared" si="4"/>
         <v>4.7144056481945764E-4</v>
       </c>
-      <c r="P13" s="94" t="str">
+      <c r="AE13" s="155" t="str">
         <f>'He Spectrum Database'!G158</f>
         <v>1s2p</v>
       </c>
-      <c r="Q13" s="97" t="str">
-        <f>'He Spectrum Database'!H158</f>
-        <v>1s4d</v>
-      </c>
-      <c r="R13" s="52">
+      <c r="AF13" s="155" t="str">
+        <f>AF11</f>
+        <v>1sd4*</v>
+      </c>
+      <c r="AG13" s="52">
         <f>'He Spectrum Database'!E158</f>
         <v>21.218021673199999</v>
       </c>
-      <c r="S13" s="52">
+      <c r="AH13" s="52">
         <f>'He Spectrum Database'!F158</f>
         <v>23.736333849169998</v>
       </c>
-      <c r="T13" s="5">
+      <c r="AI13" s="5">
         <f t="shared" si="5"/>
         <v>6.6227582219299628E-34</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="B14" s="121" t="s">
+    <row r="14" spans="1:36">
+      <c r="B14" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="H14" t="s">
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" t="s">
         <v>213</v>
       </c>
-      <c r="L14" s="136" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="139" t="s">
+        <v>279</v>
+      </c>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA14" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="137">
+      <c r="AB14" s="112">
         <f t="shared" si="3"/>
         <v>5034.6736700246829</v>
       </c>
-      <c r="N14" s="98">
+      <c r="AC14" s="92">
         <f>'He Spectrum Database'!A159</f>
         <v>5015.6782999999996</v>
       </c>
-      <c r="O14" s="64">
+      <c r="AD14" s="64">
         <f t="shared" si="4"/>
         <v>3.7871986376565112E-3</v>
       </c>
-      <c r="P14" s="91" t="str">
+      <c r="AE14" s="155" t="str">
         <f>'He Spectrum Database'!G159</f>
         <v>1s2s</v>
       </c>
-      <c r="Q14" s="91" t="str">
-        <f>'He Spectrum Database'!H159</f>
-        <v>1s3p</v>
-      </c>
-      <c r="R14" s="52">
-        <f>'He Spectrum Database'!E159</f>
-        <v>20.6157738231</v>
-      </c>
-      <c r="S14" s="52">
+      <c r="AF14" s="155" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG14" s="52">
+        <f>N17</f>
+        <v>20.505613582279928</v>
+      </c>
+      <c r="AH14" s="52">
         <f>'He Spectrum Database'!F159</f>
         <v>23.087017385399999</v>
       </c>
-      <c r="T14" s="5">
+      <c r="AI14" s="5">
         <f t="shared" si="5"/>
-        <v>6.6447090469520623E-34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>6.9409092110954503E-34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,279 +3355,500 @@
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="119"/>
-      <c r="H15" t="s">
+      <c r="F15" s="129"/>
+      <c r="G15" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="136" t="s">
+      <c r="L15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M15" s="157" t="s">
+        <v>278</v>
+      </c>
+      <c r="N15" s="157" t="s">
+        <v>273</v>
+      </c>
+      <c r="O15" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="P15" s="139" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="AA15" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="137">
+      <c r="AB15" s="112">
         <f t="shared" si="3"/>
         <v>5883.9818058411656</v>
       </c>
-      <c r="N15" s="98">
+      <c r="AC15" s="92">
         <f>'He Spectrum Database'!A165</f>
         <v>5875.6210000000001</v>
       </c>
-      <c r="O15" s="64">
+      <c r="AD15" s="64">
         <f t="shared" si="4"/>
         <v>1.4229654773794172E-3</v>
       </c>
-      <c r="P15" s="94" t="str">
+      <c r="AE15" s="155" t="str">
         <f>'He Spectrum Database'!G165</f>
         <v>1s2p</v>
       </c>
-      <c r="Q15" s="95" t="str">
-        <f>'He Spectrum Database'!H165</f>
-        <v>1s3d</v>
-      </c>
-      <c r="R15" s="52">
-        <f>'He Spectrum Database'!E165</f>
-        <v>20.96408587426</v>
-      </c>
-      <c r="S15" s="52">
+      <c r="AF15" s="155" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG15" s="52">
+        <f>AG12</f>
+        <v>20.948613582279968</v>
+      </c>
+      <c r="AH15" s="52">
         <f>'He Spectrum Database'!F165</f>
         <v>23.073649874819999</v>
       </c>
-      <c r="T15" s="5">
+      <c r="AI15" s="5">
         <f t="shared" si="5"/>
-        <v>6.629077840754195E-34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>6.6776978531753778E-34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="84">
-        <f>G5</f>
+        <f t="shared" ref="C16:D22" si="6">G5</f>
         <v>15.666666666666657</v>
       </c>
       <c r="D16" s="84">
-        <f>H5</f>
+        <f t="shared" si="6"/>
         <v>15.716666666666669</v>
       </c>
-      <c r="E16" s="132">
+      <c r="E16" s="138">
         <f>(1/2*(SIN(RADIANS(C16))+SIN(RADIANS(D16))))*'Calc Na'!$H$9*10^10</f>
         <v>4484.856316319604</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="H16" s="81" t="s">
+      <c r="F16" s="138"/>
+      <c r="G16" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="L16" s="136" t="s">
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="114">
+        <f>W5</f>
+        <v>14.020999999999992</v>
+      </c>
+      <c r="N16" s="84">
+        <f>X5</f>
+        <v>19.819613582279999</v>
+      </c>
+      <c r="O16" s="84">
+        <f>STDEV(M5:V5)/SQRT(10)</f>
+        <v>3.0550504633134025E-3</v>
+      </c>
+      <c r="P16" s="158" t="str">
+        <f>'He and Hg Levels'!A3</f>
+        <v xml:space="preserve">1s2 </v>
+      </c>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="159">
+        <f>'He and Hg Levels'!D4</f>
+        <v>19.819613582279999</v>
+      </c>
+      <c r="S16" s="153"/>
+      <c r="AA16" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="137">
+      <c r="AB16" s="112">
         <f t="shared" si="3"/>
         <v>6744.5820651297681</v>
       </c>
-      <c r="N16" s="98">
+      <c r="AC16" s="92">
         <f>'He Spectrum Database'!A171</f>
         <v>6678.1509999999998</v>
       </c>
-      <c r="O16" s="64">
-        <f>(M16-N16)/(N16)</f>
+      <c r="AD16" s="64">
+        <f>(AB16-AC16)/(AC16)</f>
         <v>9.9475236678188746E-3</v>
       </c>
-      <c r="P16" s="94" t="str">
+      <c r="AE16" s="155" t="str">
         <f>'He Spectrum Database'!G171</f>
         <v>1s2p</v>
       </c>
-      <c r="Q16" s="95" t="str">
-        <f>'He Spectrum Database'!H171</f>
-        <v>1s3d</v>
-      </c>
-      <c r="R16" s="52">
-        <f>'He Spectrum Database'!E171</f>
-        <v>21.218021673199999</v>
-      </c>
-      <c r="S16" s="52">
+      <c r="AF16" s="155" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG16" s="52">
+        <f>AG11</f>
+        <v>20.948613582279968</v>
+      </c>
+      <c r="AH16" s="52">
         <f>'He Spectrum Database'!F171</f>
         <v>23.07407365281</v>
       </c>
-      <c r="T16" s="5">
+      <c r="AI16" s="5">
         <f t="shared" si="5"/>
-        <v>6.6855057993020437E-34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
+        <v>7.6559146962571897E-34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35">
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="84">
-        <f>G6</f>
+        <f t="shared" si="6"/>
         <v>16.550000000000011</v>
       </c>
       <c r="D17" s="84">
-        <f>H6</f>
+        <f t="shared" si="6"/>
         <v>16.550000000000011</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="138">
         <f>(1/2*(SIN(RADIANS(C17))+SIN(RADIANS(D17))))*'Calc Na'!$H$9*10^10</f>
         <v>4723.5016087649137</v>
       </c>
-      <c r="F17" s="132"/>
-      <c r="L17" s="136" t="s">
+      <c r="F17" s="138"/>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
+      <c r="M17" s="114">
+        <f t="shared" ref="M17:M21" si="7">W6</f>
+        <v>14.706999999999919</v>
+      </c>
+      <c r="N17" s="84">
+        <f>X6</f>
+        <v>20.505613582279928</v>
+      </c>
+      <c r="O17" s="84">
+        <f>STDEV(M6:V6)/SQRT(10)</f>
+        <v>6.4635731432107569E-3</v>
+      </c>
+      <c r="P17" s="139" t="str">
+        <f>'He and Hg Levels'!A5</f>
+        <v xml:space="preserve">1s2s </v>
+      </c>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="159">
+        <f>'He and Hg Levels'!D5</f>
+        <v>20.6157738231</v>
+      </c>
+      <c r="S17" s="152"/>
+      <c r="AA17" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="137">
+      <c r="AB17" s="112">
         <f t="shared" si="3"/>
         <v>7073.490932729027</v>
       </c>
-      <c r="N17" s="98">
+      <c r="AC17" s="92">
         <f>'He Spectrum Database'!A174</f>
         <v>7065.19</v>
       </c>
-      <c r="O17" s="64">
+      <c r="AD17" s="64">
         <f t="shared" si="4"/>
         <v>1.1749058028202226E-3</v>
       </c>
-      <c r="P17" s="94" t="str">
+      <c r="AE17" s="155" t="str">
         <f>'He Spectrum Database'!G174</f>
         <v>1s2p</v>
       </c>
-      <c r="Q17" s="91" t="str">
+      <c r="AF17" s="155" t="str">
         <f>'He Spectrum Database'!H174</f>
         <v>1s3s</v>
       </c>
-      <c r="R17" s="52">
-        <f>'He Spectrum Database'!E174</f>
-        <v>20.964095349809998</v>
-      </c>
-      <c r="S17" s="52">
-        <f>'He Spectrum Database'!F174</f>
-        <v>22.718465298000002</v>
-      </c>
-      <c r="T17" s="5">
+      <c r="AG17" s="52">
+        <f>AG11</f>
+        <v>20.948613582279968</v>
+      </c>
+      <c r="AH17" s="52">
+        <f>N19</f>
+        <v>22.708613582279973</v>
+      </c>
+      <c r="AI17" s="5">
         <f t="shared" si="5"/>
-        <v>6.6274135658688306E-34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
+        <v>6.6486819886325967E-34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35">
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="84">
-        <f>G7</f>
+        <f t="shared" si="6"/>
         <v>17.283333333333331</v>
       </c>
       <c r="D18" s="84">
-        <f>H7</f>
+        <f t="shared" si="6"/>
         <v>17.26666666666668</v>
       </c>
-      <c r="E18" s="132">
+      <c r="E18" s="138">
         <f>(1/2*(SIN(RADIANS(C18))+SIN(RADIANS(D18))))*'Calc Na'!$H$9*10^10</f>
         <v>4924.2516980720748</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="R18" s="117"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="5">
-        <f>AVERAGE(T11:T17)</f>
-        <v>6.6404414658976575E-34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="F18" s="138"/>
+      <c r="G18" t="s">
+        <v>272</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="114">
+        <f t="shared" si="7"/>
+        <v>15.149999999999959</v>
+      </c>
+      <c r="N18" s="84">
+        <f>X7</f>
+        <v>20.948613582279968</v>
+      </c>
+      <c r="O18" s="84">
+        <f>STDEV(M7:V7)/SQRT(10)</f>
+        <v>7.3409051818331995E-3</v>
+      </c>
+      <c r="P18" s="139" t="str">
+        <f>'He and Hg Levels'!A6</f>
+        <v xml:space="preserve">1s2p </v>
+      </c>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="84">
+        <f>AVERAGE('He and Hg Levels'!D6:D8)</f>
+        <v>20.964133019913334</v>
+      </c>
+      <c r="S18" s="152"/>
+      <c r="AA18" s="134" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="135"/>
+      <c r="AF18" s="134" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="85">
+        <f>AVERAGE(AI11:AI17)</f>
+        <v>6.7740047381012364E-34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="84">
-        <f>G8</f>
+        <f t="shared" si="6"/>
         <v>17.716666666666669</v>
       </c>
       <c r="D19" s="84">
-        <f>H8</f>
+        <f t="shared" si="6"/>
         <v>17.633333333333326</v>
       </c>
-      <c r="E19" s="132">
+      <c r="E19" s="138">
         <f>(1/2*(SIN(RADIANS(C19))+SIN(RADIANS(D19))))*'Calc Na'!$H$9*10^10</f>
         <v>5034.6736700246829</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="Q19" s="114" t="s">
+      <c r="F19" s="138"/>
+      <c r="L19" s="3">
+        <v>4</v>
+      </c>
+      <c r="M19" s="114">
+        <f t="shared" si="7"/>
+        <v>16.909999999999968</v>
+      </c>
+      <c r="N19" s="84">
+        <f>X8</f>
+        <v>22.708613582279973</v>
+      </c>
+      <c r="O19" s="84">
+        <f>STDEV(M8:V8)/SQRT(10)</f>
+        <v>3.0731814857769147E-3</v>
+      </c>
+      <c r="P19" s="139" t="str">
+        <f>'He and Hg Levels'!A10</f>
+        <v xml:space="preserve">1s3s </v>
+      </c>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="84">
+        <f>'He and Hg Levels'!D10</f>
+        <v>22.718465298000002</v>
+      </c>
+      <c r="S19" s="152"/>
+      <c r="AF19" s="134" t="s">
         <v>209</v>
       </c>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="138">
-        <f>STDEV(T11:T18)</f>
-        <v>1.9642099217547343E-36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="113">
+        <f>STDEV(AI11:AI18)</f>
+        <v>4.1361970089567372E-35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35">
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="84">
-        <f>G9</f>
+        <f t="shared" si="6"/>
         <v>20.783333333333331</v>
       </c>
       <c r="D20" s="84">
-        <f>H9</f>
+        <f t="shared" si="6"/>
         <v>20.783333333333331</v>
       </c>
-      <c r="E20" s="132">
+      <c r="E20" s="138">
         <f>(1/2*(SIN(RADIANS(C20))+SIN(RADIANS(D20))))*'Calc Na'!$H$9*10^10</f>
         <v>5883.9818058411656</v>
       </c>
-      <c r="F20" s="132"/>
-      <c r="O20" s="83" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="F20" s="138"/>
+      <c r="L20" s="3">
+        <v>5</v>
+      </c>
+      <c r="M20" s="114">
+        <f t="shared" si="7"/>
+        <v>17.606000000000002</v>
+      </c>
+      <c r="N20" s="84">
+        <f>X9</f>
+        <v>23.404613582280007</v>
+      </c>
+      <c r="O20" s="84">
+        <f>STDEV(M9:V9)/SQRT(10)</f>
+        <v>7.0632067001390898E-3</v>
+      </c>
+      <c r="P20" s="139" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="84">
+        <f>'He and Hg Levels'!D20</f>
+        <v>23.593957536200001</v>
+      </c>
+      <c r="S20" s="152"/>
+      <c r="AF20" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG20" s="140"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="162">
+        <f>6.626E-34</f>
+        <v>6.6259999999999998E-34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35">
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="84">
-        <f>G10</f>
+        <f t="shared" si="6"/>
         <v>23.783333333333331</v>
       </c>
       <c r="D21" s="84">
-        <f>H10</f>
+        <f t="shared" si="6"/>
         <v>24.216666666666669</v>
       </c>
-      <c r="E21" s="132">
+      <c r="E21" s="138">
         <f>(1/2*(SIN(RADIANS(C21))+SIN(RADIANS(D21))))*'Calc Na'!$H$9*10^10</f>
         <v>6744.5820651297681</v>
       </c>
-      <c r="F21" s="132"/>
-      <c r="O21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="F21" s="138"/>
+      <c r="L21" s="3">
+        <v>6</v>
+      </c>
+      <c r="M21" s="114">
+        <f t="shared" si="7"/>
+        <v>18.115000000000002</v>
+      </c>
+      <c r="N21" s="84">
+        <f>X10</f>
+        <v>23.913613582280007</v>
+      </c>
+      <c r="O21" s="84">
+        <f>STDEV(M10:V10)/SQRT(10)</f>
+        <v>5.962847939999444E-3</v>
+      </c>
+      <c r="P21" s="139" t="str">
+        <f>'He and Hg Levels'!A34</f>
+        <v xml:space="preserve">1s5s </v>
+      </c>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="84">
+        <f>'He and Hg Levels'!D34</f>
+        <v>23.971970217599999</v>
+      </c>
+      <c r="S21" s="152"/>
+    </row>
+    <row r="22" spans="2:35">
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="84">
-        <f>G11</f>
+        <f t="shared" si="6"/>
         <v>25.283333333333331</v>
       </c>
       <c r="D22" s="84">
-        <f>H11</f>
+        <f t="shared" si="6"/>
         <v>25.216666666666669</v>
       </c>
-      <c r="E22" s="132">
+      <c r="E22" s="138">
         <f>(1/2*(SIN(RADIANS(C22))+SIN(RADIANS(D22))))*'Calc Na'!$H$9*10^10</f>
         <v>7073.490932729027</v>
       </c>
-      <c r="F22" s="132"/>
+      <c r="F22" s="138"/>
+      <c r="L22" s="139" t="s">
+        <v>289</v>
+      </c>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="2:35">
+      <c r="AC23" s="83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35">
+      <c r="AC24" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="34">
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L3:X3"/>
+    <mergeCell ref="L11:X11"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AA8:AI8"/>
+    <mergeCell ref="L13:Q13"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
@@ -3138,17 +3857,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L8:T8"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3159,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3173,20 +3881,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="124" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="125" t="s">
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="143" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3200,7 +3908,7 @@
       <c r="C2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="124"/>
+      <c r="D2" s="142"/>
       <c r="G2" t="s">
         <v>163</v>
       </c>
@@ -3210,7 +3918,7 @@
       <c r="I2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="125"/>
+      <c r="J2" s="143"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -4566,7 +5274,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="K4" sqref="K4"/>
-      <selection pane="bottomLeft" activeCell="I120" sqref="A38:J120"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4581,14 +5289,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
       <c r="L1" s="65" t="s">
         <v>119</v>
       </c>
@@ -4626,50 +5334,50 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="128" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="127" t="s">
+      <c r="F8" s="145"/>
+      <c r="G8" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="129" t="s">
+      <c r="H8" s="144"/>
+      <c r="I8" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="129"/>
-      <c r="K8" s="126" t="s">
+      <c r="J8" s="145"/>
+      <c r="K8" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127" t="s">
+      <c r="L8" s="146"/>
+      <c r="M8" s="144" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4680,25 +5388,25 @@
       <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="12" t="s">
         <v>90</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
       <c r="K9" s="13" t="s">
         <v>88</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="127"/>
+      <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="49">
@@ -5886,33 +6594,33 @@
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="126" t="s">
+      <c r="A40" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="126"/>
-      <c r="C40" s="128" t="s">
+      <c r="B40" s="146"/>
+      <c r="C40" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="127" t="s">
+      <c r="D40" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="129" t="s">
+      <c r="E40" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="129"/>
-      <c r="G40" s="127" t="s">
+      <c r="F40" s="145"/>
+      <c r="G40" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="127"/>
-      <c r="I40" s="129" t="s">
+      <c r="H40" s="144"/>
+      <c r="I40" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="129"/>
-      <c r="K40" s="126" t="s">
+      <c r="J40" s="145"/>
+      <c r="K40" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="L40" s="126"/>
-      <c r="M40" s="127" t="s">
+      <c r="L40" s="146"/>
+      <c r="M40" s="144" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5923,25 +6631,25 @@
       <c r="B41" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="D41" s="127"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="144"/>
       <c r="E41" s="12" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
       <c r="K41" s="13" t="s">
         <v>88</v>
       </c>
       <c r="L41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="127"/>
+      <c r="M41" s="144"/>
     </row>
     <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="15">
@@ -11672,11 +12380,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
@@ -11690,6 +12393,11 @@
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11717,56 +12425,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="149" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="127" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="129" t="s">
+      <c r="F2" s="144"/>
+      <c r="G2" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="126" t="s">
+      <c r="H2" s="145"/>
+      <c r="I2" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="126"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
       <c r="C3" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
       <c r="I3" s="13" t="s">
         <v>88</v>
       </c>
@@ -12991,34 +13699,34 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="100">
+      <c r="A42" s="94">
         <v>5889.9509539999999</v>
       </c>
-      <c r="B42" s="101">
+      <c r="B42" s="95">
         <v>80000</v>
       </c>
-      <c r="C42" s="102">
+      <c r="C42" s="96">
         <v>0</v>
       </c>
-      <c r="D42" s="102">
+      <c r="D42" s="96">
         <v>2.104429068</v>
       </c>
-      <c r="E42" s="103" t="s">
+      <c r="E42" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="104" t="s">
+      <c r="G42" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="H42" s="105" t="s">
+      <c r="H42" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="I42" s="106" t="s">
+      <c r="I42" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="J42" s="104" t="s">
+      <c r="J42" s="98" t="s">
         <v>196</v>
       </c>
       <c r="L42" s="68" t="s">
@@ -13026,34 +13734,34 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="100">
+      <c r="A43" s="94">
         <v>5895.9242370000002</v>
       </c>
-      <c r="B43" s="101">
+      <c r="B43" s="95">
         <v>40000</v>
       </c>
-      <c r="C43" s="102">
+      <c r="C43" s="96">
         <v>0</v>
       </c>
-      <c r="D43" s="102">
+      <c r="D43" s="96">
         <v>2.1022970430000001</v>
       </c>
-      <c r="E43" s="103" t="s">
+      <c r="E43" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="104" t="s">
+      <c r="G43" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="105" t="s">
+      <c r="H43" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="I43" s="106" t="s">
+      <c r="I43" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="J43" s="104" t="s">
+      <c r="J43" s="98" t="s">
         <v>197</v>
       </c>
     </row>

--- a/FranckHertz/HeliumNeon/HE and Na Spectrum.xlsx
+++ b/FranckHertz/HeliumNeon/HE and Na Spectrum.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="maximums." localSheetId="1">'He 2'!$L$4:$V$10</definedName>
+    <definedName name="maximums." localSheetId="1">'He 2'!#REF!</definedName>
+    <definedName name="minimums." localSheetId="1">'He 2'!$M$4:$Q$13</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -23,15 +24,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="maximums" type="6" refreshedVersion="3" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\shadow\Documents\Lab 2012\GitHub\Phys4321\FranckHertz\Helium\results\maximums.">
-      <textFields count="11">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="1" name="minimums" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\shadow\Documents\Lab 2012\GitHub\Phys4321\FranckHertz\Helium\results\minimums.">
+      <textFields count="5">
         <textField/>
         <textField/>
         <textField/>
@@ -1057,7 +1052,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0E+00"/>
     <numFmt numFmtId="169" formatCode="0E+00"/>
-    <numFmt numFmtId="173" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1600,6 +1595,30 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1633,16 +1652,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1652,13 +1674,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1669,31 +1691,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,7 +1702,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="maximums." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="minimums." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2024,10 +2021,10 @@
       <c r="A3" s="48"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="139" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="127"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="1" t="s">
         <v>215</v>
       </c>
@@ -2040,29 +2037,29 @@
       <c r="J4" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="133"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="145"/>
       <c r="J6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="91" t="s">
         <v>17</v>
       </c>
@@ -2075,18 +2072,18 @@
       <c r="H7" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="J7" s="127" t="s">
+      <c r="J7" s="139" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="125"/>
       <c r="N7" s="125"/>
-      <c r="P7" s="127" t="s">
+      <c r="P7" s="139" t="s">
         <v>251</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="91" t="s">
@@ -2113,7 +2110,7 @@
       <c r="H8" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="J8" s="127"/>
+      <c r="J8" s="139"/>
       <c r="L8" s="6"/>
       <c r="P8" t="s">
         <v>248</v>
@@ -2151,10 +2148,10 @@
       <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="134" t="s">
+      <c r="K9" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="L9" s="135"/>
+      <c r="L9" s="147"/>
       <c r="P9" t="s">
         <v>249</v>
       </c>
@@ -2222,10 +2219,10 @@
       </c>
       <c r="D11" s="119"/>
       <c r="E11" s="120"/>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="132"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="121">
         <f>AVERAGE(H9:H10)</f>
         <v>1.2428167513406039E-6</v>
@@ -2245,10 +2242,10 @@
       <c r="C12" s="118"/>
       <c r="D12" s="122"/>
       <c r="E12" s="123"/>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="145" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="132"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="124">
         <f>STDEV(H9:H10)/SQRT(2)</f>
         <v>4.1541355672734149E-7</v>
@@ -2275,15 +2272,15 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
       <c r="K14" s="102" t="s">
         <v>225</v>
       </c>
@@ -2296,21 +2293,21 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130" t="s">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="130"/>
+      <c r="D15" s="142"/>
       <c r="E15" s="93" t="s">
         <v>203</v>
       </c>
       <c r="F15" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="G15" s="141" t="s">
         <v>223</v>
       </c>
       <c r="H15" t="s">
@@ -2343,7 +2340,7 @@
       <c r="F16" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="129"/>
+      <c r="G16" s="141"/>
       <c r="K16" s="105" t="s">
         <v>234</v>
       </c>
@@ -2460,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:M21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2469,7 +2466,9 @@
     <col min="1" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="2.140625" customWidth="1"/>
-    <col min="13" max="22" width="6" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="17" width="7" customWidth="1"/>
+    <col min="18" max="22" width="6" customWidth="1"/>
     <col min="23" max="25" width="7" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
@@ -2480,7 +2479,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="127" t="s">
         <v>266</v>
       </c>
       <c r="Z1" s="1"/>
@@ -2503,35 +2502,35 @@
       </c>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="151" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
       <c r="J3" t="s">
         <v>237</v>
       </c>
-      <c r="L3" s="139" t="s">
+      <c r="L3" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
       <c r="Y3" s="107"/>
       <c r="AA3" s="7">
         <f>0.5/60</f>
@@ -2545,14 +2544,14 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132" t="s">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="91" t="s">
         <v>17</v>
       </c>
@@ -2564,43 +2563,22 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="160" t="s">
+      <c r="L4" s="138"/>
+      <c r="M4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" t="s">
         <v>255</v>
       </c>
-      <c r="M4" s="160" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="160" t="s">
-        <v>257</v>
-      </c>
-      <c r="O4" s="160" t="s">
-        <v>258</v>
-      </c>
-      <c r="P4" s="160" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q4" s="160" t="s">
-        <v>260</v>
-      </c>
-      <c r="R4" s="160" t="s">
-        <v>261</v>
-      </c>
-      <c r="S4" s="160" t="s">
-        <v>262</v>
-      </c>
-      <c r="T4" s="160" t="s">
-        <v>263</v>
-      </c>
-      <c r="U4" s="160" t="s">
-        <v>264</v>
-      </c>
-      <c r="V4" s="160" t="s">
-        <v>265</v>
-      </c>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
       <c r="W4" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="X4" s="161" t="s">
+      <c r="X4" s="136" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2635,48 +2613,30 @@
         <f t="shared" ref="I5:I11" si="1">STDEV(G5:H5)/SQRT(2)</f>
         <v>2.5000000000005681E-2</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="84">
-        <v>14.015000000000001</v>
-      </c>
-      <c r="N5" s="84">
-        <v>14.025</v>
-      </c>
-      <c r="O5" s="84">
-        <v>14.025</v>
-      </c>
-      <c r="P5" s="84">
-        <v>14.025</v>
-      </c>
-      <c r="Q5" s="84">
-        <v>14.025</v>
-      </c>
-      <c r="R5" s="84">
-        <v>14.025</v>
-      </c>
-      <c r="S5" s="84">
-        <v>14.025</v>
-      </c>
-      <c r="T5" s="84">
-        <v>14.025</v>
-      </c>
-      <c r="U5" s="84">
-        <v>13.9949999999999</v>
-      </c>
-      <c r="V5" s="84">
-        <v>14.025</v>
-      </c>
-      <c r="W5" s="84">
-        <f>AVERAGE('He 2'!M5:V5)</f>
-        <v>14.020999999999992</v>
-      </c>
-      <c r="X5" s="84">
-        <f>W5+$U$12</f>
-        <v>19.819613582279999</v>
-      </c>
-      <c r="Y5" s="151"/>
+      <c r="L5" s="138"/>
+      <c r="M5" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5">
+        <v>14.205</v>
+      </c>
+      <c r="O5">
+        <v>15.154999999999999</v>
+      </c>
+      <c r="P5">
+        <v>16.684999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>18.105</v>
+      </c>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="128"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
         <v>222</v>
@@ -2714,48 +2674,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
-        <v>2</v>
-      </c>
-      <c r="M6" s="84">
-        <v>14.7249999999999</v>
-      </c>
-      <c r="N6" s="84">
-        <v>14.7149999999999</v>
-      </c>
-      <c r="O6" s="84">
-        <v>14.7149999999999</v>
-      </c>
-      <c r="P6" s="84">
-        <v>14.7149999999999</v>
-      </c>
-      <c r="Q6" s="84">
-        <v>14.684999999999899</v>
-      </c>
-      <c r="R6" s="84">
-        <v>14.7249999999999</v>
-      </c>
-      <c r="S6" s="84">
-        <v>14.675000000000001</v>
-      </c>
-      <c r="T6" s="84">
-        <v>14.7249999999999</v>
-      </c>
-      <c r="U6" s="84">
-        <v>14.7149999999999</v>
-      </c>
-      <c r="V6" s="84">
-        <v>14.675000000000001</v>
-      </c>
-      <c r="W6" s="84">
-        <f>AVERAGE('He 2'!M6:V6)</f>
-        <v>14.706999999999919</v>
-      </c>
-      <c r="X6" s="84">
-        <f>W6+$U$12</f>
-        <v>20.505613582279928</v>
-      </c>
-      <c r="Y6" s="151"/>
+      <c r="L6" s="138"/>
+      <c r="M6" t="s">
+        <v>258</v>
+      </c>
+      <c r="N6">
+        <v>14.185</v>
+      </c>
+      <c r="O6">
+        <v>15.1349999999999</v>
+      </c>
+      <c r="P6">
+        <v>16.534999999999901</v>
+      </c>
+      <c r="Q6">
+        <v>18.135000000000002</v>
+      </c>
+      <c r="R6" s="138"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="138"/>
+      <c r="Y6" s="128"/>
       <c r="AA6" t="s">
         <v>217</v>
       </c>
@@ -2791,48 +2731,28 @@
         <f t="shared" si="1"/>
         <v>8.3333333333257525E-3</v>
       </c>
-      <c r="L7" s="3">
-        <v>3</v>
-      </c>
-      <c r="M7" s="84">
-        <v>15.135</v>
-      </c>
-      <c r="N7" s="84">
-        <v>15.174999999999899</v>
-      </c>
-      <c r="O7" s="84">
-        <v>15.174999999999899</v>
-      </c>
-      <c r="P7" s="84">
-        <v>15.174999999999899</v>
-      </c>
-      <c r="Q7" s="84">
-        <v>15.174999999999899</v>
-      </c>
-      <c r="R7" s="84">
-        <v>15.125</v>
-      </c>
-      <c r="S7" s="84">
-        <v>15.154999999999999</v>
-      </c>
-      <c r="T7" s="84">
-        <v>15.125</v>
-      </c>
-      <c r="U7" s="84">
-        <v>15.135</v>
-      </c>
-      <c r="V7" s="84">
-        <v>15.125</v>
-      </c>
-      <c r="W7" s="84">
-        <f>AVERAGE('He 2'!M7:V7)</f>
-        <v>15.149999999999959</v>
-      </c>
-      <c r="X7" s="84">
-        <f>W7+$U$12</f>
-        <v>20.948613582279968</v>
-      </c>
-      <c r="Y7" s="151"/>
+      <c r="L7" s="138"/>
+      <c r="M7" t="s">
+        <v>259</v>
+      </c>
+      <c r="N7">
+        <v>14.195</v>
+      </c>
+      <c r="O7">
+        <v>15.145</v>
+      </c>
+      <c r="P7">
+        <v>16.675000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>18.105</v>
+      </c>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="Y7" s="128"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="3">
@@ -2865,59 +2785,39 @@
         <f t="shared" si="1"/>
         <v>4.1666666666671404E-2</v>
       </c>
-      <c r="L8" s="3">
-        <v>4</v>
-      </c>
-      <c r="M8" s="84">
-        <v>16.914999999999999</v>
-      </c>
-      <c r="N8" s="84">
-        <v>16.904999999999902</v>
-      </c>
-      <c r="O8" s="84">
-        <v>16.884999999999899</v>
-      </c>
-      <c r="P8" s="84">
-        <v>16.914999999999999</v>
-      </c>
-      <c r="Q8" s="84">
-        <v>16.904999999999902</v>
-      </c>
-      <c r="R8" s="84">
-        <v>16.914999999999999</v>
-      </c>
-      <c r="S8" s="84">
-        <v>16.914999999999999</v>
-      </c>
-      <c r="T8" s="84">
-        <v>16.914999999999999</v>
-      </c>
-      <c r="U8" s="84">
-        <v>16.914999999999999</v>
-      </c>
-      <c r="V8" s="84">
-        <v>16.914999999999999</v>
-      </c>
-      <c r="W8" s="84">
-        <f>AVERAGE('He 2'!M8:V8)</f>
-        <v>16.909999999999968</v>
-      </c>
-      <c r="X8" s="84">
-        <f>W8+$U$12</f>
-        <v>22.708613582279973</v>
-      </c>
-      <c r="Y8" s="151"/>
-      <c r="AA8" s="134" t="s">
+      <c r="L8" s="138"/>
+      <c r="M8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N8">
+        <v>14.124999999999901</v>
+      </c>
+      <c r="O8">
+        <v>15.104999999999899</v>
+      </c>
+      <c r="P8">
+        <v>16.654999999999902</v>
+      </c>
+      <c r="Q8">
+        <v>18.105</v>
+      </c>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="Y8" s="128"/>
+      <c r="AA8" s="146" t="s">
         <v>238</v>
       </c>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="140"/>
-      <c r="AE8" s="140"/>
-      <c r="AF8" s="140"/>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="135"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="150"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="147"/>
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36">
@@ -2951,64 +2851,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="3">
-        <v>5</v>
-      </c>
-      <c r="M9" s="84">
-        <v>17.614999999999998</v>
-      </c>
-      <c r="N9" s="84">
-        <v>17.625</v>
-      </c>
-      <c r="O9" s="84">
-        <v>17.625</v>
-      </c>
-      <c r="P9" s="84">
-        <v>17.625</v>
-      </c>
-      <c r="Q9" s="84">
-        <v>17.605</v>
-      </c>
-      <c r="R9" s="84">
-        <v>17.574999999999999</v>
-      </c>
-      <c r="S9" s="84">
-        <v>17.574999999999999</v>
-      </c>
-      <c r="T9" s="84">
-        <v>17.574999999999999</v>
-      </c>
-      <c r="U9" s="84">
-        <v>17.614999999999998</v>
-      </c>
-      <c r="V9" s="84">
-        <v>17.625</v>
-      </c>
-      <c r="W9" s="84">
-        <f>AVERAGE('He 2'!M9:V9)</f>
-        <v>17.606000000000002</v>
-      </c>
-      <c r="X9" s="84">
-        <f>W9+$U$12</f>
-        <v>23.404613582280007</v>
-      </c>
-      <c r="Y9" s="151"/>
-      <c r="AA9" s="132" t="str">
+      <c r="L9" s="138"/>
+      <c r="M9" t="s">
+        <v>261</v>
+      </c>
+      <c r="N9">
+        <v>13.715</v>
+      </c>
+      <c r="O9">
+        <v>14.725</v>
+      </c>
+      <c r="P9">
+        <v>16.2549999999999</v>
+      </c>
+      <c r="Q9">
+        <v>17.695</v>
+      </c>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="Y9" s="128"/>
+      <c r="AA9" s="144" t="str">
         <f>B15</f>
         <v>Color</v>
       </c>
-      <c r="AB9" s="131" t="s">
+      <c r="AB9" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="134" t="s">
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="140"/>
-      <c r="AH9" s="140"/>
-      <c r="AI9" s="141" t="s">
+      <c r="AF9" s="150"/>
+      <c r="AG9" s="150"/>
+      <c r="AH9" s="150"/>
+      <c r="AI9" s="152" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3043,49 +2923,29 @@
         <f t="shared" si="1"/>
         <v>0.21666666666661183</v>
       </c>
-      <c r="L10" s="3">
-        <v>6</v>
-      </c>
-      <c r="M10" s="84">
-        <v>18.085000000000001</v>
-      </c>
-      <c r="N10" s="84">
-        <v>18.125</v>
-      </c>
-      <c r="O10" s="84">
-        <v>18.125</v>
-      </c>
-      <c r="P10" s="84">
-        <v>18.125</v>
-      </c>
-      <c r="Q10" s="84">
-        <v>18.125</v>
-      </c>
-      <c r="R10" s="84">
-        <v>18.074999999999999</v>
-      </c>
-      <c r="S10" s="84">
-        <v>18.125</v>
-      </c>
-      <c r="T10" s="84">
-        <v>18.125</v>
-      </c>
-      <c r="U10" s="84">
-        <v>18.114999999999998</v>
-      </c>
-      <c r="V10" s="84">
-        <v>18.125</v>
-      </c>
-      <c r="W10" s="84">
-        <f>AVERAGE('He 2'!M10:V10)</f>
-        <v>18.115000000000002</v>
-      </c>
-      <c r="X10" s="84">
-        <f>W10+$U$12</f>
-        <v>23.913613582280007</v>
-      </c>
-      <c r="Y10" s="151"/>
-      <c r="AA10" s="132"/>
+      <c r="L10" s="138"/>
+      <c r="M10" t="s">
+        <v>262</v>
+      </c>
+      <c r="N10">
+        <v>13.785</v>
+      </c>
+      <c r="O10">
+        <v>14.805</v>
+      </c>
+      <c r="P10">
+        <v>16.355</v>
+      </c>
+      <c r="Q10">
+        <v>17.8049999999999</v>
+      </c>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="Y10" s="128"/>
+      <c r="AA10" s="144"/>
       <c r="AB10" s="80" t="s">
         <v>111</v>
       </c>
@@ -3107,7 +2967,7 @@
       <c r="AH10" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="AI10" s="130"/>
+      <c r="AI10" s="142"/>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="3">
@@ -3140,21 +3000,27 @@
         <f t="shared" si="1"/>
         <v>3.3333333333331439E-2</v>
       </c>
-      <c r="L11" s="139" t="s">
-        <v>290</v>
-      </c>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
+      <c r="L11" s="138"/>
+      <c r="M11" t="s">
+        <v>263</v>
+      </c>
+      <c r="N11">
+        <v>13.614999999999901</v>
+      </c>
+      <c r="O11">
+        <v>14.695</v>
+      </c>
+      <c r="P11">
+        <v>16.244999999999902</v>
+      </c>
+      <c r="Q11">
+        <v>17.695</v>
+      </c>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
       <c r="AA11" s="111" t="s">
         <v>10</v>
       </c>
@@ -3170,37 +3036,50 @@
         <f>(AB11-AC11)/(AC11)</f>
         <v>2.9914291736333931E-3</v>
       </c>
-      <c r="AE11" s="156" t="str">
+      <c r="AE11" s="133" t="str">
         <f>'He Spectrum Database'!G148</f>
         <v>1s2p</v>
       </c>
-      <c r="AF11" s="154" t="s">
+      <c r="AF11" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="AG11" s="84">
-        <f>N18</f>
-        <v>20.948613582279968</v>
+      <c r="AG11" s="84" t="e">
+        <f>N19</f>
+        <v>#REF!</v>
       </c>
       <c r="AH11" s="84">
         <f>'He Spectrum Database'!F148</f>
         <v>23.736089152750001</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AI11" s="5" t="e">
         <f>-(AG11-AH11)*(1.60217646E-19)*AB11/(3*10^8)*10^(-10)</f>
-        <v>6.6764975756048443E-34</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="14.25" customHeight="1">
       <c r="I12" t="s">
         <v>116</v>
       </c>
-      <c r="S12" t="s">
-        <v>274</v>
-      </c>
-      <c r="U12" s="151">
-        <f>R16-W5</f>
-        <v>5.7986135822800069</v>
-      </c>
+      <c r="M12" t="s">
+        <v>264</v>
+      </c>
+      <c r="N12">
+        <v>13.685</v>
+      </c>
+      <c r="O12">
+        <v>14.414999999999999</v>
+      </c>
+      <c r="P12">
+        <v>15.914999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>17.414999999999999</v>
+      </c>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
       <c r="AA12" s="111" t="s">
         <v>4</v>
       </c>
@@ -3216,38 +3095,51 @@
         <f t="shared" ref="AD12:AD17" si="4">(AB12-AC12)/(AC12)</f>
         <v>2.1972392588910828E-3</v>
       </c>
-      <c r="AE12" s="155" t="str">
+      <c r="AE12" s="132" t="str">
         <f>'He Spectrum Database'!G153</f>
         <v>1s2p</v>
       </c>
-      <c r="AF12" s="155" t="s">
+      <c r="AF12" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="AG12" s="52">
+      <c r="AG12" s="52" t="e">
         <f>AG11</f>
-        <v>20.948613582279968</v>
-      </c>
-      <c r="AH12" s="52">
-        <f>N20</f>
-        <v>23.404613582280007</v>
-      </c>
-      <c r="AI12" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="AH12" s="52" t="e">
+        <f>N21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI12" s="5" t="e">
         <f t="shared" ref="AI12:AI17" si="5">-(AG12-AH12)*(1.60217646E-19)*AB12/(3*10^8)*10^(-10)</f>
-        <v>6.195573620013242E-34</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:36">
       <c r="I13" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
+      <c r="M13" t="s">
+        <v>265</v>
+      </c>
+      <c r="N13">
+        <v>12.975</v>
+      </c>
+      <c r="O13">
+        <v>13.844999999999899</v>
+      </c>
+      <c r="P13">
+        <v>15.344999999999899</v>
+      </c>
+      <c r="Q13">
+        <v>16.844999999999999</v>
+      </c>
       <c r="S13" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="U13" s="128" t="e">
+        <f>R17-#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AA13" s="111" t="s">
         <v>5</v>
@@ -3264,11 +3156,11 @@
         <f t="shared" si="4"/>
         <v>4.7144056481945764E-4</v>
       </c>
-      <c r="AE13" s="155" t="str">
+      <c r="AE13" s="132" t="str">
         <f>'He Spectrum Database'!G158</f>
         <v>1s2p</v>
       </c>
-      <c r="AF13" s="155" t="str">
+      <c r="AF13" s="132" t="str">
         <f>AF11</f>
         <v>1sd4*</v>
       </c>
@@ -3286,29 +3178,24 @@
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="151" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
       <c r="G14" t="s">
         <v>213</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="139" t="s">
-        <v>279</v>
-      </c>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
       <c r="N14" s="139"/>
       <c r="O14" s="139"/>
-      <c r="P14" s="139" t="s">
-        <v>277</v>
-      </c>
+      <c r="P14" s="139"/>
       <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="1" t="s">
-        <v>280</v>
+      <c r="S14" t="s">
+        <v>275</v>
       </c>
       <c r="AA14" s="111" t="s">
         <v>9</v>
@@ -3325,24 +3212,24 @@
         <f t="shared" si="4"/>
         <v>3.7871986376565112E-3</v>
       </c>
-      <c r="AE14" s="155" t="str">
+      <c r="AE14" s="132" t="str">
         <f>'He Spectrum Database'!G159</f>
         <v>1s2s</v>
       </c>
-      <c r="AF14" s="155" t="s">
+      <c r="AF14" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="AG14" s="52">
-        <f>N17</f>
-        <v>20.505613582279928</v>
+      <c r="AG14" s="52" t="e">
+        <f>N18</f>
+        <v>#REF!</v>
       </c>
       <c r="AH14" s="52">
         <f>'He Spectrum Database'!F159</f>
         <v>23.087017385399999</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI14" s="5" t="e">
         <f t="shared" si="5"/>
-        <v>6.9409092110954503E-34</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -3355,33 +3242,27 @@
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="129" t="s">
+      <c r="E15" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="129"/>
+      <c r="F15" s="141"/>
       <c r="G15" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="M15" s="157" t="s">
-        <v>278</v>
-      </c>
-      <c r="N15" s="157" t="s">
-        <v>273</v>
-      </c>
-      <c r="O15" s="108" t="s">
-        <v>267</v>
-      </c>
-      <c r="P15" s="139" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="S15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="151" t="s">
+        <v>279</v>
+      </c>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="AA15" s="111" t="s">
         <v>8</v>
       </c>
@@ -3397,24 +3278,24 @@
         <f t="shared" si="4"/>
         <v>1.4229654773794172E-3</v>
       </c>
-      <c r="AE15" s="155" t="str">
+      <c r="AE15" s="132" t="str">
         <f>'He Spectrum Database'!G165</f>
         <v>1s2p</v>
       </c>
-      <c r="AF15" s="155" t="s">
+      <c r="AF15" s="132" t="s">
         <v>282</v>
       </c>
-      <c r="AG15" s="52">
+      <c r="AG15" s="52" t="e">
         <f>AG12</f>
-        <v>20.948613582279968</v>
+        <v>#REF!</v>
       </c>
       <c r="AH15" s="52">
         <f>'He Spectrum Database'!F165</f>
         <v>23.073649874819999</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AI15" s="5" t="e">
         <f t="shared" si="5"/>
-        <v>6.6776978531753778E-34</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -3429,39 +3310,34 @@
         <f t="shared" si="6"/>
         <v>15.716666666666669</v>
       </c>
-      <c r="E16" s="138">
+      <c r="E16" s="154">
         <f>(1/2*(SIN(RADIANS(C16))+SIN(RADIANS(D16))))*'Calc Na'!$H$9*10^10</f>
         <v>4484.856316319604</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="154"/>
       <c r="G16" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="114">
-        <f>W5</f>
-        <v>14.020999999999992</v>
-      </c>
-      <c r="N16" s="84">
-        <f>X5</f>
-        <v>19.819613582279999</v>
-      </c>
-      <c r="O16" s="84">
-        <f>STDEV(M5:V5)/SQRT(10)</f>
-        <v>3.0550504633134025E-3</v>
-      </c>
-      <c r="P16" s="158" t="str">
-        <f>'He and Hg Levels'!A3</f>
-        <v xml:space="preserve">1s2 </v>
-      </c>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="159">
-        <f>'He and Hg Levels'!D4</f>
-        <v>19.819613582279999</v>
-      </c>
-      <c r="S16" s="153"/>
+      <c r="L16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M16" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="N16" s="134" t="s">
+        <v>273</v>
+      </c>
+      <c r="O16" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="P16" s="151" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="S16" s="1"/>
       <c r="AA16" s="111" t="s">
         <v>20</v>
       </c>
@@ -3477,24 +3353,24 @@
         <f>(AB16-AC16)/(AC16)</f>
         <v>9.9475236678188746E-3</v>
       </c>
-      <c r="AE16" s="155" t="str">
+      <c r="AE16" s="132" t="str">
         <f>'He Spectrum Database'!G171</f>
         <v>1s2p</v>
       </c>
-      <c r="AF16" s="155" t="s">
+      <c r="AF16" s="132" t="s">
         <v>282</v>
       </c>
-      <c r="AG16" s="52">
+      <c r="AG16" s="52" t="e">
         <f>AG11</f>
-        <v>20.948613582279968</v>
+        <v>#REF!</v>
       </c>
       <c r="AH16" s="52">
         <f>'He Spectrum Database'!F171</f>
         <v>23.07407365281</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AI16" s="5" t="e">
         <f t="shared" si="5"/>
-        <v>7.6559146962571897E-34</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="2:35">
@@ -3509,36 +3385,36 @@
         <f t="shared" si="6"/>
         <v>16.550000000000011</v>
       </c>
-      <c r="E17" s="138">
+      <c r="E17" s="154">
         <f>(1/2*(SIN(RADIANS(C17))+SIN(RADIANS(D17))))*'Calc Na'!$H$9*10^10</f>
         <v>4723.5016087649137</v>
       </c>
-      <c r="F17" s="138"/>
+      <c r="F17" s="154"/>
       <c r="L17" s="3">
-        <v>2</v>
-      </c>
-      <c r="M17" s="114">
-        <f t="shared" ref="M17:M21" si="7">W6</f>
-        <v>14.706999999999919</v>
-      </c>
-      <c r="N17" s="84">
-        <f>X6</f>
-        <v>20.505613582279928</v>
-      </c>
-      <c r="O17" s="84">
-        <f>STDEV(M6:V6)/SQRT(10)</f>
-        <v>6.4635731432107569E-3</v>
-      </c>
-      <c r="P17" s="139" t="str">
-        <f>'He and Hg Levels'!A5</f>
-        <v xml:space="preserve">1s2s </v>
-      </c>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="159">
-        <f>'He and Hg Levels'!D5</f>
-        <v>20.6157738231</v>
-      </c>
-      <c r="S17" s="152"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="114" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="84" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="84" t="e">
+        <f>STDEV(#REF!)/SQRT(10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" s="153" t="str">
+        <f>'He and Hg Levels'!A3</f>
+        <v xml:space="preserve">1s2 </v>
+      </c>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="135">
+        <f>'He and Hg Levels'!D4</f>
+        <v>19.819613582279999</v>
+      </c>
+      <c r="S17" s="130"/>
       <c r="AA17" s="111" t="s">
         <v>21</v>
       </c>
@@ -3554,25 +3430,25 @@
         <f t="shared" si="4"/>
         <v>1.1749058028202226E-3</v>
       </c>
-      <c r="AE17" s="155" t="str">
+      <c r="AE17" s="132" t="str">
         <f>'He Spectrum Database'!G174</f>
         <v>1s2p</v>
       </c>
-      <c r="AF17" s="155" t="str">
+      <c r="AF17" s="132" t="str">
         <f>'He Spectrum Database'!H174</f>
         <v>1s3s</v>
       </c>
-      <c r="AG17" s="52">
+      <c r="AG17" s="52" t="e">
         <f>AG11</f>
-        <v>20.948613582279968</v>
-      </c>
-      <c r="AH17" s="52">
-        <f>N19</f>
-        <v>22.708613582279973</v>
-      </c>
-      <c r="AI17" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="AH17" s="52" t="e">
+        <f>N20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI17" s="5" t="e">
         <f t="shared" si="5"/>
-        <v>6.6486819886325967E-34</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="2:35">
@@ -3587,54 +3463,54 @@
         <f t="shared" si="6"/>
         <v>17.26666666666668</v>
       </c>
-      <c r="E18" s="138">
+      <c r="E18" s="154">
         <f>(1/2*(SIN(RADIANS(C18))+SIN(RADIANS(D18))))*'Calc Na'!$H$9*10^10</f>
         <v>4924.2516980720748</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="154"/>
       <c r="G18" t="s">
         <v>272</v>
       </c>
       <c r="L18" s="3">
-        <v>3</v>
-      </c>
-      <c r="M18" s="114">
-        <f t="shared" si="7"/>
-        <v>15.149999999999959</v>
-      </c>
-      <c r="N18" s="84">
-        <f>X7</f>
-        <v>20.948613582279968</v>
-      </c>
-      <c r="O18" s="84">
-        <f>STDEV(M7:V7)/SQRT(10)</f>
-        <v>7.3409051818331995E-3</v>
-      </c>
-      <c r="P18" s="139" t="str">
-        <f>'He and Hg Levels'!A6</f>
-        <v xml:space="preserve">1s2p </v>
-      </c>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="84">
-        <f>AVERAGE('He and Hg Levels'!D6:D8)</f>
-        <v>20.964133019913334</v>
-      </c>
-      <c r="S18" s="152"/>
-      <c r="AA18" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="114" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N18" s="84" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O18" s="84" t="e">
+        <f>STDEV(#REF!)/SQRT(10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P18" s="151" t="str">
+        <f>'He and Hg Levels'!A5</f>
+        <v xml:space="preserve">1s2s </v>
+      </c>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="135">
+        <f>'He and Hg Levels'!D5</f>
+        <v>20.6157738231</v>
+      </c>
+      <c r="S18" s="129"/>
+      <c r="AA18" s="146" t="s">
         <v>283</v>
       </c>
-      <c r="AB18" s="140"/>
-      <c r="AC18" s="140"/>
-      <c r="AD18" s="140"/>
-      <c r="AE18" s="135"/>
-      <c r="AF18" s="134" t="s">
+      <c r="AB18" s="150"/>
+      <c r="AC18" s="150"/>
+      <c r="AD18" s="150"/>
+      <c r="AE18" s="147"/>
+      <c r="AF18" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="AG18" s="140"/>
-      <c r="AH18" s="135"/>
-      <c r="AI18" s="85">
+      <c r="AG18" s="150"/>
+      <c r="AH18" s="147"/>
+      <c r="AI18" s="85" t="e">
         <f>AVERAGE(AI11:AI17)</f>
-        <v>6.7740047381012364E-34</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="2:35">
@@ -3649,44 +3525,44 @@
         <f t="shared" si="6"/>
         <v>17.633333333333326</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="154">
         <f>(1/2*(SIN(RADIANS(C19))+SIN(RADIANS(D19))))*'Calc Na'!$H$9*10^10</f>
         <v>5034.6736700246829</v>
       </c>
-      <c r="F19" s="138"/>
+      <c r="F19" s="154"/>
       <c r="L19" s="3">
-        <v>4</v>
-      </c>
-      <c r="M19" s="114">
-        <f t="shared" si="7"/>
-        <v>16.909999999999968</v>
-      </c>
-      <c r="N19" s="84">
-        <f>X8</f>
-        <v>22.708613582279973</v>
-      </c>
-      <c r="O19" s="84">
-        <f>STDEV(M8:V8)/SQRT(10)</f>
-        <v>3.0731814857769147E-3</v>
-      </c>
-      <c r="P19" s="139" t="str">
-        <f>'He and Hg Levels'!A10</f>
-        <v xml:space="preserve">1s3s </v>
-      </c>
-      <c r="Q19" s="139"/>
+        <v>3</v>
+      </c>
+      <c r="M19" s="114" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N19" s="84" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O19" s="84" t="e">
+        <f>STDEV(#REF!)/SQRT(10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P19" s="151" t="str">
+        <f>'He and Hg Levels'!A6</f>
+        <v xml:space="preserve">1s2p </v>
+      </c>
+      <c r="Q19" s="151"/>
       <c r="R19" s="84">
-        <f>'He and Hg Levels'!D10</f>
-        <v>22.718465298000002</v>
-      </c>
-      <c r="S19" s="152"/>
-      <c r="AF19" s="134" t="s">
+        <f>AVERAGE('He and Hg Levels'!D6:D8)</f>
+        <v>20.964133019913334</v>
+      </c>
+      <c r="S19" s="129"/>
+      <c r="AF19" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="AG19" s="140"/>
-      <c r="AH19" s="140"/>
-      <c r="AI19" s="113">
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="113" t="e">
         <f>STDEV(AI11:AI18)</f>
-        <v>4.1361970089567372E-35</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="2:35">
@@ -3701,41 +3577,42 @@
         <f t="shared" si="6"/>
         <v>20.783333333333331</v>
       </c>
-      <c r="E20" s="138">
+      <c r="E20" s="154">
         <f>(1/2*(SIN(RADIANS(C20))+SIN(RADIANS(D20))))*'Calc Na'!$H$9*10^10</f>
         <v>5883.9818058411656</v>
       </c>
-      <c r="F20" s="138"/>
+      <c r="F20" s="154"/>
       <c r="L20" s="3">
-        <v>5</v>
-      </c>
-      <c r="M20" s="114">
-        <f t="shared" si="7"/>
-        <v>17.606000000000002</v>
-      </c>
-      <c r="N20" s="84">
-        <f>X9</f>
-        <v>23.404613582280007</v>
-      </c>
-      <c r="O20" s="84">
-        <f>STDEV(M9:V9)/SQRT(10)</f>
-        <v>7.0632067001390898E-3</v>
-      </c>
-      <c r="P20" s="139" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q20" s="139"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="114" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N20" s="84" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O20" s="84" t="e">
+        <f>STDEV(#REF!)/SQRT(10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P20" s="151" t="str">
+        <f>'He and Hg Levels'!A10</f>
+        <v xml:space="preserve">1s3s </v>
+      </c>
+      <c r="Q20" s="151"/>
       <c r="R20" s="84">
-        <f>'He and Hg Levels'!D20</f>
-        <v>23.593957536200001</v>
-      </c>
-      <c r="S20" s="152"/>
-      <c r="AF20" s="134" t="s">
+        <f>'He and Hg Levels'!D10</f>
+        <v>22.718465298000002</v>
+      </c>
+      <c r="S20" s="129"/>
+      <c r="AF20" s="146" t="s">
         <v>287</v>
       </c>
-      <c r="AG20" s="140"/>
-      <c r="AH20" s="135"/>
-      <c r="AI20" s="162">
+      <c r="AG20" s="150"/>
+      <c r="AH20" s="147"/>
+      <c r="AI20" s="137">
         <f>6.626E-34</f>
         <v>6.6259999999999998E-34</v>
       </c>
@@ -3752,36 +3629,35 @@
         <f t="shared" si="6"/>
         <v>24.216666666666669</v>
       </c>
-      <c r="E21" s="138">
+      <c r="E21" s="154">
         <f>(1/2*(SIN(RADIANS(C21))+SIN(RADIANS(D21))))*'Calc Na'!$H$9*10^10</f>
         <v>6744.5820651297681</v>
       </c>
-      <c r="F21" s="138"/>
+      <c r="F21" s="154"/>
       <c r="L21" s="3">
-        <v>6</v>
-      </c>
-      <c r="M21" s="114">
-        <f t="shared" si="7"/>
-        <v>18.115000000000002</v>
-      </c>
-      <c r="N21" s="84">
-        <f>X10</f>
-        <v>23.913613582280007</v>
-      </c>
-      <c r="O21" s="84">
-        <f>STDEV(M10:V10)/SQRT(10)</f>
-        <v>5.962847939999444E-3</v>
-      </c>
-      <c r="P21" s="139" t="str">
-        <f>'He and Hg Levels'!A34</f>
-        <v xml:space="preserve">1s5s </v>
-      </c>
-      <c r="Q21" s="139"/>
+        <v>5</v>
+      </c>
+      <c r="M21" s="114" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N21" s="84" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O21" s="84" t="e">
+        <f>STDEV(#REF!)/SQRT(10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P21" s="151" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q21" s="151"/>
       <c r="R21" s="84">
-        <f>'He and Hg Levels'!D34</f>
-        <v>23.971970217599999</v>
-      </c>
-      <c r="S21" s="152"/>
+        <f>'He and Hg Levels'!D20</f>
+        <v>23.593957536200001</v>
+      </c>
+      <c r="S21" s="129"/>
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="3" t="s">
@@ -3795,23 +3671,51 @@
         <f t="shared" si="6"/>
         <v>25.216666666666669</v>
       </c>
-      <c r="E22" s="138">
+      <c r="E22" s="154">
         <f>(1/2*(SIN(RADIANS(C22))+SIN(RADIANS(D22))))*'Calc Na'!$H$9*10^10</f>
         <v>7073.490932729027</v>
       </c>
-      <c r="F22" s="138"/>
-      <c r="L22" s="139" t="s">
+      <c r="F22" s="154"/>
+      <c r="L22" s="3">
+        <v>6</v>
+      </c>
+      <c r="M22" s="114" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N22" s="84" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O22" s="84" t="e">
+        <f>STDEV(#REF!)/SQRT(10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P22" s="151" t="str">
+        <f>'He and Hg Levels'!A34</f>
+        <v xml:space="preserve">1s5s </v>
+      </c>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="84">
+        <f>'He and Hg Levels'!D34</f>
+        <v>23.971970217599999</v>
+      </c>
+      <c r="S22" s="129"/>
+      <c r="W22" s="138" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35">
+      <c r="L23" s="151" t="s">
         <v>289</v>
       </c>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="139"/>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="139"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="2:35">
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="1"/>
       <c r="AC23" s="83" t="s">
         <v>242</v>
       </c>
@@ -3822,22 +3726,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L3:X3"/>
-    <mergeCell ref="L11:X11"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AF18:AH18"/>
+  <mergeCells count="33">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="AE9:AH9"/>
     <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="AA18:AE18"/>
@@ -3848,15 +3745,21 @@
     <mergeCell ref="AB9:AD9"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA8:AI8"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L3:X3"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AF18:AH18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3881,20 +3784,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="142" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="143" t="s">
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="156" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3908,7 +3811,7 @@
       <c r="C2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="155"/>
       <c r="G2" t="s">
         <v>163</v>
       </c>
@@ -3918,7 +3821,7 @@
       <c r="I2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="143"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -5289,14 +5192,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
       <c r="L1" s="65" t="s">
         <v>119</v>
       </c>
@@ -5334,50 +5237,50 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="161" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="147" t="s">
+      <c r="B8" s="158"/>
+      <c r="C8" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="145" t="s">
+      <c r="E8" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="144" t="s">
+      <c r="F8" s="157"/>
+      <c r="G8" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="145" t="s">
+      <c r="H8" s="159"/>
+      <c r="I8" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="145"/>
-      <c r="K8" s="146" t="s">
+      <c r="J8" s="157"/>
+      <c r="K8" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="146"/>
-      <c r="M8" s="144" t="s">
+      <c r="L8" s="158"/>
+      <c r="M8" s="159" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5388,25 +5291,25 @@
       <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="144"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="12" t="s">
         <v>90</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
       <c r="K9" s="13" t="s">
         <v>88</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="144"/>
+      <c r="M9" s="159"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="49">
@@ -6594,33 +6497,33 @@
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="146" t="s">
+      <c r="A40" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="146"/>
-      <c r="C40" s="147" t="s">
+      <c r="B40" s="158"/>
+      <c r="C40" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="144" t="s">
+      <c r="D40" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="145" t="s">
+      <c r="E40" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="145"/>
-      <c r="G40" s="144" t="s">
+      <c r="F40" s="157"/>
+      <c r="G40" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="144"/>
-      <c r="I40" s="145" t="s">
+      <c r="H40" s="159"/>
+      <c r="I40" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="145"/>
-      <c r="K40" s="146" t="s">
+      <c r="J40" s="157"/>
+      <c r="K40" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="L40" s="146"/>
-      <c r="M40" s="144" t="s">
+      <c r="L40" s="158"/>
+      <c r="M40" s="159" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6631,25 +6534,25 @@
       <c r="B41" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="144"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="159"/>
       <c r="E41" s="12" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
       <c r="K41" s="13" t="s">
         <v>88</v>
       </c>
       <c r="L41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="144"/>
+      <c r="M41" s="159"/>
     </row>
     <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="15">
@@ -12380,6 +12283,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
@@ -12392,12 +12301,6 @@
     <mergeCell ref="I40:J41"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:M41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12425,56 +12328,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="162" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="159" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="144" t="s">
+      <c r="D2" s="157"/>
+      <c r="E2" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145" t="s">
+      <c r="F2" s="159"/>
+      <c r="G2" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146" t="s">
+      <c r="H2" s="157"/>
+      <c r="I2" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="146"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
       <c r="I3" s="13" t="s">
         <v>88</v>
       </c>

--- a/FranckHertz/HeliumNeon/HE and Na Spectrum.xlsx
+++ b/FranckHertz/HeliumNeon/HE and Na Spectrum.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="maximums." localSheetId="2">'He 2'!#REF!</definedName>
-    <definedName name="minimums._1" localSheetId="2">'He 2'!$L$6:$P$15</definedName>
+    <definedName name="minimums._1" localSheetId="2">'He 2'!$L$7:$P$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="305">
   <si>
     <t>deviation</t>
   </si>
@@ -727,15 +727,6 @@
     <t>Δλ (Å)</t>
   </si>
   <si>
-    <t>Average Δλ(Å)</t>
-  </si>
-  <si>
-    <t>Theory Δλ Å</t>
-  </si>
-  <si>
-    <t>Std Error Δλ(Å)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;-- you could put in Appendix</t>
   </si>
   <si>
@@ -836,15 +827,6 @@
   </si>
   <si>
     <t>h (Js)</t>
-  </si>
-  <si>
-    <t>1s2s*</t>
-  </si>
-  <si>
-    <t>1s4s*</t>
-  </si>
-  <si>
-    <t>1s4d*</t>
   </si>
   <si>
     <t>=</t>
@@ -975,22 +957,6 @@
   </si>
   <si>
     <r>
-      <t>Aligned* E</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>φ</t>
     </r>
     <r>
@@ -1265,49 +1231,6 @@
         <family val="2"/>
       </rPr>
       <t>θ =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B/c of the high Standard Error, I examined the propogated error or significant error for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Δλ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">in this case turns out the  Signficant or Meas. Error </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>≈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Std. Error</t>
     </r>
   </si>
   <si>
@@ -1489,13 +1412,174 @@
     <t>Part 3:  Observed Helium Energy Levels</t>
   </si>
   <si>
-    <t>Std. Error</t>
-  </si>
-  <si>
     <t>\Delta E={\frac {hc}{\lambda}}</t>
   </si>
   <si>
     <t>h={\frac {\Delta E\,\lambda}{c}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\lambda \left( \theta_{{r}},\theta_{{l}},d \right) =1/2\,d \left( \si  \left( l \right) +\sin \left( r \right)  \right)\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\Delta \lambda =1/2\,d \left( \cos \left( \theta \right)  \right)  \Delta \theta </t>
+  </si>
+  <si>
+    <t>Average   Δλ(Å)</t>
+  </si>
+  <si>
+    <t>Std Error   Δλ(Å)</t>
+  </si>
+  <si>
+    <t>Theory     Δλ Å</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B/c of the high Standard Error, I examined the propogated error or significant error for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Δλ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in this case turns out the  Signficant or Propogation Error </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Std. Error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1s2s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1s4d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1s4s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <r>
+      <t>Aligned E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Observed Energy Levels were aligned by setting n = 1 level </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">≈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19.82 eV</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1698,7 +1782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1828,12 +1912,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2094,67 +2220,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2179,72 +2251,21 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2256,6 +2277,156 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2558,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="D21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2581,17 +2752,17 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="47" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="47"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="128"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="1" t="s">
         <v>200</v>
       </c>
@@ -2605,34 +2776,34 @@
       <c r="K4" s="1"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="170" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="172"/>
+      <c r="A6" s="163" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18">
-      <c r="A7" s="131" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="132"/>
+      <c r="A7" s="159" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="160"/>
       <c r="E7" s="125" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F7" s="125" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G7" s="89" t="s">
         <v>0</v>
@@ -2640,19 +2811,19 @@
       <c r="H7" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="128" t="s">
+      <c r="J7" s="155" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="116"/>
       <c r="O7" s="116"/>
-      <c r="Q7" s="128" t="s">
-        <v>283</v>
-      </c>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
+      <c r="Q7" s="155" t="s">
+        <v>275</v>
+      </c>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="155"/>
+      <c r="U7" s="155"/>
+      <c r="V7" s="155"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="89" t="s">
@@ -2679,10 +2850,10 @@
       <c r="H8" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="J8" s="128"/>
+      <c r="J8" s="155"/>
       <c r="M8" s="5"/>
       <c r="Q8" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -2718,12 +2889,12 @@
         <v>2</v>
       </c>
       <c r="K9" s="122"/>
-      <c r="L9" s="174" t="s">
-        <v>267</v>
-      </c>
-      <c r="M9" s="175"/>
+      <c r="L9" s="161" t="s">
+        <v>260</v>
+      </c>
+      <c r="M9" s="162"/>
       <c r="Q9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="S9" s="116">
         <f>RADIANS(1/60)</f>
@@ -2764,21 +2935,21 @@
       </c>
       <c r="K10" s="122"/>
       <c r="L10" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M10" s="83">
         <f>AVERAGE(F17:F18)</f>
         <v>1.3089969389955486E-3</v>
       </c>
       <c r="Q10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="S10" s="116">
         <f xml:space="preserve">  1/2*($S$9^2*(5893*10^-10)^2*(COS(RADIANS(F9))^2+COS(RADIANS(E9))^2)/(1/2*SIN(RADIANS(E9))+1/2*SIN(RADIANS(F9)))^4)^(1/2)</f>
         <v>8.9711265398650818E-10</v>
       </c>
       <c r="T10" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -2792,17 +2963,17 @@
       <c r="D11" s="107">
         <v>13</v>
       </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="132" t="s">
+      <c r="E11" s="132"/>
+      <c r="F11" s="160" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="132"/>
+      <c r="G11" s="160"/>
       <c r="H11" s="114">
         <f>AVERAGE(H9:H10)</f>
         <v>1.2428167513406039E-6</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M11" s="84">
         <f>STDEV(F17:F18)/SQRT(2)</f>
@@ -2811,107 +2982,107 @@
       <c r="S11" s="116"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="183"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="132" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="160" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="132"/>
+      <c r="G12" s="160"/>
       <c r="H12" s="115">
         <f>STDEV(H9:H10)/SQRT(2)</f>
         <v>4.1541355672734149E-7</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="3" t="s">
-        <v>208</v>
+      <c r="L12" s="148" t="s">
+        <v>295</v>
       </c>
       <c r="M12" s="99">
         <f>AVERAGE(G17:G18)</f>
         <v>5.4978079672715552</v>
       </c>
-      <c r="Q12" s="128" t="s">
-        <v>266</v>
-      </c>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
+      <c r="Q12" s="155" t="s">
+        <v>259</v>
+      </c>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
     </row>
     <row r="13" spans="1:22" ht="14.25" customHeight="1">
-      <c r="L13" s="3" t="s">
-        <v>210</v>
+      <c r="L13" s="148" t="s">
+        <v>296</v>
       </c>
       <c r="M13" s="99">
         <f>STDEV(G17:G18)</f>
         <v>1.7790688299436936</v>
       </c>
       <c r="Q13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1">
-      <c r="A14" s="173" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
+      <c r="A14" s="156" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
       <c r="L14" s="100" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="M14" s="104">
         <f>'Na Spectrum Database'!A43-'Na Spectrum Database'!A42</f>
         <v>5.973283000000265</v>
       </c>
-      <c r="Q14" s="128" t="s">
-        <v>287</v>
-      </c>
-      <c r="R14" s="128"/>
+      <c r="Q14" s="155" t="s">
+        <v>279</v>
+      </c>
+      <c r="R14" s="155"/>
       <c r="S14" s="117">
         <f>SQRT(1/4*$S$9^2*H9^2*SIN(RADIANS(E17))^2*F17^2+1/4*(SQRT(2)*$S$9)^2*H9^2*COS(RADIANS(E17))^2+1/4*($S$10)^2*COS(RADIANS(E17))^2*F17^2)*10^10</f>
         <v>2.3885394916019691</v>
       </c>
       <c r="T14" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18">
-      <c r="A15" s="130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="130"/>
+      <c r="A15" s="158" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="158"/>
       <c r="E15" s="91" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F15" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="G15" s="157" t="s">
         <v>207</v>
       </c>
       <c r="H15" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q15" s="128" t="s">
-        <v>286</v>
-      </c>
-      <c r="R15" s="128"/>
+        <v>208</v>
+      </c>
+      <c r="Q15" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="R15" s="155"/>
       <c r="S15" s="117">
         <f>SQRT(1/4*$S$9^2*H10^2*SIN(RADIANS(E18))^2*F18^2+1/4*(SQRT(2)*$S$9)^2*H10^2*COS(RADIANS(E18))^2+1/4*($S$10)^2*COS(RADIANS(E18))^2*F18^2)*10^10</f>
         <v>1.1992106063468084</v>
       </c>
       <c r="T15" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -2933,23 +3104,23 @@
       <c r="F16" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="129"/>
-      <c r="L16" s="176" t="s">
-        <v>273</v>
-      </c>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-      <c r="Q16" s="128" t="s">
-        <v>288</v>
-      </c>
-      <c r="R16" s="128"/>
+      <c r="G16" s="157"/>
+      <c r="L16" s="166" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="Q16" s="155" t="s">
+        <v>280</v>
+      </c>
+      <c r="R16" s="155"/>
       <c r="S16" s="117">
         <f>AVERAGE(S14:S15)</f>
         <v>1.7938750489743889</v>
       </c>
       <c r="T16" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1">
@@ -2977,10 +3148,10 @@
         <f>1*10^10*H9/(2)*COS(RADIANS(E17))*F17</f>
         <v>6.7557996011223551</v>
       </c>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="176"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3">
@@ -3011,7 +3182,7 @@
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
       <c r="L18" s="103" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -3019,33 +3190,36 @@
       <c r="I19" s="101"/>
       <c r="J19" s="101"/>
       <c r="K19" s="101"/>
-      <c r="L19" s="177" t="s">
-        <v>282</v>
-      </c>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="177"/>
-      <c r="P19" s="177"/>
+      <c r="L19" s="154" t="s">
+        <v>298</v>
+      </c>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
       <c r="I20" s="101"/>
       <c r="J20" s="101"/>
       <c r="K20" s="101"/>
-      <c r="L20" s="177"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="177"/>
-      <c r="O20" s="177"/>
-      <c r="P20" s="177"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
     </row>
     <row r="21" spans="1:16">
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
       <c r="K21" s="102"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
     </row>
     <row r="22" spans="1:16">
       <c r="J22" s="101"/>
@@ -3053,12 +3227,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L19:P21"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q14:R14"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="G15:G16"/>
@@ -3068,8 +3236,14 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="L19:P21"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q14:R14"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A6:H6"/>
     <mergeCell ref="Q12:U12"/>
     <mergeCell ref="L16:O17"/>
   </mergeCells>
@@ -3096,20 +3270,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="139" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="140" t="s">
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="168" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3123,7 +3297,7 @@
       <c r="C2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="139"/>
+      <c r="D2" s="167"/>
       <c r="G2" t="s">
         <v>154</v>
       </c>
@@ -3133,7 +3307,7 @@
       <c r="I2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="140"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -3472,10 +3646,10 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="169" t="s">
         <v>123</v>
       </c>
       <c r="C15">
@@ -3498,8 +3672,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="160"/>
-      <c r="B16" s="160"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="169"/>
       <c r="C16">
         <v>2</v>
       </c>
@@ -3520,8 +3694,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="160"/>
-      <c r="B17" s="160"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="169"/>
       <c r="C17">
         <v>1</v>
       </c>
@@ -3661,10 +3835,10 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="160" t="s">
+      <c r="A22" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="169" t="s">
         <v>118</v>
       </c>
       <c r="C22">
@@ -3675,8 +3849,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="160"/>
-      <c r="B23" s="160"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="169"/>
       <c r="C23">
         <v>1</v>
       </c>
@@ -3685,8 +3859,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="160"/>
-      <c r="B24" s="160"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="169"/>
       <c r="C24">
         <v>0</v>
       </c>
@@ -3698,10 +3872,10 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="169" t="s">
         <v>123</v>
       </c>
       <c r="C25">
@@ -3712,8 +3886,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="160"/>
-      <c r="B26" s="160"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="169"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -3722,8 +3896,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="160"/>
-      <c r="B27" s="160"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="169"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -3752,10 +3926,10 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="169" t="s">
         <v>129</v>
       </c>
       <c r="C29">
@@ -3766,8 +3940,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="160"/>
-      <c r="B30" s="160"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="169"/>
       <c r="C30">
         <v>4</v>
       </c>
@@ -3776,8 +3950,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="160"/>
-      <c r="B31" s="160"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="169"/>
       <c r="C31">
         <v>2</v>
       </c>
@@ -4460,10 +4634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" topLeftCell="F20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4483,17 +4657,17 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="B1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O1" s="119">
-        <f>H29-M16</f>
+        <f>R30-M17</f>
         <v>5.884613582280048</v>
       </c>
       <c r="P1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
@@ -4504,1622 +4678,1646 @@
     </row>
     <row r="2" spans="1:32">
       <c r="B2" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="165">
+      <c r="D2" s="142">
         <f>0.5/60</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T2" s="101"/>
       <c r="U2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Y2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:32">
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
       <c r="E3" s="6"/>
+      <c r="M3" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="T3" s="101"/>
     </row>
-    <row r="4" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A4" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="L4" s="161" t="s">
+    <row r="4" spans="1:32">
+      <c r="E4" s="6"/>
+      <c r="M4" s="1"/>
+      <c r="T4" s="101"/>
+    </row>
+    <row r="5" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A5" s="177" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
+      <c r="L5" s="172" t="s">
+        <v>252</v>
+      </c>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="170" t="s">
+        <v>247</v>
+      </c>
+      <c r="R5" s="170" t="s">
+        <v>248</v>
+      </c>
+      <c r="S5" s="170" t="s">
+        <v>251</v>
+      </c>
+      <c r="T5" s="102"/>
+      <c r="U5" s="177" t="s">
+        <v>215</v>
+      </c>
+      <c r="V5" s="175"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="175"/>
+      <c r="AD5" s="176"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A6" s="171" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="183" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="184"/>
+      <c r="E6" s="185" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="185"/>
+      <c r="G6" s="143" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="143" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="179" t="s">
-        <v>253</v>
-      </c>
-      <c r="R4" s="179" t="s">
-        <v>254</v>
-      </c>
-      <c r="S4" s="179" t="s">
-        <v>257</v>
-      </c>
-      <c r="T4" s="102"/>
-      <c r="U4" s="133" t="s">
-        <v>218</v>
-      </c>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="134"/>
-    </row>
-    <row r="5" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A5" s="138" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="166" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="182"/>
-      <c r="E5" s="167" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="168" t="s">
-        <v>264</v>
-      </c>
-      <c r="H5" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="I5" s="127" t="s">
+      <c r="I6" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6" s="146"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="180"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="126" t="s">
-        <v>222</v>
-      </c>
-      <c r="M5" s="126">
-        <v>1</v>
-      </c>
-      <c r="N5" s="126">
+      <c r="M6" s="126">
+        <v>1</v>
+      </c>
+      <c r="N6" s="126">
         <v>2</v>
       </c>
-      <c r="O5" s="126">
+      <c r="O6" s="126">
         <v>3</v>
       </c>
-      <c r="P5" s="126">
+      <c r="P6" s="126">
         <v>4</v>
       </c>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="132" t="str">
-        <f>B17</f>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="160" t="str">
+        <f>B18</f>
         <v>Color</v>
       </c>
-      <c r="V5" s="131" t="s">
+      <c r="V6" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="133" t="s">
+      <c r="W6" s="159"/>
+      <c r="X6" s="159"/>
+      <c r="Y6" s="159"/>
+      <c r="Z6" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="136" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A6" s="138"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="125" t="s">
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="180" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A7" s="171"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D7" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F7" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="181"/>
-      <c r="L6" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M6" s="82">
+      <c r="J7" s="147"/>
+      <c r="L7" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="M7" s="82">
         <v>13.574999999999999</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N7" s="82">
         <v>14.725</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O7" s="82">
         <v>16.2549999999999</v>
       </c>
-      <c r="P6" s="82">
+      <c r="P7" s="82">
         <v>17.695</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q7" s="82">
         <f>10^-1</f>
         <v>0.1</v>
       </c>
-      <c r="R6" s="126">
-        <v>25</v>
-      </c>
-      <c r="S6" s="153">
-        <v>1</v>
-      </c>
-      <c r="T6" s="147"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="W6" s="126" t="s">
-        <v>294</v>
-      </c>
-      <c r="X6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z6" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA6" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB6" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC6" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD6" s="130"/>
-    </row>
-    <row r="7" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>229</v>
-      </c>
-      <c r="D7" s="3">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3">
-        <v>198</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="82">
-        <f>C7+(D7/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
-        <v>15.666666666666657</v>
-      </c>
-      <c r="H7" s="82">
-        <f>ABS(E7+(F7/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
-        <v>15.716666666666669</v>
-      </c>
-      <c r="I7" s="82">
-        <f>STDEV(G7:H7)/SQRT(2)</f>
-        <v>2.5000000000005681E-2</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="M7" s="82">
-        <v>14.0649999999999</v>
-      </c>
-      <c r="N7" s="82">
-        <v>15.145</v>
-      </c>
-      <c r="O7" s="82">
-        <v>16.675000000000001</v>
-      </c>
-      <c r="P7" s="82">
-        <v>18.105</v>
-      </c>
-      <c r="Q7" s="82">
-        <f t="shared" ref="Q7:Q8" si="0">10^-1</f>
-        <v>0.1</v>
-      </c>
       <c r="R7" s="126">
         <v>25</v>
       </c>
-      <c r="S7" s="153">
-        <v>1</v>
-      </c>
-      <c r="T7" s="147"/>
-      <c r="U7" s="107" t="s">
+      <c r="S7" s="135">
+        <v>1</v>
+      </c>
+      <c r="T7" s="130"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="X7" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z7" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA7" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB7" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC7" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD7" s="158"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="108">
-        <f>E18</f>
+      <c r="C8" s="3">
+        <v>229</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3">
+        <v>198</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="82">
+        <f>C8+(D8/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
+        <v>15.666666666666657</v>
+      </c>
+      <c r="H8" s="82">
+        <f>ABS(E8+(F8/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
+        <v>15.716666666666669</v>
+      </c>
+      <c r="I8" s="82">
+        <f t="shared" ref="I8:I14" si="0">STDEV(G8:H8)/SQRT(2)</f>
+        <v>2.5000000000005681E-2</v>
+      </c>
+      <c r="L8" s="128" t="s">
+        <v>223</v>
+      </c>
+      <c r="M8" s="82">
+        <v>14.0649999999999</v>
+      </c>
+      <c r="N8" s="82">
+        <v>15.145</v>
+      </c>
+      <c r="O8" s="82">
+        <v>16.675000000000001</v>
+      </c>
+      <c r="P8" s="82">
+        <v>18.105</v>
+      </c>
+      <c r="Q8" s="82">
+        <f t="shared" ref="Q8:Q9" si="1">10^-1</f>
+        <v>0.1</v>
+      </c>
+      <c r="R8" s="126">
+        <v>25</v>
+      </c>
+      <c r="S8" s="135">
+        <v>1</v>
+      </c>
+      <c r="T8" s="130"/>
+      <c r="U8" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="108">
+        <f>E19</f>
         <v>4484.856316319604</v>
       </c>
-      <c r="W7" s="108">
-        <f>F18</f>
+      <c r="W8" s="108">
+        <f>F19</f>
         <v>3.4560009412750041</v>
       </c>
-      <c r="X7" s="90">
+      <c r="X8" s="90">
         <f>'He Spectrum Database'!A148</f>
         <v>4471.4802</v>
       </c>
-      <c r="Y7" s="63">
-        <f>(V7-X7)/(X7)</f>
+      <c r="Y8" s="63">
+        <f t="shared" ref="Y8:Y14" si="2">(V8-X8)/(X8)</f>
         <v>2.9914291736333931E-3</v>
       </c>
-      <c r="Z7" s="156" t="str">
+      <c r="Z8" s="138" t="str">
         <f>'He Spectrum Database'!G148</f>
         <v>1s2p</v>
       </c>
-      <c r="AA7" s="157" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB7" s="4">
-        <f>D30</f>
+      <c r="AA8" s="139" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>N31</f>
         <v>20.925863582280023</v>
       </c>
-      <c r="AC7" s="82">
+      <c r="AC8" s="82">
         <f>'He Spectrum Database'!F148</f>
         <v>23.736089152750001</v>
       </c>
-      <c r="AD7" s="83">
-        <f>-(AB7-AC7)*(1.60217646E-19)*V7/(3*10^8)*10^(-10)</f>
+      <c r="AD8" s="83">
+        <f>-(AB8-AC8)*(1.60217646E-19)*V8/(3*10^8)*10^(-10)</f>
         <v>6.7309878539964246E-34</v>
       </c>
-      <c r="AF7">
-        <f>AD7*SQRT((F18/E18)^2+(E29/D29)^2)</f>
+      <c r="AF8">
+        <f>AD8*SQRT((F19/E19)^2+(O30/N30)^2)</f>
         <v>4.9520379388906225E-36</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>230</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>16</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>197</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>10</v>
       </c>
-      <c r="G8" s="82">
-        <f>C8+(D8/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
+      <c r="G9" s="82">
+        <f>C9+(D9/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
         <v>16.550000000000011</v>
       </c>
-      <c r="H8" s="82">
-        <f>ABS(E8+(F8/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
+      <c r="H9" s="82">
+        <f>ABS(E9+(F9/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
         <v>16.550000000000011</v>
       </c>
-      <c r="I8" s="82">
-        <f>STDEV(G8:H8)/SQRT(2)</f>
+      <c r="I9" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" s="82">
+      <c r="L9" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" s="82">
         <v>13.9949999999999</v>
       </c>
-      <c r="N8" s="82">
+      <c r="N9" s="82">
         <v>15.104999999999899</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O9" s="82">
         <v>16.654999999999902</v>
       </c>
-      <c r="P8" s="82">
+      <c r="P9" s="82">
         <v>18.105</v>
       </c>
-      <c r="Q8" s="82">
-        <f t="shared" si="0"/>
+      <c r="Q9" s="82">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="R8" s="126">
+      <c r="R9" s="126">
         <v>10</v>
       </c>
-      <c r="S8" s="153">
-        <v>1</v>
-      </c>
-      <c r="T8" s="147"/>
-      <c r="U8" s="107" t="s">
+      <c r="S9" s="135">
+        <v>1</v>
+      </c>
+      <c r="T9" s="130"/>
+      <c r="U9" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="V8" s="108">
-        <f>E19</f>
+      <c r="V9" s="108">
+        <f t="shared" ref="V9:V14" si="3">E20</f>
         <v>4723.5016087649137</v>
       </c>
-      <c r="W8" s="108">
-        <f t="shared" ref="W8:W13" si="1">F19</f>
+      <c r="W9" s="108">
+        <f t="shared" ref="W9:W14" si="4">F20</f>
         <v>3.5404672469716982</v>
       </c>
-      <c r="X8" s="90">
+      <c r="X9" s="90">
         <f>'He Spectrum Database'!A153</f>
         <v>4713.1457</v>
       </c>
-      <c r="Y8" s="63">
-        <f>(V8-X8)/(X8)</f>
+      <c r="Y9" s="63">
+        <f t="shared" si="2"/>
         <v>2.1972392588910828E-3</v>
       </c>
-      <c r="Z8" s="158" t="str">
+      <c r="Z9" s="140" t="str">
         <f>'He Spectrum Database'!G153</f>
         <v>1s2p</v>
       </c>
-      <c r="AA8" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB8" s="151">
-        <f>AB7</f>
+      <c r="AA9" s="140" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB9" s="133">
+        <f>AB8</f>
         <v>20.925863582280023</v>
       </c>
-      <c r="AC8" s="51">
-        <f>AG27</f>
+      <c r="AC9" s="51">
+        <f>AG28</f>
         <v>23.593957536200001</v>
       </c>
-      <c r="AD8" s="83">
-        <f t="shared" ref="AD8:AD13" si="2">-(AB8-AC8)*(1.60217646E-19)*V8/(3*10^8)*10^(-10)</f>
+      <c r="AD9" s="83">
+        <f t="shared" ref="AD9:AD14" si="5">-(AB9-AC9)*(1.60217646E-19)*V9/(3*10^8)*10^(-10)</f>
         <v>6.730607702208138E-34</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>231</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>196</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>27</v>
       </c>
-      <c r="G9" s="82">
-        <f>C9+(D9/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
+      <c r="G10" s="82">
+        <f>C10+(D10/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
         <v>17.283333333333331</v>
       </c>
-      <c r="H9" s="82">
-        <f>ABS(E9+(F9/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
+      <c r="H10" s="82">
+        <f>ABS(E10+(F10/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
         <v>17.26666666666668</v>
       </c>
-      <c r="I9" s="82">
-        <f>STDEV(G9:H9)/SQRT(2)</f>
+      <c r="I10" s="82">
+        <f t="shared" si="0"/>
         <v>8.3333333333257525E-3</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M9" s="82">
+      <c r="L10" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="M10" s="82">
         <v>13.534999999999901</v>
       </c>
-      <c r="N9" s="82">
+      <c r="N10" s="82">
         <v>14.414999999999999</v>
       </c>
-      <c r="O9" s="82">
+      <c r="O10" s="82">
         <v>15.914999999999999</v>
       </c>
-      <c r="P9" s="82">
+      <c r="P10" s="82">
         <v>17.414999999999999</v>
       </c>
-      <c r="Q9" s="99">
+      <c r="Q10" s="99">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="R9" s="126">
+      <c r="R10" s="126">
         <v>10</v>
       </c>
-      <c r="S9" s="153">
+      <c r="S10" s="135">
         <f>1.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="T9" s="147"/>
-      <c r="U9" s="107" t="s">
+      <c r="T10" s="130"/>
+      <c r="U10" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="108">
-        <f>E20</f>
+      <c r="V10" s="108">
+        <f t="shared" si="3"/>
         <v>4924.2516980720748</v>
       </c>
-      <c r="W9" s="108">
-        <f t="shared" si="1"/>
+      <c r="W10" s="108">
+        <f t="shared" si="4"/>
         <v>3.613274563245827</v>
       </c>
-      <c r="X9" s="90">
+      <c r="X10" s="90">
         <f>'He Spectrum Database'!A158</f>
         <v>4921.9313000000002</v>
       </c>
-      <c r="Y9" s="63">
-        <f>(V9-X9)/(X9)</f>
+      <c r="Y10" s="63">
+        <f t="shared" si="2"/>
         <v>4.7144056481945764E-4</v>
       </c>
-      <c r="Z9" s="158" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA9" s="158" t="str">
-        <f>AA7</f>
-        <v>1s4d*</v>
-      </c>
-      <c r="AB9" s="51">
+      <c r="Z10" s="140" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA10" s="140" t="str">
+        <f>AA8</f>
+        <v>1s4d1</v>
+      </c>
+      <c r="AB10" s="51">
         <f>'He Spectrum Database'!E158</f>
         <v>21.218021673199999</v>
       </c>
-      <c r="AC9" s="51">
+      <c r="AC10" s="51">
         <f>'He Spectrum Database'!F158</f>
         <v>23.736333849169998</v>
       </c>
-      <c r="AD9" s="83">
-        <f>-(AB9-AC9)*(1.60217646E-19)*V9/(3*10^8)*10^(-10)</f>
+      <c r="AD10" s="83">
+        <f>-(AB10-AC10)*(1.60217646E-19)*V10/(3*10^8)*10^(-10)</f>
         <v>6.6227582219299628E-34</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C11" s="105">
         <v>231</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D11" s="105">
         <v>26</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E11" s="105">
         <v>196</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F11" s="105">
         <v>5</v>
       </c>
-      <c r="G10" s="82">
-        <f>C10+(D10/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
+      <c r="G11" s="82">
+        <f>C11+(D11/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
         <v>17.716666666666669</v>
       </c>
-      <c r="H10" s="82">
-        <f>ABS(E10+(F10/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
+      <c r="H11" s="82">
+        <f>ABS(E11+(F11/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
         <v>17.633333333333326</v>
       </c>
-      <c r="I10" s="82">
-        <f>STDEV(G10:H10)/SQRT(2)</f>
+      <c r="I11" s="82">
+        <f t="shared" si="0"/>
         <v>4.1666666666671404E-2</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="M10" s="82">
+      <c r="L11" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11" s="82">
         <v>12.864999999999901</v>
       </c>
-      <c r="N10" s="82">
+      <c r="N11" s="82">
         <v>13.844999999999899</v>
       </c>
-      <c r="O10" s="82">
+      <c r="O11" s="82">
         <v>15.344999999999899</v>
       </c>
-      <c r="P10" s="82">
+      <c r="P11" s="82">
         <v>16.844999999999999</v>
       </c>
-      <c r="Q10" s="99">
+      <c r="Q11" s="99">
         <v>10</v>
       </c>
-      <c r="R10" s="126">
+      <c r="R11" s="126">
         <v>10</v>
       </c>
-      <c r="S10" s="153">
+      <c r="S11" s="135">
         <v>1.2</v>
       </c>
-      <c r="T10" s="147"/>
-      <c r="U10" s="107" t="s">
+      <c r="T11" s="130"/>
+      <c r="U11" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="108">
-        <f>E21</f>
+      <c r="V11" s="108">
+        <f t="shared" si="3"/>
         <v>5034.6736700246829</v>
       </c>
-      <c r="W10" s="108">
-        <f t="shared" si="1"/>
+      <c r="W11" s="108">
+        <f t="shared" si="4"/>
         <v>3.6539676255133147</v>
       </c>
-      <c r="X10" s="90">
+      <c r="X11" s="90">
         <f>'He Spectrum Database'!A159</f>
         <v>5015.6782999999996</v>
       </c>
-      <c r="Y10" s="63">
-        <f>(V10-X10)/(X10)</f>
+      <c r="Y11" s="63">
+        <f t="shared" si="2"/>
         <v>3.7871986376565112E-3</v>
       </c>
-      <c r="Z10" s="158" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA10" s="158" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB10" s="51">
+      <c r="Z11" s="140" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA11" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB11" s="51">
         <f>'He Spectrum Database'!E159</f>
         <v>20.6157738231</v>
       </c>
-      <c r="AC10" s="51">
+      <c r="AC11" s="51">
         <f>'He and Hg Levels'!D19</f>
         <v>23.087017385399999</v>
       </c>
-      <c r="AD10" s="83">
-        <f>-(AB10-AC10)*(1.60217646E-19)*V10/(3*10^8)*10^(-10)</f>
+      <c r="AD11" s="83">
+        <f>-(AB11-AC11)*(1.60217646E-19)*V11/(3*10^8)*10^(-10)</f>
         <v>6.6447090469520623E-34</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="106">
+      <c r="C12" s="106">
         <v>234.5</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D12" s="106">
         <v>0</v>
       </c>
-      <c r="E11" s="106">
+      <c r="E12" s="106">
         <v>192.5</v>
       </c>
-      <c r="F11" s="106">
+      <c r="F12" s="106">
         <v>26</v>
       </c>
-      <c r="G11" s="82">
-        <f>C11+(D11/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
+      <c r="G12" s="82">
+        <f>C12+(D12/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
         <v>20.783333333333331</v>
       </c>
-      <c r="H11" s="82">
-        <f>ABS(E11+(F11/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
+      <c r="H12" s="82">
+        <f>ABS(E12+(F12/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
         <v>20.783333333333331</v>
       </c>
-      <c r="I11" s="82">
-        <f>STDEV(G11:H11)/SQRT(2)</f>
+      <c r="I12" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M11" s="82">
+      <c r="L12" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="M12" s="82">
         <v>13.614999999999901</v>
       </c>
-      <c r="N11" s="82">
+      <c r="N12" s="82">
         <v>14.805</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O12" s="82">
         <v>16.355</v>
       </c>
-      <c r="P11" s="82">
+      <c r="P12" s="82">
         <v>17.8049999999999</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q12" s="82">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="R11" s="126">
+      <c r="R12" s="126">
         <v>10</v>
       </c>
-      <c r="S11" s="153">
+      <c r="S12" s="135">
         <v>1.05</v>
       </c>
-      <c r="T11" s="147"/>
-      <c r="U11" s="107" t="s">
+      <c r="T12" s="130"/>
+      <c r="U12" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="V11" s="108">
-        <f>E22</f>
+      <c r="V12" s="108">
+        <f t="shared" si="3"/>
         <v>5883.9818058411656</v>
       </c>
-      <c r="W11" s="108">
-        <f t="shared" si="1"/>
+      <c r="W12" s="108">
+        <f t="shared" si="4"/>
         <v>3.9806128178250191</v>
       </c>
-      <c r="X11" s="90">
+      <c r="X12" s="90">
         <f>'He Spectrum Database'!A165</f>
         <v>5875.6210000000001</v>
       </c>
-      <c r="Y11" s="63">
-        <f>(V11-X11)/(X11)</f>
+      <c r="Y12" s="63">
+        <f t="shared" si="2"/>
         <v>1.4229654773794172E-3</v>
       </c>
-      <c r="Z11" s="158" t="str">
+      <c r="Z12" s="140" t="str">
         <f>'He Spectrum Database'!G165</f>
         <v>1s2p</v>
       </c>
-      <c r="AA11" s="158" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB11" s="51">
+      <c r="AA12" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB12" s="51">
+        <f>AB9</f>
+        <v>20.925863582280023</v>
+      </c>
+      <c r="AC12" s="51">
+        <f>'He Spectrum Database'!F165</f>
+        <v>23.073649874819999</v>
+      </c>
+      <c r="AD12" s="83">
+        <f t="shared" si="5"/>
+        <v>6.7491872798231412E-34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="105">
+        <v>237.5</v>
+      </c>
+      <c r="D13" s="105">
+        <v>0</v>
+      </c>
+      <c r="E13" s="105">
+        <v>189.5</v>
+      </c>
+      <c r="F13" s="105">
+        <v>0</v>
+      </c>
+      <c r="G13" s="82">
+        <f>C13+(D13/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
+        <v>23.783333333333331</v>
+      </c>
+      <c r="H13" s="82">
+        <f>ABS(E13+(F13/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
+        <v>24.216666666666669</v>
+      </c>
+      <c r="I13" s="82">
+        <f t="shared" si="0"/>
+        <v>0.21666666666661183</v>
+      </c>
+      <c r="L13" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="M13" s="82">
+        <v>13.385</v>
+      </c>
+      <c r="N13" s="82">
+        <v>14.695</v>
+      </c>
+      <c r="O13" s="82">
+        <v>16.244999999999902</v>
+      </c>
+      <c r="P13" s="82">
+        <v>17.695</v>
+      </c>
+      <c r="Q13" s="82">
+        <f t="shared" ref="Q13:Q16" si="6">0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="126">
+        <v>10</v>
+      </c>
+      <c r="S13" s="135">
+        <v>1.07</v>
+      </c>
+      <c r="T13" s="130"/>
+      <c r="U13" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="108">
+        <f t="shared" si="3"/>
+        <v>6744.5820651297681</v>
+      </c>
+      <c r="W13" s="108">
+        <f t="shared" si="4"/>
+        <v>4.332191663168004</v>
+      </c>
+      <c r="X13" s="90">
+        <f>'He Spectrum Database'!A171</f>
+        <v>6678.1509999999998</v>
+      </c>
+      <c r="Y13" s="63">
+        <f t="shared" si="2"/>
+        <v>9.9475236678188746E-3</v>
+      </c>
+      <c r="Z13" s="140" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA13" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB13" s="51">
+        <f>'He Spectrum Database'!E171</f>
+        <v>21.218021673199999</v>
+      </c>
+      <c r="AC13" s="51">
+        <f>'He Spectrum Database'!F171</f>
+        <v>23.07407365281</v>
+      </c>
+      <c r="AD13" s="83">
+        <f t="shared" si="5"/>
+        <v>6.6855057993020437E-34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="105">
+        <v>239</v>
+      </c>
+      <c r="D14" s="105">
+        <v>0</v>
+      </c>
+      <c r="E14" s="105">
+        <v>188.5</v>
+      </c>
+      <c r="F14" s="105">
+        <v>0</v>
+      </c>
+      <c r="G14" s="82">
+        <f>C14+(D14/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
+        <v>25.283333333333331</v>
+      </c>
+      <c r="H14" s="82">
+        <f>ABS(E14+(F14/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
+        <v>25.216666666666669</v>
+      </c>
+      <c r="I14" s="82">
+        <f t="shared" si="0"/>
+        <v>3.3333333333331439E-2</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>220</v>
+      </c>
+      <c r="M14" s="82">
+        <v>14.695</v>
+      </c>
+      <c r="N14" s="82">
+        <v>15.565</v>
+      </c>
+      <c r="O14" s="82">
+        <v>17.114999999999998</v>
+      </c>
+      <c r="P14" s="82">
+        <v>18.514999999999901</v>
+      </c>
+      <c r="Q14" s="82">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="126">
+        <v>10</v>
+      </c>
+      <c r="S14" s="135">
+        <v>0.9</v>
+      </c>
+      <c r="T14" s="130"/>
+      <c r="U14" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="192">
+        <f t="shared" si="3"/>
+        <v>7073.490932729027</v>
+      </c>
+      <c r="W14" s="192">
+        <f t="shared" si="4"/>
+        <v>4.4710380401716749</v>
+      </c>
+      <c r="X14" s="193">
+        <f>'He Spectrum Database'!A174</f>
+        <v>7065.19</v>
+      </c>
+      <c r="Y14" s="194">
+        <f t="shared" si="2"/>
+        <v>1.1749058028202226E-3</v>
+      </c>
+      <c r="Z14" s="195" t="str">
+        <f>'He Spectrum Database'!G174</f>
+        <v>1s2p</v>
+      </c>
+      <c r="AA14" s="140" t="str">
+        <f>'He Spectrum Database'!H174</f>
+        <v>1s3s</v>
+      </c>
+      <c r="AB14" s="51">
         <f>AB8</f>
         <v>20.925863582280023</v>
       </c>
-      <c r="AC11" s="51">
+      <c r="AC14" s="51">
+        <f>'He Spectrum Database'!F174</f>
+        <v>22.718465298000002</v>
+      </c>
+      <c r="AD14" s="83">
+        <f t="shared" si="5"/>
+        <v>6.7718401932382249E-34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="15.95" customHeight="1">
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="128" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="82">
+        <v>14.085000000000001</v>
+      </c>
+      <c r="N15" s="82">
+        <v>15.154999999999999</v>
+      </c>
+      <c r="O15" s="82">
+        <v>16.684999999999999</v>
+      </c>
+      <c r="P15" s="82">
+        <v>18.105</v>
+      </c>
+      <c r="Q15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="126">
+        <v>10</v>
+      </c>
+      <c r="S15" s="135">
+        <v>1</v>
+      </c>
+      <c r="U15" s="196" t="s">
+        <v>287</v>
+      </c>
+      <c r="V15" s="173"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="174"/>
+      <c r="AA15" s="175" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB15" s="175"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="83">
+        <f>AVERAGE(AD8:AD14)</f>
+        <v>6.7050851567785699E-34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15.95" customHeight="1">
+      <c r="L16" s="128" t="s">
+        <v>222</v>
+      </c>
+      <c r="M16" s="82">
+        <v>14.0649999999999</v>
+      </c>
+      <c r="N16" s="82">
+        <v>15.1349999999999</v>
+      </c>
+      <c r="O16" s="82">
+        <v>16.534999999999901</v>
+      </c>
+      <c r="P16" s="82">
+        <v>18.135000000000002</v>
+      </c>
+      <c r="Q16" s="82">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="126">
+        <v>10</v>
+      </c>
+      <c r="S16" s="135">
+        <v>1</v>
+      </c>
+      <c r="U16" s="197" t="s">
+        <v>288</v>
+      </c>
+      <c r="V16" s="198"/>
+      <c r="W16" s="198"/>
+      <c r="X16" s="198"/>
+      <c r="Y16" s="198"/>
+      <c r="Z16" s="199"/>
+      <c r="AA16" s="175" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB16" s="175"/>
+      <c r="AC16" s="175"/>
+      <c r="AD16" s="109">
+        <f>STDEV(AD8:AD15)</f>
+        <v>5.1450298175833894E-36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" ht="15.95" customHeight="1">
+      <c r="B17" s="178" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="179"/>
+      <c r="L17" s="123" t="s">
+        <v>254</v>
+      </c>
+      <c r="M17" s="145">
+        <f>AVERAGE(M7:M9,M12:M16)</f>
+        <v>13.934999999999951</v>
+      </c>
+      <c r="N17" s="145">
+        <f t="shared" ref="N17:P17" si="7">AVERAGE(N7:N9,N12:N16)</f>
+        <v>15.041249999999975</v>
+      </c>
+      <c r="O17" s="145">
+        <f t="shared" si="7"/>
+        <v>16.564999999999952</v>
+      </c>
+      <c r="P17" s="145">
+        <f t="shared" si="7"/>
+        <v>18.019999999999975</v>
+      </c>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="141"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="AA17" s="177" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB17" s="175"/>
+      <c r="AC17" s="176"/>
+      <c r="AD17" s="134">
+        <f>6.626E-34</f>
+        <v>6.6259999999999998E-34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" ht="15.95" customHeight="1">
+      <c r="B18" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="150" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="150" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="152" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="L18" s="128" t="s">
+        <v>303</v>
+      </c>
+      <c r="M18" s="82">
+        <f>M17+$O$1</f>
+        <v>19.819613582279999</v>
+      </c>
+      <c r="N18" s="82">
+        <f>N17+$O$1</f>
+        <v>20.925863582280023</v>
+      </c>
+      <c r="O18" s="82">
+        <f>O17+$O$1</f>
+        <v>22.449613582280001</v>
+      </c>
+      <c r="P18" s="82">
+        <f>P17+$O$1</f>
+        <v>23.904613582280021</v>
+      </c>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="141"/>
+    </row>
+    <row r="19" spans="2:35">
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="82">
+        <f t="shared" ref="C19:D25" si="8">G8</f>
+        <v>15.666666666666657</v>
+      </c>
+      <c r="D19" s="82">
+        <f t="shared" si="8"/>
+        <v>15.716666666666669</v>
+      </c>
+      <c r="E19" s="144">
+        <f>(1/2*(SIN(RADIANS(C19))+SIN(RADIANS(D19))))*'Calc Na'!$H$9*10^10</f>
+        <v>4484.856316319604</v>
+      </c>
+      <c r="F19" s="99">
+        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D19))^2+COS(RADIANS(C19))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C19))+SIN(RADIANS(D19)))^2)^(1/2)*10^10</f>
+        <v>3.4560009412750041</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:35">
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="82">
+        <f t="shared" si="8"/>
+        <v>16.550000000000011</v>
+      </c>
+      <c r="D20" s="82">
+        <f t="shared" si="8"/>
+        <v>16.550000000000011</v>
+      </c>
+      <c r="E20" s="144">
+        <f>(1/2*(SIN(RADIANS(C20))+SIN(RADIANS(D20))))*'Calc Na'!$H$9*10^10</f>
+        <v>4723.5016087649137</v>
+      </c>
+      <c r="F20" s="99">
+        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D20))^2+COS(RADIANS(C20))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C20))+SIN(RADIANS(D20)))^2)^(1/2)*10^10</f>
+        <v>3.5404672469716982</v>
+      </c>
+      <c r="G20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="82">
+        <f t="shared" si="8"/>
+        <v>17.283333333333331</v>
+      </c>
+      <c r="D21" s="82">
+        <f t="shared" si="8"/>
+        <v>17.26666666666668</v>
+      </c>
+      <c r="E21" s="144">
+        <f>(1/2*(SIN(RADIANS(C21))+SIN(RADIANS(D21))))*'Calc Na'!$H$9*10^10</f>
+        <v>4924.2516980720748</v>
+      </c>
+      <c r="F21" s="99">
+        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D21))^2+COS(RADIANS(C21))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C21))+SIN(RADIANS(D21)))^2)^(1/2)*10^10</f>
+        <v>3.613274563245827</v>
+      </c>
+      <c r="J21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="82">
+        <f t="shared" si="8"/>
+        <v>17.716666666666669</v>
+      </c>
+      <c r="D22" s="82">
+        <f t="shared" si="8"/>
+        <v>17.633333333333326</v>
+      </c>
+      <c r="E22" s="144">
+        <f>(1/2*(SIN(RADIANS(C22))+SIN(RADIANS(D22))))*'Calc Na'!$H$9*10^10</f>
+        <v>5034.6736700246829</v>
+      </c>
+      <c r="F22" s="99">
+        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D22))^2+COS(RADIANS(C22))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C22))+SIN(RADIANS(D22)))^2)^(1/2)*10^10</f>
+        <v>3.6539676255133147</v>
+      </c>
+      <c r="L22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35">
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="82">
+        <f t="shared" si="8"/>
+        <v>20.783333333333331</v>
+      </c>
+      <c r="D23" s="82">
+        <f t="shared" si="8"/>
+        <v>20.783333333333331</v>
+      </c>
+      <c r="E23" s="144">
+        <f>(1/2*(SIN(RADIANS(C23))+SIN(RADIANS(D23))))*'Calc Na'!$H$9*10^10</f>
+        <v>5883.9818058411656</v>
+      </c>
+      <c r="F23" s="99">
+        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D23))^2+COS(RADIANS(C23))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C23))+SIN(RADIANS(D23)))^2)^(1/2)*10^10</f>
+        <v>3.9806128178250191</v>
+      </c>
+      <c r="H23" s="118"/>
+      <c r="V23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35">
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="82">
+        <f t="shared" si="8"/>
+        <v>23.783333333333331</v>
+      </c>
+      <c r="D24" s="82">
+        <f t="shared" si="8"/>
+        <v>24.216666666666669</v>
+      </c>
+      <c r="E24" s="144">
+        <f>(1/2*(SIN(RADIANS(C24))+SIN(RADIANS(D24))))*'Calc Na'!$H$9*10^10</f>
+        <v>6744.5820651297681</v>
+      </c>
+      <c r="F24" s="99">
+        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D24))^2+COS(RADIANS(C24))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C24))+SIN(RADIANS(D24)))^2)^(1/2)*10^10</f>
+        <v>4.332191663168004</v>
+      </c>
+      <c r="V24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35">
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="82">
+        <f t="shared" si="8"/>
+        <v>25.283333333333331</v>
+      </c>
+      <c r="D25" s="82">
+        <f t="shared" si="8"/>
+        <v>25.216666666666669</v>
+      </c>
+      <c r="E25" s="144">
+        <f>(1/2*(SIN(RADIANS(C25))+SIN(RADIANS(D25))))*'Calc Na'!$H$9*10^10</f>
+        <v>7073.490932729027</v>
+      </c>
+      <c r="F25" s="99">
+        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D25))^2+COS(RADIANS(C25))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C25))+SIN(RADIANS(D25)))^2)^(1/2)*10^10</f>
+        <v>4.4710380401716749</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" ht="15.95" customHeight="1">
+      <c r="M27" s="161" t="s">
+        <v>290</v>
+      </c>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="176"/>
+      <c r="AC27" s="90">
+        <f>'He Spectrum Database'!B148</f>
+        <v>4471.4740693000003</v>
+      </c>
+      <c r="AD27" s="90">
+        <f>'He Spectrum Database'!C148</f>
+        <v>22357.715658199999</v>
+      </c>
+      <c r="AE27" s="90" t="str">
+        <f>'He Spectrum Database'!D148</f>
+        <v>200*</v>
+      </c>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51">
+        <f>'He Spectrum Database'!F148</f>
+        <v>23.736089152750001</v>
+      </c>
+      <c r="AH27" s="90" t="str">
+        <f>'He Spectrum Database'!G148</f>
+        <v>1s2p</v>
+      </c>
+      <c r="AI27" s="90" t="str">
+        <f>'He Spectrum Database'!H148</f>
+        <v>1s4d</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" ht="15.95" customHeight="1">
+      <c r="C28" t="s">
+        <v>283</v>
+      </c>
+      <c r="M28" s="181" t="s">
+        <v>235</v>
+      </c>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="177" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="176"/>
+      <c r="AC28" s="90">
+        <f>'He Spectrum Database'!B153</f>
+        <v>4713.1391640000002</v>
+      </c>
+      <c r="AD28" s="90">
+        <f>'He Spectrum Database'!C153</f>
+        <v>21211.346787999999</v>
+      </c>
+      <c r="AE28" s="90" t="str">
+        <f>'He Spectrum Database'!D153</f>
+        <v>30*</v>
+      </c>
+      <c r="AF28" s="51">
+        <f>'He Spectrum Database'!E153</f>
+        <v>20.96408587426</v>
+      </c>
+      <c r="AG28" s="51">
+        <f>'He Spectrum Database'!F153</f>
+        <v>23.593957536200001</v>
+      </c>
+      <c r="AH28" s="90" t="str">
+        <f>'He Spectrum Database'!G153</f>
+        <v>1s2p</v>
+      </c>
+      <c r="AI28" s="90" t="str">
+        <f>'He Spectrum Database'!H153</f>
+        <v>1s4s</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" ht="15.95" customHeight="1">
+      <c r="B29" s="122"/>
+      <c r="M29" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="N29" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="O29" s="128" t="s">
+        <v>302</v>
+      </c>
+      <c r="P29" s="177" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="176"/>
+      <c r="R29" s="148" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC29" s="90">
+        <f>'He Spectrum Database'!B158</f>
+        <v>4921.9310127999997</v>
+      </c>
+      <c r="AD29" s="90">
+        <f>'He Spectrum Database'!C158</f>
+        <v>20311.558795000001</v>
+      </c>
+      <c r="AE29" s="90">
+        <f>'He Spectrum Database'!D158</f>
+        <v>20</v>
+      </c>
+      <c r="AF29" s="51">
+        <f>'He Spectrum Database'!E158</f>
+        <v>21.218021673199999</v>
+      </c>
+      <c r="AG29" s="51" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH29" s="90" t="str">
+        <f>'He Spectrum Database'!G158</f>
+        <v>1s2p</v>
+      </c>
+      <c r="AI29" s="90" t="str">
+        <f>'He Spectrum Database'!H158</f>
+        <v>1s4d</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" ht="15.95" customHeight="1">
+      <c r="M30" s="153">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4">
+        <f>M18</f>
+        <v>19.819613582279999</v>
+      </c>
+      <c r="O30" s="4">
+        <f>SQRT((STDEV(M$7:M$9,M$12:M$16)/SQRT(8))^2+(0.01)^2)</f>
+        <v>0.14501231474798207</v>
+      </c>
+      <c r="P30" s="178" t="str">
+        <f>'He and Hg Levels'!A4</f>
+        <v xml:space="preserve">1s2s </v>
+      </c>
+      <c r="Q30" s="179"/>
+      <c r="R30" s="120">
+        <f>'He and Hg Levels'!D4</f>
+        <v>19.819613582279999</v>
+      </c>
+      <c r="AC30" s="90">
+        <f>'He Spectrum Database'!B159</f>
+        <v>5015.6779809999998</v>
+      </c>
+      <c r="AD30" s="90">
+        <f>'He Spectrum Database'!C159</f>
+        <v>19931.924799</v>
+      </c>
+      <c r="AE30" s="90">
+        <f>'He Spectrum Database'!D159</f>
+        <v>100</v>
+      </c>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51">
+        <f>'He Spectrum Database'!F159</f>
+        <v>23.087017385399999</v>
+      </c>
+      <c r="AH30" s="90" t="str">
+        <f>'He Spectrum Database'!G159</f>
+        <v>1s2s</v>
+      </c>
+      <c r="AI30" s="90" t="str">
+        <f>'He Spectrum Database'!H159</f>
+        <v>1s3p</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" ht="15.95" customHeight="1">
+      <c r="M31" s="153">
+        <v>2</v>
+      </c>
+      <c r="N31" s="4">
+        <f>N18</f>
+        <v>20.925863582280023</v>
+      </c>
+      <c r="O31" s="4">
+        <f>SQRT((STDEV(N$7:N$9,N$12:N$16)/SQRT(8))^2+(0.01)^2)</f>
+        <v>0.1028337336953077</v>
+      </c>
+      <c r="P31" s="177" t="str">
+        <f>'He and Hg Levels'!A6</f>
+        <v xml:space="preserve">1s2p </v>
+      </c>
+      <c r="Q31" s="176"/>
+      <c r="R31" s="82">
+        <f>AVERAGE('He and Hg Levels'!D6:D8)</f>
+        <v>20.964133019913334</v>
+      </c>
+      <c r="AC31" s="90">
+        <f>'He Spectrum Database'!B165</f>
+        <v>5875.6139604999998</v>
+      </c>
+      <c r="AD31" s="90">
+        <f>'He Spectrum Database'!C165</f>
+        <v>17014.782216600001</v>
+      </c>
+      <c r="AE31" s="90" t="str">
+        <f>'He Spectrum Database'!D165</f>
+        <v>500*</v>
+      </c>
+      <c r="AF31" s="51">
+        <f>'He Spectrum Database'!E165</f>
+        <v>20.96408587426</v>
+      </c>
+      <c r="AG31" s="51">
         <f>'He Spectrum Database'!F165</f>
         <v>23.073649874819999</v>
       </c>
-      <c r="AD11" s="83">
-        <f t="shared" si="2"/>
-        <v>6.7491872798231412E-34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="105">
-        <v>237.5</v>
-      </c>
-      <c r="D12" s="105">
-        <v>0</v>
-      </c>
-      <c r="E12" s="105">
-        <v>189.5</v>
-      </c>
-      <c r="F12" s="105">
-        <v>0</v>
-      </c>
-      <c r="G12" s="82">
-        <f>C12+(D12/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
-        <v>23.783333333333331</v>
-      </c>
-      <c r="H12" s="82">
-        <f>ABS(E12+(F12/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
-        <v>24.216666666666669</v>
-      </c>
-      <c r="I12" s="82">
-        <f>STDEV(G12:H12)/SQRT(2)</f>
-        <v>0.21666666666661183</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="M12" s="82">
-        <v>13.385</v>
-      </c>
-      <c r="N12" s="82">
-        <v>14.695</v>
-      </c>
-      <c r="O12" s="82">
-        <v>16.244999999999902</v>
-      </c>
-      <c r="P12" s="82">
-        <v>17.695</v>
-      </c>
-      <c r="Q12" s="82">
-        <f t="shared" ref="Q12:Q15" si="3">0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="R12" s="126">
-        <v>10</v>
-      </c>
-      <c r="S12" s="153">
-        <v>1.07</v>
-      </c>
-      <c r="T12" s="147"/>
-      <c r="U12" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="108">
-        <f>E23</f>
-        <v>6744.5820651297681</v>
-      </c>
-      <c r="W12" s="108">
-        <f t="shared" si="1"/>
-        <v>4.332191663168004</v>
-      </c>
-      <c r="X12" s="90">
-        <f>'He Spectrum Database'!A171</f>
-        <v>6678.1509999999998</v>
-      </c>
-      <c r="Y12" s="63">
-        <f>(V12-X12)/(X12)</f>
-        <v>9.9475236678188746E-3</v>
-      </c>
-      <c r="Z12" s="158" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA12" s="158" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB12" s="51">
+      <c r="AH31" s="90" t="str">
+        <f>'He Spectrum Database'!G165</f>
+        <v>1s2p</v>
+      </c>
+      <c r="AI31" s="90" t="str">
+        <f>'He Spectrum Database'!H165</f>
+        <v>1s3d</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35" ht="15.95" customHeight="1">
+      <c r="M32" s="153">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4">
+        <f>O18</f>
+        <v>22.449613582280001</v>
+      </c>
+      <c r="O32" s="4">
+        <f>SQRT((STDEV(O$7:O$9,O$12:O$16)/SQRT(8))^2+(0.01)^2)</f>
+        <v>0.1023125463608693</v>
+      </c>
+      <c r="P32" s="177" t="str">
+        <f>'He and Hg Levels'!A10</f>
+        <v xml:space="preserve">1s3s </v>
+      </c>
+      <c r="Q32" s="176"/>
+      <c r="R32" s="82">
+        <f>'He and Hg Levels'!D10</f>
+        <v>22.718465298000002</v>
+      </c>
+      <c r="AC32" s="90">
+        <f>'He Spectrum Database'!B171</f>
+        <v>6678.1517039999999</v>
+      </c>
+      <c r="AD32" s="90">
+        <f>'He Spectrum Database'!C171</f>
+        <v>14970.069743</v>
+      </c>
+      <c r="AE32" s="90">
+        <f>'He Spectrum Database'!D171</f>
+        <v>100</v>
+      </c>
+      <c r="AF32" s="51">
         <f>'He Spectrum Database'!E171</f>
         <v>21.218021673199999</v>
       </c>
-      <c r="AC12" s="51">
+      <c r="AG32" s="51">
         <f>'He Spectrum Database'!F171</f>
         <v>23.07407365281</v>
       </c>
-      <c r="AD12" s="83">
-        <f t="shared" si="2"/>
-        <v>6.6855057993020437E-34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="105">
-        <v>239</v>
-      </c>
-      <c r="D13" s="105">
-        <v>0</v>
-      </c>
-      <c r="E13" s="105">
-        <v>188.5</v>
-      </c>
-      <c r="F13" s="105">
-        <v>0</v>
-      </c>
-      <c r="G13" s="82">
-        <f>C13+(D13/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60))</f>
-        <v>25.283333333333331</v>
-      </c>
-      <c r="H13" s="82">
-        <f>ABS(E13+(F13/60)-('Calc Na'!$C$11+('Calc Na'!$D$11/60)))</f>
-        <v>25.216666666666669</v>
-      </c>
-      <c r="I13" s="82">
-        <f>STDEV(G13:H13)/SQRT(2)</f>
-        <v>3.3333333333331439E-2</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M13" s="82">
-        <v>14.695</v>
-      </c>
-      <c r="N13" s="82">
-        <v>15.565</v>
-      </c>
-      <c r="O13" s="82">
-        <v>17.114999999999998</v>
-      </c>
-      <c r="P13" s="82">
-        <v>18.514999999999901</v>
-      </c>
-      <c r="Q13" s="82">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="R13" s="126">
-        <v>10</v>
-      </c>
-      <c r="S13" s="153">
-        <v>0.9</v>
-      </c>
-      <c r="T13" s="147"/>
-      <c r="U13" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="V13" s="108">
-        <f>E24</f>
-        <v>7073.490932729027</v>
-      </c>
-      <c r="W13" s="108">
-        <f t="shared" si="1"/>
-        <v>4.4710380401716749</v>
-      </c>
-      <c r="X13" s="90">
-        <f>'He Spectrum Database'!A174</f>
-        <v>7065.19</v>
-      </c>
-      <c r="Y13" s="63">
-        <f>(V13-X13)/(X13)</f>
-        <v>1.1749058028202226E-3</v>
-      </c>
-      <c r="Z13" s="158" t="str">
-        <f>'He Spectrum Database'!G174</f>
-        <v>1s2p</v>
-      </c>
-      <c r="AA13" s="158" t="str">
-        <f>'He Spectrum Database'!H174</f>
-        <v>1s3s</v>
-      </c>
-      <c r="AB13" s="51">
-        <f>AB7</f>
-        <v>20.925863582280023</v>
-      </c>
-      <c r="AC13" s="51">
-        <f>'He Spectrum Database'!F174</f>
-        <v>22.718465298000002</v>
-      </c>
-      <c r="AD13" s="83">
-        <f t="shared" si="2"/>
-        <v>6.7718401932382249E-34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="15.95" customHeight="1">
-      <c r="B14" t="s">
-        <v>259</v>
-      </c>
-      <c r="I14" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M14" s="82">
-        <v>14.085000000000001</v>
-      </c>
-      <c r="N14" s="82">
-        <v>15.154999999999999</v>
-      </c>
-      <c r="O14" s="82">
-        <v>16.684999999999999</v>
-      </c>
-      <c r="P14" s="82">
-        <v>18.105</v>
-      </c>
-      <c r="Q14" s="82">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="R14" s="126">
-        <v>10</v>
-      </c>
-      <c r="S14" s="153">
-        <v>1</v>
-      </c>
-      <c r="U14" s="133" t="s">
-        <v>295</v>
-      </c>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="133" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="134"/>
-      <c r="AD14" s="83">
-        <f>AVERAGE(AD7:AD13)</f>
-        <v>6.7050851567785699E-34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="15.95" customHeight="1">
-      <c r="L15" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M15" s="82">
-        <v>14.0649999999999</v>
-      </c>
-      <c r="N15" s="82">
-        <v>15.1349999999999</v>
-      </c>
-      <c r="O15" s="82">
-        <v>16.534999999999901</v>
-      </c>
-      <c r="P15" s="82">
-        <v>18.135000000000002</v>
-      </c>
-      <c r="Q15" s="82">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="R15" s="126">
-        <v>10</v>
-      </c>
-      <c r="S15" s="153">
-        <v>1</v>
-      </c>
-      <c r="U15" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="133" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="109">
-        <f>STDEV(AD7:AD14)</f>
-        <v>5.1450298175833894E-36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="15.95" customHeight="1">
-      <c r="B16" s="162" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="163"/>
-      <c r="L16" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="M16" s="178">
-        <f>AVERAGE(M6:M8,M11:M15)</f>
-        <v>13.934999999999951</v>
-      </c>
-      <c r="N16" s="178">
-        <f t="shared" ref="N16:P16" si="4">AVERAGE(N6:N8,N11:N15)</f>
-        <v>15.041249999999975</v>
-      </c>
-      <c r="O16" s="178">
-        <f t="shared" si="4"/>
-        <v>16.564999999999952</v>
-      </c>
-      <c r="P16" s="178">
-        <f t="shared" si="4"/>
-        <v>18.019999999999975</v>
-      </c>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="164"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="AA16" s="133" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="134"/>
-      <c r="AD16" s="152">
-        <f>6.626E-34</f>
-        <v>6.6259999999999998E-34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:35" ht="15.95" customHeight="1">
-      <c r="B17" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="185" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="185" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="187" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="80"/>
-      <c r="L17" s="126" t="s">
-        <v>261</v>
-      </c>
-      <c r="M17" s="82">
-        <f>M16+$O$1</f>
-        <v>19.819613582279999</v>
-      </c>
-      <c r="N17" s="82">
-        <f>N16+$O$1</f>
-        <v>20.925863582280023</v>
-      </c>
-      <c r="O17" s="82">
-        <f>O16+$O$1</f>
-        <v>22.449613582280001</v>
-      </c>
-      <c r="P17" s="82">
-        <f>P16+$O$1</f>
-        <v>23.904613582280021</v>
-      </c>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="164"/>
-    </row>
-    <row r="18" spans="2:35">
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="82">
-        <f>G7</f>
-        <v>15.666666666666657</v>
-      </c>
-      <c r="D18" s="82">
-        <f>H7</f>
-        <v>15.716666666666669</v>
-      </c>
-      <c r="E18" s="169">
-        <f>(1/2*(SIN(RADIANS(C18))+SIN(RADIANS(D18))))*'Calc Na'!$H$9*10^10</f>
-        <v>4484.856316319604</v>
-      </c>
-      <c r="F18" s="99">
-        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D18))^2+COS(RADIANS(C18))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C18))+SIN(RADIANS(D18)))^2)^(1/2)*10^10</f>
-        <v>3.4560009412750041</v>
-      </c>
-      <c r="I18" t="s">
-        <v>291</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="2:35">
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="82">
-        <f>G8</f>
-        <v>16.550000000000011</v>
-      </c>
-      <c r="D19" s="82">
-        <f>H8</f>
-        <v>16.550000000000011</v>
-      </c>
-      <c r="E19" s="169">
-        <f>(1/2*(SIN(RADIANS(C19))+SIN(RADIANS(D19))))*'Calc Na'!$H$9*10^10</f>
-        <v>4723.5016087649137</v>
-      </c>
-      <c r="F19" s="99">
-        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D19))^2+COS(RADIANS(C19))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C19))+SIN(RADIANS(D19)))^2)^(1/2)*10^10</f>
-        <v>3.5404672469716982</v>
-      </c>
-      <c r="G19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="2:35">
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="82">
-        <f>G9</f>
-        <v>17.283333333333331</v>
-      </c>
-      <c r="D20" s="82">
-        <f>H9</f>
-        <v>17.26666666666668</v>
-      </c>
-      <c r="E20" s="169">
-        <f>(1/2*(SIN(RADIANS(C20))+SIN(RADIANS(D20))))*'Calc Na'!$H$9*10^10</f>
-        <v>4924.2516980720748</v>
-      </c>
-      <c r="F20" s="99">
-        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D20))^2+COS(RADIANS(C20))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C20))+SIN(RADIANS(D20)))^2)^(1/2)*10^10</f>
-        <v>3.613274563245827</v>
-      </c>
-      <c r="L20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="2:35">
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="82">
-        <f>G10</f>
-        <v>17.716666666666669</v>
-      </c>
-      <c r="D21" s="82">
-        <f>H10</f>
-        <v>17.633333333333326</v>
-      </c>
-      <c r="E21" s="169">
-        <f>(1/2*(SIN(RADIANS(C21))+SIN(RADIANS(D21))))*'Calc Na'!$H$9*10^10</f>
-        <v>5034.6736700246829</v>
-      </c>
-      <c r="F21" s="99">
-        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D21))^2+COS(RADIANS(C21))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C21))+SIN(RADIANS(D21)))^2)^(1/2)*10^10</f>
-        <v>3.6539676255133147</v>
-      </c>
-      <c r="L21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:35">
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="82">
-        <f>G11</f>
-        <v>20.783333333333331</v>
-      </c>
-      <c r="D22" s="82">
-        <f>H11</f>
-        <v>20.783333333333331</v>
-      </c>
-      <c r="E22" s="169">
-        <f>(1/2*(SIN(RADIANS(C22))+SIN(RADIANS(D22))))*'Calc Na'!$H$9*10^10</f>
-        <v>5883.9818058411656</v>
-      </c>
-      <c r="F22" s="99">
-        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D22))^2+COS(RADIANS(C22))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C22))+SIN(RADIANS(D22)))^2)^(1/2)*10^10</f>
-        <v>3.9806128178250191</v>
-      </c>
-      <c r="H22" s="118"/>
-      <c r="V22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="2:35">
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="82">
-        <f>G12</f>
-        <v>23.783333333333331</v>
-      </c>
-      <c r="D23" s="82">
-        <f>H12</f>
-        <v>24.216666666666669</v>
-      </c>
-      <c r="E23" s="169">
-        <f>(1/2*(SIN(RADIANS(C23))+SIN(RADIANS(D23))))*'Calc Na'!$H$9*10^10</f>
-        <v>6744.5820651297681</v>
-      </c>
-      <c r="F23" s="99">
-        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D23))^2+COS(RADIANS(C23))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C23))+SIN(RADIANS(D23)))^2)^(1/2)*10^10</f>
-        <v>4.332191663168004</v>
-      </c>
-      <c r="V23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="2:35">
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="82">
-        <f>G13</f>
-        <v>25.283333333333331</v>
-      </c>
-      <c r="D24" s="82">
-        <f>H13</f>
-        <v>25.216666666666669</v>
-      </c>
-      <c r="E24" s="169">
-        <f>(1/2*(SIN(RADIANS(C24))+SIN(RADIANS(D24))))*'Calc Na'!$H$9*10^10</f>
-        <v>7073.490932729027</v>
-      </c>
-      <c r="F24" s="99">
-        <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D24))^2+COS(RADIANS(C24))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C24))+SIN(RADIANS(D24)))^2)^(1/2)*10^10</f>
-        <v>4.4710380401716749</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="2:35">
-      <c r="M25" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="2:35" ht="15.95" customHeight="1">
-      <c r="C26" s="174" t="s">
-        <v>298</v>
-      </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="134"/>
-      <c r="AC26" s="90">
-        <f>'He Spectrum Database'!B148</f>
-        <v>4471.4740693000003</v>
-      </c>
-      <c r="AD26" s="90">
-        <f>'He Spectrum Database'!C148</f>
-        <v>22357.715658199999</v>
-      </c>
-      <c r="AE26" s="90" t="str">
-        <f>'He Spectrum Database'!D148</f>
-        <v>200*</v>
-      </c>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51">
-        <f>'He Spectrum Database'!F148</f>
-        <v>23.736089152750001</v>
-      </c>
-      <c r="AH26" s="90" t="str">
-        <f>'He Spectrum Database'!G148</f>
-        <v>1s2p</v>
-      </c>
-      <c r="AI26" s="90" t="str">
-        <f>'He Spectrum Database'!H148</f>
-        <v>1s4d</v>
-      </c>
-    </row>
-    <row r="27" spans="2:35" ht="15.95" customHeight="1">
-      <c r="C27" s="137" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="133" t="s">
-        <v>252</v>
-      </c>
-      <c r="G27" s="135"/>
-      <c r="H27" s="134"/>
-      <c r="AC27" s="90">
-        <f>'He Spectrum Database'!B153</f>
-        <v>4713.1391640000002</v>
-      </c>
-      <c r="AD27" s="90">
-        <f>'He Spectrum Database'!C153</f>
-        <v>21211.346787999999</v>
-      </c>
-      <c r="AE27" s="90" t="str">
-        <f>'He Spectrum Database'!D153</f>
-        <v>30*</v>
-      </c>
-      <c r="AF27" s="51">
-        <f>'He Spectrum Database'!E153</f>
-        <v>20.96408587426</v>
-      </c>
-      <c r="AG27" s="51">
-        <f>'He Spectrum Database'!F153</f>
-        <v>23.593957536200001</v>
-      </c>
-      <c r="AH27" s="90" t="str">
-        <f>'He Spectrum Database'!G153</f>
-        <v>1s2p</v>
-      </c>
-      <c r="AI27" s="90" t="str">
-        <f>'He Spectrum Database'!H153</f>
-        <v>1s4s</v>
-      </c>
-    </row>
-    <row r="28" spans="2:35" ht="15.95" customHeight="1">
-      <c r="B28" s="122"/>
-      <c r="C28" s="127" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="127" t="s">
-        <v>297</v>
-      </c>
-      <c r="E28" s="126" t="s">
-        <v>299</v>
-      </c>
-      <c r="F28" s="133" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="134"/>
-      <c r="H28" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC28" s="90">
-        <f>'He Spectrum Database'!B158</f>
-        <v>4921.9310127999997</v>
-      </c>
-      <c r="AD28" s="90">
-        <f>'He Spectrum Database'!C158</f>
-        <v>20311.558795000001</v>
-      </c>
-      <c r="AE28" s="90">
-        <f>'He Spectrum Database'!D158</f>
-        <v>20</v>
-      </c>
-      <c r="AF28" s="51">
-        <f>'He Spectrum Database'!E158</f>
-        <v>21.218021673199999</v>
-      </c>
-      <c r="AG28" s="51" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH28" s="90" t="str">
-        <f>'He Spectrum Database'!G158</f>
-        <v>1s2p</v>
-      </c>
-      <c r="AI28" s="90" t="str">
-        <f>'He Spectrum Database'!H158</f>
-        <v>1s4d</v>
-      </c>
-    </row>
-    <row r="29" spans="2:35" ht="15.95" customHeight="1">
-      <c r="C29" s="188">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <f>M17</f>
-        <v>19.819613582279999</v>
-      </c>
-      <c r="E29" s="4">
-        <f>SQRT((STDEV(M$6:M$8,M$11:M$15)/SQRT(8))^2+(0.01)^2)</f>
-        <v>0.14501231474798207</v>
-      </c>
-      <c r="F29" s="162" t="str">
-        <f>'He and Hg Levels'!A4</f>
-        <v xml:space="preserve">1s2s </v>
-      </c>
-      <c r="G29" s="163"/>
-      <c r="H29" s="120">
-        <f>'He and Hg Levels'!D4</f>
-        <v>19.819613582279999</v>
-      </c>
-      <c r="AC29" s="90">
-        <f>'He Spectrum Database'!B159</f>
-        <v>5015.6779809999998</v>
-      </c>
-      <c r="AD29" s="90">
-        <f>'He Spectrum Database'!C159</f>
-        <v>19931.924799</v>
-      </c>
-      <c r="AE29" s="90">
-        <f>'He Spectrum Database'!D159</f>
-        <v>100</v>
-      </c>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51">
-        <f>'He Spectrum Database'!F159</f>
-        <v>23.087017385399999</v>
-      </c>
-      <c r="AH29" s="90" t="str">
-        <f>'He Spectrum Database'!G159</f>
-        <v>1s2s</v>
-      </c>
-      <c r="AI29" s="90" t="str">
-        <f>'He Spectrum Database'!H159</f>
-        <v>1s3p</v>
-      </c>
-    </row>
-    <row r="30" spans="2:35" ht="15.95" customHeight="1">
-      <c r="C30" s="188">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4">
-        <f>N17</f>
-        <v>20.925863582280023</v>
-      </c>
-      <c r="E30" s="4">
-        <f>SQRT((STDEV(N$6:N$8,N$11:N$15)/SQRT(8))^2+(0.01)^2)</f>
-        <v>0.1028337336953077</v>
-      </c>
-      <c r="F30" s="133" t="str">
-        <f>'He and Hg Levels'!A6</f>
-        <v xml:space="preserve">1s2p </v>
-      </c>
-      <c r="G30" s="134"/>
-      <c r="H30" s="82">
-        <f>AVERAGE('He and Hg Levels'!D6:D8)</f>
-        <v>20.964133019913334</v>
-      </c>
-      <c r="AC30" s="90">
-        <f>'He Spectrum Database'!B165</f>
-        <v>5875.6139604999998</v>
-      </c>
-      <c r="AD30" s="90">
-        <f>'He Spectrum Database'!C165</f>
-        <v>17014.782216600001</v>
-      </c>
-      <c r="AE30" s="90" t="str">
-        <f>'He Spectrum Database'!D165</f>
-        <v>500*</v>
-      </c>
-      <c r="AF30" s="51">
-        <f>'He Spectrum Database'!E165</f>
-        <v>20.96408587426</v>
-      </c>
-      <c r="AG30" s="51">
-        <f>'He Spectrum Database'!F165</f>
-        <v>23.073649874819999</v>
-      </c>
-      <c r="AH30" s="90" t="str">
-        <f>'He Spectrum Database'!G165</f>
-        <v>1s2p</v>
-      </c>
-      <c r="AI30" s="90" t="str">
-        <f>'He Spectrum Database'!H165</f>
-        <v>1s3d</v>
-      </c>
-    </row>
-    <row r="31" spans="2:35" ht="15.95" customHeight="1">
-      <c r="C31" s="188">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4">
-        <f>O17</f>
-        <v>22.449613582280001</v>
-      </c>
-      <c r="E31" s="4">
-        <f>SQRT((STDEV(O$6:O$8,O$11:O$15)/SQRT(8))^2+(0.01)^2)</f>
-        <v>0.1023125463608693</v>
-      </c>
-      <c r="F31" s="133" t="str">
-        <f>'He and Hg Levels'!A10</f>
-        <v xml:space="preserve">1s3s </v>
-      </c>
-      <c r="G31" s="134"/>
-      <c r="H31" s="82">
-        <f>'He and Hg Levels'!D10</f>
-        <v>22.718465298000002</v>
-      </c>
-      <c r="AC31" s="90">
-        <f>'He Spectrum Database'!B171</f>
-        <v>6678.1517039999999</v>
-      </c>
-      <c r="AD31" s="90">
-        <f>'He Spectrum Database'!C171</f>
-        <v>14970.069743</v>
-      </c>
-      <c r="AE31" s="90">
-        <f>'He Spectrum Database'!D171</f>
-        <v>100</v>
-      </c>
-      <c r="AF31" s="51">
-        <f>'He Spectrum Database'!E171</f>
-        <v>21.218021673199999</v>
-      </c>
-      <c r="AG31" s="51">
-        <f>'He Spectrum Database'!F171</f>
-        <v>23.07407365281</v>
-      </c>
-      <c r="AH31" s="90" t="str">
+      <c r="AH32" s="90" t="str">
         <f>'He Spectrum Database'!G171</f>
         <v>1s2p</v>
       </c>
-      <c r="AI31" s="90" t="str">
+      <c r="AI32" s="90" t="str">
         <f>'He Spectrum Database'!H171</f>
         <v>1s3d</v>
       </c>
     </row>
-    <row r="32" spans="2:35" ht="15.95" customHeight="1">
-      <c r="C32" s="188">
+    <row r="33" spans="12:35" ht="15.95" customHeight="1">
+      <c r="L33" s="1"/>
+      <c r="M33" s="153">
         <v>4</v>
       </c>
-      <c r="D32" s="4">
-        <f>P17</f>
+      <c r="N33" s="4">
+        <f>P18</f>
         <v>23.904613582280021</v>
       </c>
-      <c r="E32" s="4">
-        <f>SQRT((STDEV(P$6:P$8,P$11:P$15)/SQRT(8))^2+(0.01)^2)</f>
+      <c r="O33" s="4">
+        <f>SQRT((STDEV(P$7:P$9,P$12:P$16)/SQRT(8))^2+(0.01)^2)</f>
         <v>9.8470445167224946E-2</v>
       </c>
-      <c r="F32" s="133" t="str">
+      <c r="P33" s="177" t="str">
         <f>'He and Hg Levels'!A34</f>
         <v xml:space="preserve">1s5s </v>
       </c>
-      <c r="G32" s="134"/>
-      <c r="H32" s="82">
+      <c r="Q33" s="176"/>
+      <c r="R33" s="82">
         <f>'He and Hg Levels'!D34</f>
         <v>23.971970217599999</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AC32" s="90">
-        <f>'He Spectrum Database'!B174</f>
-        <v>7065.2152999999998</v>
-      </c>
-      <c r="AD32" s="90">
-        <f>'He Spectrum Database'!C174</f>
-        <v>14149.9488</v>
-      </c>
-      <c r="AE32" s="90" t="str">
-        <f>'He Spectrum Database'!D174</f>
-        <v>200*</v>
-      </c>
-      <c r="AF32" s="51">
-        <f>'He Spectrum Database'!E174</f>
-        <v>20.964095349809998</v>
-      </c>
-      <c r="AG32" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH32" s="90" t="str">
-        <f>'He Spectrum Database'!G174</f>
-        <v>1s2p</v>
-      </c>
-      <c r="AI32" s="90" t="str">
-        <f>'He Spectrum Database'!H174</f>
-        <v>1s3s</v>
-      </c>
-    </row>
-    <row r="33" spans="12:26">
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
+      <c r="AC33" s="90">
+        <f>'He Spectrum Database'!B174</f>
+        <v>7065.2152999999998</v>
+      </c>
+      <c r="AD33" s="90">
+        <f>'He Spectrum Database'!C174</f>
+        <v>14149.9488</v>
+      </c>
+      <c r="AE33" s="90" t="str">
+        <f>'He Spectrum Database'!D174</f>
+        <v>200*</v>
+      </c>
+      <c r="AF33" s="51">
+        <f>'He Spectrum Database'!E174</f>
+        <v>20.964095349809998</v>
+      </c>
+      <c r="AG33" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH33" s="90" t="str">
+        <f>'He Spectrum Database'!G174</f>
+        <v>1s2p</v>
+      </c>
+      <c r="AI33" s="90" t="str">
+        <f>'He Spectrum Database'!H174</f>
+        <v>1s3s</v>
+      </c>
+    </row>
+    <row r="34" spans="12:35" ht="17.25" customHeight="1">
+      <c r="L34" s="1"/>
+      <c r="M34" s="201" t="s">
+        <v>304</v>
+      </c>
+      <c r="N34" s="200"/>
+      <c r="O34" s="200"/>
+      <c r="P34" s="200"/>
+      <c r="Q34" s="200"/>
+      <c r="R34" s="202"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="12:35">
+      <c r="M35" s="203"/>
+      <c r="N35" s="204"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="204"/>
+      <c r="R35" s="205"/>
     </row>
   </sheetData>
   <sortState ref="L5:P14">
     <sortCondition ref="L5:L14"/>
   </sortState>
-  <mergeCells count="28">
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="L4:P4"/>
+  <mergeCells count="29">
+    <mergeCell ref="M34:R35"/>
+    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="AA17:AC17"/>
     <mergeCell ref="AA16:AC16"/>
     <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="U14:Z14"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U4:AD4"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="U16:Z16"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="L5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M16:P16 H30" formulaRange="1"/>
+    <ignoredError sqref="M17:P17" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6146,14 +6344,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
       <c r="L1" s="64" t="s">
         <v>110</v>
       </c>
@@ -6191,50 +6389,50 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="190" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="190"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="144" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="189" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="141" t="s">
+      <c r="F8" s="189"/>
+      <c r="G8" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="141"/>
-      <c r="I8" s="142" t="s">
+      <c r="H8" s="188"/>
+      <c r="I8" s="189" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="142"/>
-      <c r="K8" s="143" t="s">
+      <c r="J8" s="189"/>
+      <c r="K8" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="143"/>
-      <c r="M8" s="141" t="s">
+      <c r="L8" s="186"/>
+      <c r="M8" s="188" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6245,25 +6443,25 @@
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="141"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="188"/>
       <c r="E9" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
       <c r="K9" s="12" t="s">
         <v>81</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="141"/>
+      <c r="M9" s="188"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="48">
@@ -7451,33 +7649,33 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="143" t="s">
+      <c r="A40" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="143"/>
-      <c r="C40" s="144" t="s">
+      <c r="B40" s="186"/>
+      <c r="C40" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="141" t="s">
+      <c r="D40" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="142" t="s">
+      <c r="E40" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="142"/>
-      <c r="G40" s="141" t="s">
+      <c r="F40" s="189"/>
+      <c r="G40" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="141"/>
-      <c r="I40" s="142" t="s">
+      <c r="H40" s="188"/>
+      <c r="I40" s="189" t="s">
         <v>90</v>
       </c>
-      <c r="J40" s="142"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="189"/>
+      <c r="K40" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="143"/>
-      <c r="M40" s="141" t="s">
+      <c r="L40" s="186"/>
+      <c r="M40" s="188" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7488,25 +7686,25 @@
       <c r="B41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="144"/>
-      <c r="D41" s="141"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="188"/>
       <c r="E41" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="189"/>
       <c r="K41" s="12" t="s">
         <v>81</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M41" s="141"/>
+      <c r="M41" s="188"/>
     </row>
     <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="14">
@@ -12632,16 +12830,16 @@
         <v>15074.467994000001</v>
       </c>
       <c r="D170" s="34"/>
-      <c r="E170" s="154">
+      <c r="E170" s="136">
         <v>21.218021673199999</v>
       </c>
-      <c r="F170" s="154">
+      <c r="F170" s="136">
         <v>23.087017385399999</v>
       </c>
-      <c r="G170" s="155" t="s">
+      <c r="G170" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="H170" s="155" t="s">
+      <c r="H170" s="137" t="s">
         <v>45</v>
       </c>
       <c r="I170" s="35" t="s">
@@ -12673,16 +12871,16 @@
       <c r="D171" s="34">
         <v>100</v>
       </c>
-      <c r="E171" s="154">
+      <c r="E171" s="136">
         <v>21.218021673199999</v>
       </c>
-      <c r="F171" s="154">
+      <c r="F171" s="136">
         <v>23.07407365281</v>
       </c>
-      <c r="G171" s="155" t="s">
+      <c r="G171" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="H171" s="155" t="s">
+      <c r="H171" s="137" t="s">
         <v>46</v>
       </c>
       <c r="I171" s="35" t="s">
@@ -12710,16 +12908,16 @@
         <v>14966.651743</v>
       </c>
       <c r="D172" s="34"/>
-      <c r="E172" s="154">
+      <c r="E172" s="136">
         <v>21.218021673199999</v>
       </c>
-      <c r="F172" s="154">
+      <c r="F172" s="136">
         <v>23.073649874819999</v>
       </c>
-      <c r="G172" s="155" t="s">
+      <c r="G172" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="H172" s="155" t="s">
+      <c r="H172" s="137" t="s">
         <v>46</v>
       </c>
       <c r="I172" s="35" t="s">
@@ -13237,6 +13435,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:C41"/>
@@ -13253,8 +13453,6 @@
     <mergeCell ref="G40:H41"/>
     <mergeCell ref="G8:H9"/>
     <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13282,56 +13480,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="191" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="188" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="189" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="141" t="s">
+      <c r="D2" s="189"/>
+      <c r="E2" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142" t="s">
+      <c r="F2" s="188"/>
+      <c r="G2" s="189" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="143" t="s">
+      <c r="H2" s="189"/>
+      <c r="I2" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="143"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="188"/>
       <c r="C3" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
       <c r="I3" s="12" t="s">
         <v>81</v>
       </c>
@@ -14587,7 +14785,7 @@
         <v>187</v>
       </c>
       <c r="L42" s="67" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:12">

--- a/FranckHertz/HeliumNeon/HE and Na Spectrum.xlsx
+++ b/FranckHertz/HeliumNeon/HE and Na Spectrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-990" yWindow="-60" windowWidth="15600" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="-150" yWindow="-60" windowWidth="20730" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calc Na" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="maximums." localSheetId="2">'He 2'!#REF!</definedName>
-    <definedName name="minimums._1" localSheetId="2">'He 2'!$L$7:$P$16</definedName>
+    <definedName name="minimums._1" localSheetId="2">'He 2'!$L$8:$P$17</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="306">
   <si>
     <t>deviation</t>
   </si>
@@ -743,9 +743,6 @@
   </si>
   <si>
     <t>&lt;--- can till this is the double slit due to Relative Intensity</t>
-  </si>
-  <si>
-    <t>Part 4 Observations</t>
   </si>
   <si>
     <t>Part 3 + Part 4 Calculating Planck's constant</t>
@@ -1580,6 +1577,12 @@
       </rPr>
       <t>19.82 eV</t>
     </r>
+  </si>
+  <si>
+    <t>Part 4: Observations</t>
+  </si>
+  <si>
+    <t>Part 3: Measured Energy Levels</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +1962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2205,9 +2208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2229,7 +2229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2251,15 +2250,11 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2362,9 +2357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2427,6 +2419,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2752,17 +2756,17 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="47"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="155"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="1" t="s">
         <v>200</v>
       </c>
@@ -2776,34 +2780,34 @@
       <c r="K4" s="1"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="161"/>
       <c r="J6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18">
-      <c r="A7" s="159" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160" t="s">
+      <c r="A7" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="160"/>
-      <c r="E7" s="125" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="156" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="156"/>
+      <c r="E7" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="124" t="s">
         <v>257</v>
-      </c>
-      <c r="F7" s="125" t="s">
-        <v>258</v>
       </c>
       <c r="G7" s="89" t="s">
         <v>0</v>
@@ -2811,19 +2815,19 @@
       <c r="H7" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="155" t="s">
+      <c r="J7" s="151" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="116"/>
       <c r="O7" s="116"/>
-      <c r="Q7" s="155" t="s">
-        <v>275</v>
-      </c>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="155"/>
+      <c r="Q7" s="151" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="89" t="s">
@@ -2850,10 +2854,10 @@
       <c r="H8" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="J8" s="155"/>
+      <c r="J8" s="151"/>
       <c r="M8" s="5"/>
       <c r="Q8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -2889,12 +2893,12 @@
         <v>2</v>
       </c>
       <c r="K9" s="122"/>
-      <c r="L9" s="161" t="s">
-        <v>260</v>
-      </c>
-      <c r="M9" s="162"/>
+      <c r="L9" s="157" t="s">
+        <v>259</v>
+      </c>
+      <c r="M9" s="158"/>
       <c r="Q9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S9" s="116">
         <f>RADIANS(1/60)</f>
@@ -2942,19 +2946,19 @@
         <v>1.3089969389955486E-3</v>
       </c>
       <c r="Q10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S10" s="116">
         <f xml:space="preserve">  1/2*($S$9^2*(5893*10^-10)^2*(COS(RADIANS(F9))^2+COS(RADIANS(E9))^2)/(1/2*SIN(RADIANS(E9))+1/2*SIN(RADIANS(F9)))^4)^(1/2)</f>
         <v>8.9711265398650818E-10</v>
       </c>
       <c r="T10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="3"/>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
       <c r="C11" s="107">
@@ -2963,11 +2967,11 @@
       <c r="D11" s="107">
         <v>13</v>
       </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="160" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="160"/>
+      <c r="G11" s="156"/>
       <c r="H11" s="114">
         <f>AVERAGE(H9:H10)</f>
         <v>1.2428167513406039E-6</v>
@@ -2982,107 +2986,107 @@
       <c r="S11" s="116"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="149"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="160" t="s">
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="156" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="160"/>
+      <c r="G12" s="156"/>
       <c r="H12" s="115">
         <f>STDEV(H9:H10)/SQRT(2)</f>
         <v>4.1541355672734149E-7</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="148" t="s">
-        <v>295</v>
+      <c r="L12" s="144" t="s">
+        <v>294</v>
       </c>
       <c r="M12" s="99">
         <f>AVERAGE(G17:G18)</f>
         <v>5.4978079672715552</v>
       </c>
-      <c r="Q12" s="155" t="s">
-        <v>259</v>
-      </c>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
+      <c r="Q12" s="151" t="s">
+        <v>258</v>
+      </c>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
     </row>
     <row r="13" spans="1:22" ht="14.25" customHeight="1">
-      <c r="L13" s="148" t="s">
-        <v>296</v>
+      <c r="L13" s="144" t="s">
+        <v>295</v>
       </c>
       <c r="M13" s="99">
         <f>STDEV(G17:G18)</f>
         <v>1.7790688299436936</v>
       </c>
       <c r="Q13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
       <c r="L14" s="100" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M14" s="104">
         <f>'Na Spectrum Database'!A43-'Na Spectrum Database'!A42</f>
         <v>5.973283000000265</v>
       </c>
-      <c r="Q14" s="155" t="s">
-        <v>279</v>
-      </c>
-      <c r="R14" s="155"/>
+      <c r="Q14" s="151" t="s">
+        <v>278</v>
+      </c>
+      <c r="R14" s="151"/>
       <c r="S14" s="117">
         <f>SQRT(1/4*$S$9^2*H9^2*SIN(RADIANS(E17))^2*F17^2+1/4*(SQRT(2)*$S$9)^2*H9^2*COS(RADIANS(E17))^2+1/4*($S$10)^2*COS(RADIANS(E17))^2*F17^2)*10^10</f>
         <v>2.3885394916019691</v>
       </c>
       <c r="T14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158" t="s">
+      <c r="D15" s="154"/>
+      <c r="E15" s="91" t="s">
         <v>262</v>
-      </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="91" t="s">
-        <v>263</v>
       </c>
       <c r="F15" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="G15" s="157" t="s">
+      <c r="G15" s="153" t="s">
         <v>207</v>
       </c>
       <c r="H15" t="s">
         <v>208</v>
       </c>
-      <c r="Q15" s="155" t="s">
-        <v>278</v>
-      </c>
-      <c r="R15" s="155"/>
+      <c r="Q15" s="151" t="s">
+        <v>277</v>
+      </c>
+      <c r="R15" s="151"/>
       <c r="S15" s="117">
         <f>SQRT(1/4*$S$9^2*H10^2*SIN(RADIANS(E18))^2*F18^2+1/4*(SQRT(2)*$S$9)^2*H10^2*COS(RADIANS(E18))^2+1/4*($S$10)^2*COS(RADIANS(E18))^2*F18^2)*10^10</f>
         <v>1.1992106063468084</v>
       </c>
       <c r="T15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -3104,23 +3108,23 @@
       <c r="F16" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="157"/>
-      <c r="L16" s="166" t="s">
-        <v>266</v>
-      </c>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="Q16" s="155" t="s">
-        <v>280</v>
-      </c>
-      <c r="R16" s="155"/>
+      <c r="G16" s="153"/>
+      <c r="L16" s="162" t="s">
+        <v>265</v>
+      </c>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="Q16" s="151" t="s">
+        <v>279</v>
+      </c>
+      <c r="R16" s="151"/>
       <c r="S16" s="117">
         <f>AVERAGE(S14:S15)</f>
         <v>1.7938750489743889</v>
       </c>
       <c r="T16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1">
@@ -3148,10 +3152,10 @@
         <f>1*10^10*H9/(2)*COS(RADIANS(E17))*F17</f>
         <v>6.7557996011223551</v>
       </c>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3">
@@ -3182,7 +3186,7 @@
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
       <c r="L18" s="103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -3190,36 +3194,36 @@
       <c r="I19" s="101"/>
       <c r="J19" s="101"/>
       <c r="K19" s="101"/>
-      <c r="L19" s="154" t="s">
-        <v>298</v>
-      </c>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
+      <c r="L19" s="150" t="s">
+        <v>297</v>
+      </c>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1">
       <c r="B20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I20" s="101"/>
       <c r="J20" s="101"/>
       <c r="K20" s="101"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
     </row>
     <row r="21" spans="1:16">
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
       <c r="K21" s="102"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
     </row>
     <row r="22" spans="1:16">
       <c r="J22" s="101"/>
@@ -3270,20 +3274,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="151" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="167" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="168" t="s">
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="164" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3297,7 +3301,7 @@
       <c r="C2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="167"/>
+      <c r="D2" s="163"/>
       <c r="G2" t="s">
         <v>154</v>
       </c>
@@ -3307,7 +3311,7 @@
       <c r="I2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -3646,10 +3650,10 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="165" t="s">
         <v>123</v>
       </c>
       <c r="C15">
@@ -3672,8 +3676,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="165"/>
       <c r="C16">
         <v>2</v>
       </c>
@@ -3694,8 +3698,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="169"/>
-      <c r="B17" s="169"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="165"/>
       <c r="C17">
         <v>1</v>
       </c>
@@ -3835,10 +3839,10 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="165" t="s">
         <v>118</v>
       </c>
       <c r="C22">
@@ -3849,8 +3853,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="169"/>
-      <c r="B23" s="169"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="165"/>
       <c r="C23">
         <v>1</v>
       </c>
@@ -3859,8 +3863,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="169"/>
-      <c r="B24" s="169"/>
+      <c r="A24" s="165"/>
+      <c r="B24" s="165"/>
       <c r="C24">
         <v>0</v>
       </c>
@@ -3872,10 +3876,10 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="165" t="s">
         <v>123</v>
       </c>
       <c r="C25">
@@ -3886,8 +3890,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="169"/>
-      <c r="B26" s="169"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="165"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -3896,8 +3900,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="169"/>
-      <c r="B27" s="169"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="165"/>
       <c r="C27">
         <v>1</v>
       </c>
@@ -3926,10 +3930,10 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="165" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="165" t="s">
         <v>129</v>
       </c>
       <c r="C29">
@@ -3940,8 +3944,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="169"/>
-      <c r="B30" s="169"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="165"/>
       <c r="C30">
         <v>4</v>
       </c>
@@ -3950,8 +3954,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="169"/>
-      <c r="B31" s="169"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="165"/>
       <c r="C31">
         <v>2</v>
       </c>
@@ -4634,10 +4638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4657,17 +4661,17 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="B1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="119">
+        <f>R31-M18</f>
+        <v>5.884613582280048</v>
+      </c>
+      <c r="P1" t="s">
         <v>249</v>
-      </c>
-      <c r="O1" s="119">
-        <f>R30-M17</f>
-        <v>5.884613582280048</v>
-      </c>
-      <c r="P1" t="s">
-        <v>250</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
@@ -4678,34 +4682,34 @@
     </row>
     <row r="2" spans="1:32">
       <c r="B2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="142">
+      <c r="D2" s="139">
         <f>0.5/60</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T2" s="101"/>
       <c r="U2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y2" t="s">
         <v>291</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="B3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="6"/>
       <c r="M3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T3" s="101"/>
     </row>
@@ -4715,169 +4719,154 @@
       <c r="T4" s="101"/>
     </row>
     <row r="5" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A5" s="177" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="176"/>
-      <c r="L5" s="172" t="s">
-        <v>252</v>
-      </c>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="170" t="s">
+      <c r="A5" s="173" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="172"/>
+      <c r="L5" s="177" t="s">
+        <v>305</v>
+      </c>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="V5" s="204"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="204"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="158"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.95" customHeight="1">
+      <c r="A6" s="167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="178" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="179"/>
+      <c r="E6" s="180" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="180"/>
+      <c r="G6" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="142"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="168" t="s">
+        <v>251</v>
+      </c>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="166" t="s">
+        <v>246</v>
+      </c>
+      <c r="R6" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="R5" s="170" t="s">
-        <v>248</v>
-      </c>
-      <c r="S5" s="170" t="s">
-        <v>251</v>
-      </c>
-      <c r="T5" s="102"/>
-      <c r="U5" s="177" t="s">
-        <v>215</v>
-      </c>
-      <c r="V5" s="175"/>
-      <c r="W5" s="175"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="176"/>
-    </row>
-    <row r="6" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A6" s="171" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="171" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="183" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="184"/>
-      <c r="E6" s="185" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="185"/>
-      <c r="G6" s="143" t="s">
-        <v>257</v>
-      </c>
-      <c r="H6" s="143" t="s">
-        <v>258</v>
-      </c>
-      <c r="I6" s="127" t="s">
-        <v>216</v>
-      </c>
-      <c r="J6" s="146"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="M6" s="126">
-        <v>1</v>
-      </c>
-      <c r="N6" s="126">
-        <v>2</v>
-      </c>
-      <c r="O6" s="126">
-        <v>3</v>
-      </c>
-      <c r="P6" s="126">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="160" t="str">
+      <c r="S6" s="166" t="s">
+        <v>250</v>
+      </c>
+      <c r="T6" s="129"/>
+      <c r="U6" s="156" t="str">
         <f>B18</f>
         <v>Color</v>
       </c>
-      <c r="V6" s="159" t="s">
+      <c r="V6" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="177" t="s">
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="155"/>
+      <c r="Z6" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="180" t="s">
-        <v>241</v>
+      <c r="AA6" s="171"/>
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="176" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A7" s="171"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="125" t="s">
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="125" t="s">
+      <c r="F7" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="147"/>
-      <c r="L7" s="128" t="s">
-        <v>225</v>
-      </c>
-      <c r="M7" s="82">
-        <v>13.574999999999999</v>
-      </c>
-      <c r="N7" s="82">
-        <v>14.725</v>
-      </c>
-      <c r="O7" s="82">
-        <v>16.2549999999999</v>
-      </c>
-      <c r="P7" s="82">
-        <v>17.695</v>
-      </c>
-      <c r="Q7" s="82">
-        <f>10^-1</f>
-        <v>0.1</v>
-      </c>
-      <c r="R7" s="126">
-        <v>25</v>
-      </c>
-      <c r="S7" s="135">
-        <v>1</v>
-      </c>
-      <c r="T7" s="130"/>
-      <c r="U7" s="160"/>
+      <c r="J7" s="143"/>
+      <c r="L7" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="127">
+        <v>1</v>
+      </c>
+      <c r="N7" s="127">
+        <v>2</v>
+      </c>
+      <c r="O7" s="127">
+        <v>3</v>
+      </c>
+      <c r="P7" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="156"/>
       <c r="V7" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="W7" s="126" t="s">
-        <v>286</v>
+      <c r="W7" s="125" t="s">
+        <v>285</v>
       </c>
       <c r="X7" s="50" t="s">
         <v>9</v>
@@ -4897,7 +4886,7 @@
       <c r="AC7" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="AD7" s="158"/>
+      <c r="AD7" s="154"/>
     </row>
     <row r="8" spans="1:32" ht="15.95" customHeight="1">
       <c r="A8" s="3">
@@ -4930,32 +4919,32 @@
         <f t="shared" ref="I8:I14" si="0">STDEV(G8:H8)/SQRT(2)</f>
         <v>2.5000000000005681E-2</v>
       </c>
-      <c r="L8" s="128" t="s">
-        <v>223</v>
+      <c r="L8" s="127" t="s">
+        <v>224</v>
       </c>
       <c r="M8" s="82">
-        <v>14.0649999999999</v>
+        <v>13.574999999999999</v>
       </c>
       <c r="N8" s="82">
-        <v>15.145</v>
+        <v>14.725</v>
       </c>
       <c r="O8" s="82">
-        <v>16.675000000000001</v>
+        <v>16.2549999999999</v>
       </c>
       <c r="P8" s="82">
-        <v>18.105</v>
+        <v>17.695</v>
       </c>
       <c r="Q8" s="82">
-        <f t="shared" ref="Q8:Q9" si="1">10^-1</f>
+        <f>10^-1</f>
         <v>0.1</v>
       </c>
-      <c r="R8" s="126">
+      <c r="R8" s="127">
         <v>25</v>
       </c>
-      <c r="S8" s="135">
-        <v>1</v>
-      </c>
-      <c r="T8" s="130"/>
+      <c r="S8" s="133">
+        <v>1</v>
+      </c>
+      <c r="T8" s="129"/>
       <c r="U8" s="107" t="s">
         <v>8</v>
       </c>
@@ -4972,18 +4961,18 @@
         <v>4471.4802</v>
       </c>
       <c r="Y8" s="63">
-        <f t="shared" ref="Y8:Y14" si="2">(V8-X8)/(X8)</f>
+        <f t="shared" ref="Y8:Y14" si="1">(V8-X8)/(X8)</f>
         <v>2.9914291736333931E-3</v>
       </c>
-      <c r="Z8" s="138" t="str">
+      <c r="Z8" s="136" t="str">
         <f>'He Spectrum Database'!G148</f>
         <v>1s2p</v>
       </c>
-      <c r="AA8" s="139" t="s">
-        <v>300</v>
+      <c r="AA8" s="137" t="s">
+        <v>299</v>
       </c>
       <c r="AB8" s="4">
-        <f>N31</f>
+        <f>N32</f>
         <v>20.925863582280023</v>
       </c>
       <c r="AC8" s="82">
@@ -4995,7 +4984,7 @@
         <v>6.7309878539964246E-34</v>
       </c>
       <c r="AF8">
-        <f>AD8*SQRT((F19/E19)^2+(O30/N30)^2)</f>
+        <f>AD8*SQRT((F19/E19)^2+(O31/N31)^2)</f>
         <v>4.9520379388906225E-36</v>
       </c>
     </row>
@@ -5030,32 +5019,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="128" t="s">
-        <v>224</v>
+      <c r="L9" s="127" t="s">
+        <v>222</v>
       </c>
       <c r="M9" s="82">
-        <v>13.9949999999999</v>
+        <v>14.0649999999999</v>
       </c>
       <c r="N9" s="82">
-        <v>15.104999999999899</v>
+        <v>15.145</v>
       </c>
       <c r="O9" s="82">
-        <v>16.654999999999902</v>
+        <v>16.675000000000001</v>
       </c>
       <c r="P9" s="82">
         <v>18.105</v>
       </c>
       <c r="Q9" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q9:Q10" si="2">10^-1</f>
         <v>0.1</v>
       </c>
-      <c r="R9" s="126">
-        <v>10</v>
-      </c>
-      <c r="S9" s="135">
-        <v>1</v>
-      </c>
-      <c r="T9" s="130"/>
+      <c r="R9" s="127">
+        <v>25</v>
+      </c>
+      <c r="S9" s="133">
+        <v>1</v>
+      </c>
+      <c r="T9" s="129"/>
       <c r="U9" s="107" t="s">
         <v>2</v>
       </c>
@@ -5072,17 +5061,17 @@
         <v>4713.1457</v>
       </c>
       <c r="Y9" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1972392588910828E-3</v>
       </c>
-      <c r="Z9" s="140" t="str">
+      <c r="Z9" s="138" t="str">
         <f>'He Spectrum Database'!G153</f>
         <v>1s2p</v>
       </c>
-      <c r="AA9" s="140" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB9" s="133">
+      <c r="AA9" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB9" s="131">
         <f>AB8</f>
         <v>20.925863582280023</v>
       </c>
@@ -5126,33 +5115,32 @@
         <f t="shared" si="0"/>
         <v>8.3333333333257525E-3</v>
       </c>
-      <c r="L10" s="128" t="s">
-        <v>228</v>
+      <c r="L10" s="127" t="s">
+        <v>223</v>
       </c>
       <c r="M10" s="82">
-        <v>13.534999999999901</v>
+        <v>13.9949999999999</v>
       </c>
       <c r="N10" s="82">
-        <v>14.414999999999999</v>
+        <v>15.104999999999899</v>
       </c>
       <c r="O10" s="82">
-        <v>15.914999999999999</v>
+        <v>16.654999999999902</v>
       </c>
       <c r="P10" s="82">
-        <v>17.414999999999999</v>
-      </c>
-      <c r="Q10" s="99">
-        <f>10</f>
+        <v>18.105</v>
+      </c>
+      <c r="Q10" s="82">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="127">
         <v>10</v>
       </c>
-      <c r="R10" s="126">
-        <v>10</v>
-      </c>
-      <c r="S10" s="135">
-        <f>1.1</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T10" s="130"/>
+      <c r="S10" s="133">
+        <v>1</v>
+      </c>
+      <c r="T10" s="129"/>
       <c r="U10" s="107" t="s">
         <v>3</v>
       </c>
@@ -5169,13 +5157,13 @@
         <v>4921.9313000000002</v>
       </c>
       <c r="Y10" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.7144056481945764E-4</v>
       </c>
-      <c r="Z10" s="140" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA10" s="140" t="str">
+      <c r="Z10" s="138" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA10" s="138" t="str">
         <f>AA8</f>
         <v>1s4d1</v>
       </c>
@@ -5223,31 +5211,33 @@
         <f t="shared" si="0"/>
         <v>4.1666666666671404E-2</v>
       </c>
-      <c r="L11" s="128" t="s">
-        <v>229</v>
+      <c r="L11" s="127" t="s">
+        <v>227</v>
       </c>
       <c r="M11" s="82">
-        <v>12.864999999999901</v>
+        <v>13.534999999999901</v>
       </c>
       <c r="N11" s="82">
-        <v>13.844999999999899</v>
+        <v>14.414999999999999</v>
       </c>
       <c r="O11" s="82">
-        <v>15.344999999999899</v>
+        <v>15.914999999999999</v>
       </c>
       <c r="P11" s="82">
-        <v>16.844999999999999</v>
+        <v>17.414999999999999</v>
       </c>
       <c r="Q11" s="99">
+        <f>10</f>
         <v>10</v>
       </c>
-      <c r="R11" s="126">
+      <c r="R11" s="127">
         <v>10</v>
       </c>
-      <c r="S11" s="135">
-        <v>1.2</v>
-      </c>
-      <c r="T11" s="130"/>
+      <c r="S11" s="133">
+        <f>1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T11" s="129"/>
       <c r="U11" s="107" t="s">
         <v>7</v>
       </c>
@@ -5264,14 +5254,14 @@
         <v>5015.6782999999996</v>
       </c>
       <c r="Y11" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7871986376565112E-3</v>
       </c>
-      <c r="Z11" s="140" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA11" s="140" t="s">
-        <v>238</v>
+      <c r="Z11" s="138" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA11" s="138" t="s">
+        <v>237</v>
       </c>
       <c r="AB11" s="51">
         <f>'He Spectrum Database'!E159</f>
@@ -5317,32 +5307,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="128" t="s">
-        <v>226</v>
+      <c r="L12" s="127" t="s">
+        <v>228</v>
       </c>
       <c r="M12" s="82">
-        <v>13.614999999999901</v>
+        <v>12.864999999999901</v>
       </c>
       <c r="N12" s="82">
-        <v>14.805</v>
+        <v>13.844999999999899</v>
       </c>
       <c r="O12" s="82">
-        <v>16.355</v>
+        <v>15.344999999999899</v>
       </c>
       <c r="P12" s="82">
-        <v>17.8049999999999</v>
-      </c>
-      <c r="Q12" s="82">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="R12" s="126">
+        <v>16.844999999999999</v>
+      </c>
+      <c r="Q12" s="99">
         <v>10</v>
       </c>
-      <c r="S12" s="135">
-        <v>1.05</v>
-      </c>
-      <c r="T12" s="130"/>
+      <c r="R12" s="127">
+        <v>10</v>
+      </c>
+      <c r="S12" s="133">
+        <v>1.2</v>
+      </c>
+      <c r="T12" s="129"/>
       <c r="U12" s="107" t="s">
         <v>6</v>
       </c>
@@ -5359,15 +5348,15 @@
         <v>5875.6210000000001</v>
       </c>
       <c r="Y12" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4229654773794172E-3</v>
       </c>
-      <c r="Z12" s="140" t="str">
+      <c r="Z12" s="138" t="str">
         <f>'He Spectrum Database'!G165</f>
         <v>1s2p</v>
       </c>
-      <c r="AA12" s="140" t="s">
-        <v>237</v>
+      <c r="AA12" s="138" t="s">
+        <v>236</v>
       </c>
       <c r="AB12" s="51">
         <f>AB9</f>
@@ -5413,32 +5402,32 @@
         <f t="shared" si="0"/>
         <v>0.21666666666661183</v>
       </c>
-      <c r="L13" s="128" t="s">
-        <v>227</v>
+      <c r="L13" s="127" t="s">
+        <v>225</v>
       </c>
       <c r="M13" s="82">
-        <v>13.385</v>
+        <v>13.614999999999901</v>
       </c>
       <c r="N13" s="82">
-        <v>14.695</v>
+        <v>14.805</v>
       </c>
       <c r="O13" s="82">
-        <v>16.244999999999902</v>
+        <v>16.355</v>
       </c>
       <c r="P13" s="82">
-        <v>17.695</v>
+        <v>17.8049999999999</v>
       </c>
       <c r="Q13" s="82">
-        <f t="shared" ref="Q13:Q16" si="6">0.1</f>
+        <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="R13" s="126">
+      <c r="R13" s="127">
         <v>10</v>
       </c>
-      <c r="S13" s="135">
-        <v>1.07</v>
-      </c>
-      <c r="T13" s="130"/>
+      <c r="S13" s="133">
+        <v>1.05</v>
+      </c>
+      <c r="T13" s="129"/>
       <c r="U13" s="107" t="s">
         <v>13</v>
       </c>
@@ -5455,14 +5444,14 @@
         <v>6678.1509999999998</v>
       </c>
       <c r="Y13" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9475236678188746E-3</v>
       </c>
-      <c r="Z13" s="140" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA13" s="140" t="s">
-        <v>237</v>
+      <c r="Z13" s="138" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA13" s="138" t="s">
+        <v>236</v>
       </c>
       <c r="AB13" s="51">
         <f>'He Spectrum Database'!E171</f>
@@ -5508,56 +5497,56 @@
         <f t="shared" si="0"/>
         <v>3.3333333333331439E-2</v>
       </c>
-      <c r="L14" s="128" t="s">
-        <v>220</v>
+      <c r="L14" s="127" t="s">
+        <v>226</v>
       </c>
       <c r="M14" s="82">
+        <v>13.385</v>
+      </c>
+      <c r="N14" s="82">
         <v>14.695</v>
       </c>
-      <c r="N14" s="82">
-        <v>15.565</v>
-      </c>
       <c r="O14" s="82">
-        <v>17.114999999999998</v>
+        <v>16.244999999999902</v>
       </c>
       <c r="P14" s="82">
-        <v>18.514999999999901</v>
+        <v>17.695</v>
       </c>
       <c r="Q14" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Q14:Q17" si="6">0.1</f>
         <v>0.1</v>
       </c>
-      <c r="R14" s="126">
+      <c r="R14" s="127">
         <v>10</v>
       </c>
-      <c r="S14" s="135">
-        <v>0.9</v>
-      </c>
-      <c r="T14" s="130"/>
+      <c r="S14" s="133">
+        <v>1.07</v>
+      </c>
+      <c r="T14" s="129"/>
       <c r="U14" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="V14" s="192">
+      <c r="V14" s="187">
         <f t="shared" si="3"/>
         <v>7073.490932729027</v>
       </c>
-      <c r="W14" s="192">
+      <c r="W14" s="187">
         <f t="shared" si="4"/>
         <v>4.4710380401716749</v>
       </c>
-      <c r="X14" s="193">
+      <c r="X14" s="188">
         <f>'He Spectrum Database'!A174</f>
         <v>7065.19</v>
       </c>
-      <c r="Y14" s="194">
-        <f t="shared" si="2"/>
+      <c r="Y14" s="189">
+        <f t="shared" si="1"/>
         <v>1.1749058028202226E-3</v>
       </c>
-      <c r="Z14" s="195" t="str">
+      <c r="Z14" s="190" t="str">
         <f>'He Spectrum Database'!G174</f>
         <v>1s2p</v>
       </c>
-      <c r="AA14" s="140" t="str">
+      <c r="AA14" s="138" t="str">
         <f>'He Spectrum Database'!H174</f>
         <v>1s3s</v>
       </c>
@@ -5576,181 +5565,184 @@
     </row>
     <row r="15" spans="1:32" ht="15.95" customHeight="1">
       <c r="B15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I15" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="128" t="s">
-        <v>221</v>
+      <c r="L15" s="127" t="s">
+        <v>219</v>
       </c>
       <c r="M15" s="82">
-        <v>14.085000000000001</v>
+        <v>14.695</v>
       </c>
       <c r="N15" s="82">
-        <v>15.154999999999999</v>
+        <v>15.565</v>
       </c>
       <c r="O15" s="82">
-        <v>16.684999999999999</v>
+        <v>17.114999999999998</v>
       </c>
       <c r="P15" s="82">
-        <v>18.105</v>
+        <v>18.514999999999901</v>
       </c>
       <c r="Q15" s="82">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="R15" s="126">
+      <c r="R15" s="127">
         <v>10</v>
       </c>
-      <c r="S15" s="135">
-        <v>1</v>
-      </c>
-      <c r="U15" s="196" t="s">
-        <v>287</v>
-      </c>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="175" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB15" s="175"/>
-      <c r="AC15" s="176"/>
+      <c r="S15" s="133">
+        <v>0.9</v>
+      </c>
+      <c r="U15" s="191" t="s">
+        <v>286</v>
+      </c>
+      <c r="V15" s="169"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="169"/>
+      <c r="Y15" s="169"/>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="171" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="172"/>
       <c r="AD15" s="83">
         <f>AVERAGE(AD8:AD14)</f>
         <v>6.7050851567785699E-34</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="15.95" customHeight="1">
-      <c r="L16" s="128" t="s">
-        <v>222</v>
+      <c r="L16" s="127" t="s">
+        <v>220</v>
       </c>
       <c r="M16" s="82">
-        <v>14.0649999999999</v>
+        <v>14.085000000000001</v>
       </c>
       <c r="N16" s="82">
-        <v>15.1349999999999</v>
+        <v>15.154999999999999</v>
       </c>
       <c r="O16" s="82">
-        <v>16.534999999999901</v>
+        <v>16.684999999999999</v>
       </c>
       <c r="P16" s="82">
-        <v>18.135000000000002</v>
+        <v>18.105</v>
       </c>
       <c r="Q16" s="82">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="R16" s="126">
+      <c r="R16" s="127">
         <v>10</v>
       </c>
-      <c r="S16" s="135">
-        <v>1</v>
-      </c>
-      <c r="U16" s="197" t="s">
-        <v>288</v>
-      </c>
-      <c r="V16" s="198"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="198"/>
-      <c r="Y16" s="198"/>
-      <c r="Z16" s="199"/>
-      <c r="AA16" s="175" t="s">
+      <c r="S16" s="133">
+        <v>1</v>
+      </c>
+      <c r="U16" s="192" t="s">
+        <v>287</v>
+      </c>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="193"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="171" t="s">
         <v>196</v>
       </c>
-      <c r="AB16" s="175"/>
-      <c r="AC16" s="175"/>
+      <c r="AB16" s="171"/>
+      <c r="AC16" s="171"/>
       <c r="AD16" s="109">
         <f>STDEV(AD8:AD15)</f>
         <v>5.1450298175833894E-36</v>
       </c>
     </row>
     <row r="17" spans="2:35" ht="15.95" customHeight="1">
-      <c r="B17" s="178" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="179"/>
-      <c r="L17" s="123" t="s">
-        <v>254</v>
-      </c>
-      <c r="M17" s="145">
-        <f>AVERAGE(M7:M9,M12:M16)</f>
+      <c r="B17" s="201" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="203"/>
+      <c r="L17" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="M17" s="82">
+        <v>14.0649999999999</v>
+      </c>
+      <c r="N17" s="82">
+        <v>15.1349999999999</v>
+      </c>
+      <c r="O17" s="82">
+        <v>16.534999999999901</v>
+      </c>
+      <c r="P17" s="82">
+        <v>18.135000000000002</v>
+      </c>
+      <c r="Q17" s="82">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="127">
+        <v>10</v>
+      </c>
+      <c r="S17" s="133">
+        <v>1</v>
+      </c>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="AA17" s="173" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="172"/>
+      <c r="AD17" s="132">
+        <f>6.626E-34</f>
+        <v>6.6259999999999998E-34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" ht="15.95" customHeight="1">
+      <c r="B18" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="146" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="146" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="148" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="L18" s="127" t="s">
+        <v>253</v>
+      </c>
+      <c r="M18" s="82">
+        <f>AVERAGE(M8:M10,M13:M17)</f>
         <v>13.934999999999951</v>
       </c>
-      <c r="N17" s="145">
-        <f t="shared" ref="N17:P17" si="7">AVERAGE(N7:N9,N12:N16)</f>
+      <c r="N18" s="82">
+        <f t="shared" ref="N18:P18" si="7">AVERAGE(N8:N10,N13:N17)</f>
         <v>15.041249999999975</v>
       </c>
-      <c r="O17" s="145">
+      <c r="O18" s="82">
         <f t="shared" si="7"/>
         <v>16.564999999999952</v>
       </c>
-      <c r="P17" s="145">
+      <c r="P18" s="82">
         <f t="shared" si="7"/>
         <v>18.019999999999975</v>
       </c>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="141"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="AA17" s="177" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB17" s="175"/>
-      <c r="AC17" s="176"/>
-      <c r="AD17" s="134">
-        <f>6.626E-34</f>
-        <v>6.6259999999999998E-34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:35" ht="15.95" customHeight="1">
-      <c r="B18" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="150" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="151" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="152" t="s">
-        <v>284</v>
-      </c>
-      <c r="G18" s="80"/>
-      <c r="L18" s="128" t="s">
-        <v>303</v>
-      </c>
-      <c r="M18" s="82">
-        <f>M17+$O$1</f>
-        <v>19.819613582279999</v>
-      </c>
-      <c r="N18" s="82">
-        <f>N17+$O$1</f>
-        <v>20.925863582280023</v>
-      </c>
-      <c r="O18" s="82">
-        <f>O17+$O$1</f>
-        <v>22.449613582280001</v>
-      </c>
-      <c r="P18" s="82">
-        <f>P17+$O$1</f>
-        <v>23.904613582280021</v>
-      </c>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="141"/>
-    </row>
-    <row r="19" spans="2:35">
+      <c r="Q18" s="82"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="133"/>
+    </row>
+    <row r="19" spans="2:35" ht="18">
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
@@ -5762,7 +5754,7 @@
         <f t="shared" si="8"/>
         <v>15.716666666666669</v>
       </c>
-      <c r="E19" s="144">
+      <c r="E19" s="141">
         <f>(1/2*(SIN(RADIANS(C19))+SIN(RADIANS(D19))))*'Calc Na'!$H$9*10^10</f>
         <v>4484.856316319604</v>
       </c>
@@ -5770,12 +5762,28 @@
         <f xml:space="preserve"> 1/2*(('Calc Na'!$S$9)^2*('Calc Na'!$H$11)^2*(COS(RADIANS(D19))^2+COS(RADIANS(C19))^2)+('Calc Na'!$S$10)^2*(SIN(RADIANS(C19))+SIN(RADIANS(D19)))^2)^(1/2)*10^10</f>
         <v>3.4560009412750041</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="L19" s="127" t="s">
+        <v>302</v>
+      </c>
+      <c r="M19" s="82">
+        <f>M18+$O$1</f>
+        <v>19.819613582279999</v>
+      </c>
+      <c r="N19" s="82">
+        <f>N18+$O$1</f>
+        <v>20.925863582280023</v>
+      </c>
+      <c r="O19" s="82">
+        <f>O18+$O$1</f>
+        <v>22.449613582280001</v>
+      </c>
+      <c r="P19" s="82">
+        <f>P18+$O$1</f>
+        <v>23.904613582280021</v>
+      </c>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="133"/>
     </row>
     <row r="20" spans="2:35">
       <c r="B20" s="3" t="s">
@@ -5789,7 +5797,7 @@
         <f t="shared" si="8"/>
         <v>16.550000000000011</v>
       </c>
-      <c r="E20" s="144">
+      <c r="E20" s="141">
         <f>(1/2*(SIN(RADIANS(C20))+SIN(RADIANS(D20))))*'Calc Na'!$H$9*10^10</f>
         <v>4723.5016087649137</v>
       </c>
@@ -5798,8 +5806,14 @@
         <v>3.5404672469716982</v>
       </c>
       <c r="G20" t="s">
-        <v>232</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:35">
       <c r="B21" s="3" t="s">
@@ -5813,7 +5827,7 @@
         <f t="shared" si="8"/>
         <v>17.26666666666668</v>
       </c>
-      <c r="E21" s="144">
+      <c r="E21" s="141">
         <f>(1/2*(SIN(RADIANS(C21))+SIN(RADIANS(D21))))*'Calc Na'!$H$9*10^10</f>
         <v>4924.2516980720748</v>
       </c>
@@ -5824,9 +5838,6 @@
       <c r="J21" t="s">
         <v>114</v>
       </c>
-      <c r="L21" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="3" t="s">
@@ -5840,7 +5851,7 @@
         <f t="shared" si="8"/>
         <v>17.633333333333326</v>
       </c>
-      <c r="E22" s="144">
+      <c r="E22" s="141">
         <f>(1/2*(SIN(RADIANS(C22))+SIN(RADIANS(D22))))*'Calc Na'!$H$9*10^10</f>
         <v>5034.6736700246829</v>
       </c>
@@ -5849,7 +5860,7 @@
         <v>3.6539676255133147</v>
       </c>
       <c r="L22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="2:35">
@@ -5864,7 +5875,7 @@
         <f t="shared" si="8"/>
         <v>20.783333333333331</v>
       </c>
-      <c r="E23" s="144">
+      <c r="E23" s="141">
         <f>(1/2*(SIN(RADIANS(C23))+SIN(RADIANS(D23))))*'Calc Na'!$H$9*10^10</f>
         <v>5883.9818058411656</v>
       </c>
@@ -5873,8 +5884,11 @@
         <v>3.9806128178250191</v>
       </c>
       <c r="H23" s="118"/>
+      <c r="L23" t="s">
+        <v>243</v>
+      </c>
       <c r="V23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:35">
@@ -5889,7 +5903,7 @@
         <f t="shared" si="8"/>
         <v>24.216666666666669</v>
       </c>
-      <c r="E24" s="144">
+      <c r="E24" s="141">
         <f>(1/2*(SIN(RADIANS(C24))+SIN(RADIANS(D24))))*'Calc Na'!$H$9*10^10</f>
         <v>6744.5820651297681</v>
       </c>
@@ -5898,7 +5912,7 @@
         <v>4.332191663168004</v>
       </c>
       <c r="V24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="2:35">
@@ -5913,7 +5927,7 @@
         <f t="shared" si="8"/>
         <v>25.216666666666669</v>
       </c>
-      <c r="E25" s="144">
+      <c r="E25" s="141">
         <f>(1/2*(SIN(RADIANS(C25))+SIN(RADIANS(D25))))*'Calc Na'!$H$9*10^10</f>
         <v>7073.490932729027</v>
       </c>
@@ -5926,14 +5940,6 @@
       </c>
     </row>
     <row r="27" spans="2:35" ht="15.95" customHeight="1">
-      <c r="M27" s="161" t="s">
-        <v>290</v>
-      </c>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="176"/>
       <c r="AC27" s="90">
         <f>'He Spectrum Database'!B148</f>
         <v>4471.4740693000003</v>
@@ -5962,18 +5968,16 @@
     </row>
     <row r="28" spans="2:35" ht="15.95" customHeight="1">
       <c r="C28" t="s">
-        <v>283</v>
-      </c>
-      <c r="M28" s="181" t="s">
-        <v>235</v>
-      </c>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="177" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="176"/>
+        <v>282</v>
+      </c>
+      <c r="M28" s="157" t="s">
+        <v>289</v>
+      </c>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="171"/>
+      <c r="R28" s="172"/>
       <c r="AC28" s="90">
         <f>'He Spectrum Database'!B153</f>
         <v>4713.1391640000002</v>
@@ -6005,22 +6009,16 @@
     </row>
     <row r="29" spans="2:35" ht="15.95" customHeight="1">
       <c r="B29" s="122"/>
-      <c r="M29" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="N29" s="129" t="s">
-        <v>289</v>
-      </c>
-      <c r="O29" s="128" t="s">
-        <v>302</v>
-      </c>
-      <c r="P29" s="177" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="148" t="s">
+      <c r="M29" s="177" t="s">
         <v>234</v>
       </c>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="173" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="172"/>
       <c r="AC29" s="90">
         <f>'He Spectrum Database'!B158</f>
         <v>4921.9310127999997</v>
@@ -6051,25 +6049,21 @@
       </c>
     </row>
     <row r="30" spans="2:35" ht="15.95" customHeight="1">
-      <c r="M30" s="153">
-        <v>1</v>
-      </c>
-      <c r="N30" s="4">
-        <f>M18</f>
-        <v>19.819613582279999</v>
-      </c>
-      <c r="O30" s="4">
-        <f>SQRT((STDEV(M$7:M$9,M$12:M$16)/SQRT(8))^2+(0.01)^2)</f>
-        <v>0.14501231474798207</v>
-      </c>
-      <c r="P30" s="178" t="str">
-        <f>'He and Hg Levels'!A4</f>
-        <v xml:space="preserve">1s2s </v>
-      </c>
-      <c r="Q30" s="179"/>
-      <c r="R30" s="120">
-        <f>'He and Hg Levels'!D4</f>
-        <v>19.819613582279999</v>
+      <c r="M30" s="128" t="s">
+        <v>218</v>
+      </c>
+      <c r="N30" s="128" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="P30" s="173" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="144" t="s">
+        <v>233</v>
       </c>
       <c r="AC30" s="90">
         <f>'He Spectrum Database'!B159</f>
@@ -6098,25 +6092,25 @@
       </c>
     </row>
     <row r="31" spans="2:35" ht="15.95" customHeight="1">
-      <c r="M31" s="153">
-        <v>2</v>
+      <c r="M31" s="149">
+        <v>1</v>
       </c>
       <c r="N31" s="4">
-        <f>N18</f>
-        <v>20.925863582280023</v>
+        <f>M19</f>
+        <v>19.819613582279999</v>
       </c>
       <c r="O31" s="4">
-        <f>SQRT((STDEV(N$7:N$9,N$12:N$16)/SQRT(8))^2+(0.01)^2)</f>
-        <v>0.1028337336953077</v>
-      </c>
-      <c r="P31" s="177" t="str">
-        <f>'He and Hg Levels'!A6</f>
-        <v xml:space="preserve">1s2p </v>
-      </c>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="82">
-        <f>AVERAGE('He and Hg Levels'!D6:D8)</f>
-        <v>20.964133019913334</v>
+        <f>SQRT((STDEV(M$8:M$10,M$13:M$17)/SQRT(8))^2+(0.01)^2)</f>
+        <v>0.14501231474798207</v>
+      </c>
+      <c r="P31" s="174" t="str">
+        <f>'He and Hg Levels'!A4</f>
+        <v xml:space="preserve">1s2s </v>
+      </c>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="120">
+        <f>'He and Hg Levels'!D4</f>
+        <v>19.819613582279999</v>
       </c>
       <c r="AC31" s="90">
         <f>'He Spectrum Database'!B165</f>
@@ -6148,25 +6142,25 @@
       </c>
     </row>
     <row r="32" spans="2:35" ht="15.95" customHeight="1">
-      <c r="M32" s="153">
-        <v>3</v>
+      <c r="M32" s="149">
+        <v>2</v>
       </c>
       <c r="N32" s="4">
-        <f>O18</f>
-        <v>22.449613582280001</v>
+        <f>N19</f>
+        <v>20.925863582280023</v>
       </c>
       <c r="O32" s="4">
-        <f>SQRT((STDEV(O$7:O$9,O$12:O$16)/SQRT(8))^2+(0.01)^2)</f>
-        <v>0.1023125463608693</v>
-      </c>
-      <c r="P32" s="177" t="str">
-        <f>'He and Hg Levels'!A10</f>
-        <v xml:space="preserve">1s3s </v>
-      </c>
-      <c r="Q32" s="176"/>
+        <f>SQRT((STDEV(N$8:N$10,N$13:N$17)/SQRT(8))^2+(0.01)^2)</f>
+        <v>0.1028337336953077</v>
+      </c>
+      <c r="P32" s="173" t="str">
+        <f>'He and Hg Levels'!A6</f>
+        <v xml:space="preserve">1s2p </v>
+      </c>
+      <c r="Q32" s="172"/>
       <c r="R32" s="82">
-        <f>'He and Hg Levels'!D10</f>
-        <v>22.718465298000002</v>
+        <f>AVERAGE('He and Hg Levels'!D6:D8)</f>
+        <v>20.964133019913334</v>
       </c>
       <c r="AC32" s="90">
         <f>'He Spectrum Database'!B171</f>
@@ -6198,26 +6192,25 @@
       </c>
     </row>
     <row r="33" spans="12:35" ht="15.95" customHeight="1">
-      <c r="L33" s="1"/>
-      <c r="M33" s="153">
-        <v>4</v>
+      <c r="M33" s="149">
+        <v>3</v>
       </c>
       <c r="N33" s="4">
-        <f>P18</f>
-        <v>23.904613582280021</v>
+        <f>O19</f>
+        <v>22.449613582280001</v>
       </c>
       <c r="O33" s="4">
-        <f>SQRT((STDEV(P$7:P$9,P$12:P$16)/SQRT(8))^2+(0.01)^2)</f>
-        <v>9.8470445167224946E-2</v>
-      </c>
-      <c r="P33" s="177" t="str">
-        <f>'He and Hg Levels'!A34</f>
-        <v xml:space="preserve">1s5s </v>
-      </c>
-      <c r="Q33" s="176"/>
+        <f>SQRT((STDEV(O$8:O$10,O$13:O$17)/SQRT(8))^2+(0.01)^2)</f>
+        <v>0.1023125463608693</v>
+      </c>
+      <c r="P33" s="173" t="str">
+        <f>'He and Hg Levels'!A10</f>
+        <v xml:space="preserve">1s3s </v>
+      </c>
+      <c r="Q33" s="172"/>
       <c r="R33" s="82">
-        <f>'He and Hg Levels'!D34</f>
-        <v>23.971970217599999</v>
+        <f>'He and Hg Levels'!D10</f>
+        <v>22.718465298000002</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -6242,7 +6235,7 @@
         <v>20.964095349809998</v>
       </c>
       <c r="AG33" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH33" s="90" t="str">
         <f>'He Spectrum Database'!G174</f>
@@ -6255,14 +6248,26 @@
     </row>
     <row r="34" spans="12:35" ht="17.25" customHeight="1">
       <c r="L34" s="1"/>
-      <c r="M34" s="201" t="s">
-        <v>304</v>
-      </c>
-      <c r="N34" s="200"/>
-      <c r="O34" s="200"/>
-      <c r="P34" s="200"/>
-      <c r="Q34" s="200"/>
-      <c r="R34" s="202"/>
+      <c r="M34" s="149">
+        <v>4</v>
+      </c>
+      <c r="N34" s="4">
+        <f>P19</f>
+        <v>23.904613582280021</v>
+      </c>
+      <c r="O34" s="4">
+        <f>SQRT((STDEV(P$8:P$10,P$13:P$17)/SQRT(8))^2+(0.01)^2)</f>
+        <v>9.8470445167224946E-2</v>
+      </c>
+      <c r="P34" s="173" t="str">
+        <f>'He and Hg Levels'!A34</f>
+        <v xml:space="preserve">1s5s </v>
+      </c>
+      <c r="Q34" s="172"/>
+      <c r="R34" s="82">
+        <f>'He and Hg Levels'!D34</f>
+        <v>23.971970217599999</v>
+      </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -6272,19 +6277,31 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="12:35">
-      <c r="M35" s="203"/>
-      <c r="N35" s="204"/>
-      <c r="O35" s="204"/>
-      <c r="P35" s="204"/>
-      <c r="Q35" s="204"/>
-      <c r="R35" s="205"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="196" t="s">
+        <v>303</v>
+      </c>
+      <c r="N35" s="195"/>
+      <c r="O35" s="195"/>
+      <c r="P35" s="195"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="197"/>
+    </row>
+    <row r="36" spans="12:35">
+      <c r="M36" s="198"/>
+      <c r="N36" s="199"/>
+      <c r="O36" s="199"/>
+      <c r="P36" s="199"/>
+      <c r="Q36" s="199"/>
+      <c r="R36" s="200"/>
     </row>
   </sheetData>
   <sortState ref="L5:P14">
     <sortCondition ref="L5:L14"/>
   </sortState>
-  <mergeCells count="29">
-    <mergeCell ref="M34:R35"/>
+  <mergeCells count="30">
+    <mergeCell ref="M35:R36"/>
+    <mergeCell ref="L5:S5"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="U15:Z15"/>
     <mergeCell ref="A5:I5"/>
@@ -6294,30 +6311,30 @@
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="AA17:AC17"/>
     <mergeCell ref="AA16:AC16"/>
     <mergeCell ref="AA15:AC15"/>
     <mergeCell ref="Z6:AC6"/>
     <mergeCell ref="U16:Z16"/>
-    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="P34:Q34"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M17:P17" formulaRange="1"/>
+    <ignoredError sqref="M18:P18" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6344,14 +6361,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
       <c r="L1" s="64" t="s">
         <v>110</v>
       </c>
@@ -6389,50 +6406,50 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="185" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="187" t="s">
+      <c r="B8" s="181"/>
+      <c r="C8" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="189" t="s">
+      <c r="E8" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="189"/>
-      <c r="G8" s="188" t="s">
+      <c r="F8" s="184"/>
+      <c r="G8" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="189" t="s">
+      <c r="H8" s="183"/>
+      <c r="I8" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="189"/>
-      <c r="K8" s="186" t="s">
+      <c r="J8" s="184"/>
+      <c r="K8" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="186"/>
-      <c r="M8" s="188" t="s">
+      <c r="L8" s="181"/>
+      <c r="M8" s="183" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6443,25 +6460,25 @@
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="188"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
       <c r="E9" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
       <c r="K9" s="12" t="s">
         <v>81</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="188"/>
+      <c r="M9" s="183"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="48">
@@ -7649,33 +7666,33 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="186"/>
-      <c r="C40" s="187" t="s">
+      <c r="B40" s="181"/>
+      <c r="C40" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="188" t="s">
+      <c r="D40" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="189" t="s">
+      <c r="E40" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="189"/>
-      <c r="G40" s="188" t="s">
+      <c r="F40" s="184"/>
+      <c r="G40" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="188"/>
-      <c r="I40" s="189" t="s">
+      <c r="H40" s="183"/>
+      <c r="I40" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="J40" s="189"/>
-      <c r="K40" s="186" t="s">
+      <c r="J40" s="184"/>
+      <c r="K40" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="186"/>
-      <c r="M40" s="188" t="s">
+      <c r="L40" s="181"/>
+      <c r="M40" s="183" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7686,25 +7703,25 @@
       <c r="B41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="187"/>
-      <c r="D41" s="188"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="183"/>
       <c r="E41" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="184"/>
       <c r="K41" s="12" t="s">
         <v>81</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M41" s="188"/>
+      <c r="M41" s="183"/>
     </row>
     <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="14">
@@ -12830,16 +12847,16 @@
         <v>15074.467994000001</v>
       </c>
       <c r="D170" s="34"/>
-      <c r="E170" s="136">
+      <c r="E170" s="134">
         <v>21.218021673199999</v>
       </c>
-      <c r="F170" s="136">
+      <c r="F170" s="134">
         <v>23.087017385399999</v>
       </c>
-      <c r="G170" s="137" t="s">
+      <c r="G170" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="H170" s="137" t="s">
+      <c r="H170" s="135" t="s">
         <v>45</v>
       </c>
       <c r="I170" s="35" t="s">
@@ -12871,16 +12888,16 @@
       <c r="D171" s="34">
         <v>100</v>
       </c>
-      <c r="E171" s="136">
+      <c r="E171" s="134">
         <v>21.218021673199999</v>
       </c>
-      <c r="F171" s="136">
+      <c r="F171" s="134">
         <v>23.07407365281</v>
       </c>
-      <c r="G171" s="137" t="s">
+      <c r="G171" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="H171" s="137" t="s">
+      <c r="H171" s="135" t="s">
         <v>46</v>
       </c>
       <c r="I171" s="35" t="s">
@@ -12908,16 +12925,16 @@
         <v>14966.651743</v>
       </c>
       <c r="D172" s="34"/>
-      <c r="E172" s="136">
+      <c r="E172" s="134">
         <v>21.218021673199999</v>
       </c>
-      <c r="F172" s="136">
+      <c r="F172" s="134">
         <v>23.073649874819999</v>
       </c>
-      <c r="G172" s="137" t="s">
+      <c r="G172" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="H172" s="137" t="s">
+      <c r="H172" s="135" t="s">
         <v>46</v>
       </c>
       <c r="I172" s="35" t="s">
@@ -13480,56 +13497,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="183" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="189"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="184"/>
+      <c r="E2" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="189" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="189"/>
-      <c r="I2" s="186" t="s">
+      <c r="H2" s="184"/>
+      <c r="I2" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="186"/>
+      <c r="J2" s="181"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="188"/>
-      <c r="B3" s="188"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
       <c r="I3" s="12" t="s">
         <v>81</v>
       </c>
